--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -338,6 +338,87 @@
   </si>
   <si>
     <t>https://gwireuat-0:8443/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>Corresponding activity for Incarico pericia</t>
+  </si>
+  <si>
+    <t>Message_E-1020</t>
+  </si>
+  <si>
+    <t>IncaricoPerizia_AditionalInstructions</t>
+  </si>
+  <si>
+    <t>SollecitoEllaborato_Subject</t>
+  </si>
+  <si>
+    <t>SollecitoEllaborato_Message</t>
+  </si>
+  <si>
+    <t>Sollecito Incarico</t>
+  </si>
+  <si>
+    <t>Si richiede perizia di riscontro per negazione evento di controparte</t>
+  </si>
+  <si>
+    <t>SollecitoCAI2_LetteraDetails</t>
+  </si>
+  <si>
+    <t>Si sollecita il rientro del servizio per scambio documentale</t>
+  </si>
+  <si>
+    <t>Buongiorno, in merito al sinistro n. {0} con la presentesiamo a richiedere copia della costatazione amichevolle</t>
+  </si>
+  <si>
+    <t>SollecitoCAI2_LetteraMail</t>
+  </si>
+  <si>
+    <t>documentazionecard@verti.it</t>
+  </si>
+  <si>
+    <t>SollecitoCAI2_TestoLibre</t>
+  </si>
+  <si>
+    <t>SollecitoCAI2_AutosoftDocName</t>
+  </si>
+  <si>
+    <t>Name of file to be searched in Autosoft window</t>
+  </si>
+  <si>
+    <t>Download_Path</t>
+  </si>
+  <si>
+    <t>Download's folder path for the CARD2.0</t>
+  </si>
+  <si>
+    <t>SOGESA_URL</t>
+  </si>
+  <si>
+    <t>portal.sogesa.net/Home.aspx</t>
+  </si>
+  <si>
+    <t>LetteraTessi_TesteDenuncia</t>
+  </si>
+  <si>
+    <t>LetteraTessi_TesteDenunciaNE</t>
+  </si>
+  <si>
+    <t>LetteraTessi_TesteDenunciaNA</t>
+  </si>
+  <si>
+    <t>LetteraTessi_TesteCAI</t>
+  </si>
+  <si>
+    <t>Gentile cliente con la presente le richiediamo denuncia scritta e firmata contente la dinamica dell'evento, le targhe dei veicoli coinvolti, la data, l'ora e il luogo relativi al sinistro in oggeto e ulteriori elementi di prova di seguito indicati.</t>
+  </si>
+  <si>
+    <t>Gentile cliente, in merito al sinistro in oggetto vi chiediamo una copia della costatazione amichevole, se in Vostro possesso, in quanto la compagnia di controparte ne fa richiesta. Potete inoltrare tale documento all'indirizzo mail documentazionecardverti.it</t>
+  </si>
+  <si>
+    <t>LetteraTessi_MailTestimonianza</t>
+  </si>
+  <si>
+    <t>Salve, in merito al sinistro in oggetto vi chiedamo una copia della constatazione amichevole, se in Vostro possesso, in quanto la compagnia di controparte ne fa richiesta. Potete inoltrare tale documento all'indirizzo mail documentazionecard@verti.it</t>
   </si>
 </sst>
 </file>
@@ -403,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -422,6 +503,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -737,16 +833,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD997"/>
+  <dimension ref="A1:XFD998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -755,7 +851,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -789,7 +885,7 @@
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -800,7 +896,7 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -808,18 +904,18 @@
       </c>
     </row>
     <row r="4" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
+      <c r="A5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D5" s="2"/>
@@ -9015,46 +9111,144 @@
       <c r="XFD5" s="2"/>
     </row>
     <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
+      <c r="A6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384">
+      <c r="A10" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="30">
+      <c r="A11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="60">
+      <c r="A13" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -10020,10 +10214,15 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B17" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10032,7 +10231,7 @@
   <dimension ref="A1:Z981"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A40" sqref="A40:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10437,7 +10636,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
@@ -11452,9 +11658,7 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tartagc.DL-ITALY\Documents\UiPath\CARD2_Guidewire\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salcef1.DL-ITALY\Documents\UiPath\CARD2_GuideWire\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -394,9 +394,6 @@
     <t>SOGESA_URL</t>
   </si>
   <si>
-    <t>portal.sogesa.net/Home.aspx</t>
-  </si>
-  <si>
     <t>LetteraTessi_TesteDenuncia</t>
   </si>
   <si>
@@ -419,6 +416,18 @@
   </si>
   <si>
     <t>Salve, in merito al sinistro in oggetto vi chiedamo una copia della constatazione amichevole, se in Vostro possesso, in quanto la compagnia di controparte ne fa richiesta. Potete inoltrare tale documento all'indirizzo mail documentazionecard@verti.it</t>
+  </si>
+  <si>
+    <t>SOGESA_Credential</t>
+  </si>
+  <si>
+    <t>Name of asset that contains credentials with access to SO.GE.S.A. system.</t>
+  </si>
+  <si>
+    <t>Path to SO.GE.S.A. webpage portal.</t>
+  </si>
+  <si>
+    <t>portal.sogesa.net/</t>
   </si>
 </sst>
 </file>
@@ -833,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD998"/>
+  <dimension ref="A1:XFD999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9112,143 +9121,8347 @@
     </row>
     <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A6" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BV6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CL6" s="2"/>
+      <c r="CN6" s="2"/>
+      <c r="CP6" s="2"/>
+      <c r="CR6" s="2"/>
+      <c r="CT6" s="2"/>
+      <c r="CV6" s="2"/>
+      <c r="CX6" s="2"/>
+      <c r="CZ6" s="2"/>
+      <c r="DB6" s="2"/>
+      <c r="DD6" s="2"/>
+      <c r="DF6" s="2"/>
+      <c r="DH6" s="2"/>
+      <c r="DJ6" s="2"/>
+      <c r="DL6" s="2"/>
+      <c r="DN6" s="2"/>
+      <c r="DP6" s="2"/>
+      <c r="DR6" s="2"/>
+      <c r="DT6" s="2"/>
+      <c r="DV6" s="2"/>
+      <c r="DX6" s="2"/>
+      <c r="DZ6" s="2"/>
+      <c r="EB6" s="2"/>
+      <c r="ED6" s="2"/>
+      <c r="EF6" s="2"/>
+      <c r="EH6" s="2"/>
+      <c r="EJ6" s="2"/>
+      <c r="EL6" s="2"/>
+      <c r="EN6" s="2"/>
+      <c r="EP6" s="2"/>
+      <c r="ER6" s="2"/>
+      <c r="ET6" s="2"/>
+      <c r="EV6" s="2"/>
+      <c r="EX6" s="2"/>
+      <c r="EZ6" s="2"/>
+      <c r="FB6" s="2"/>
+      <c r="FD6" s="2"/>
+      <c r="FF6" s="2"/>
+      <c r="FH6" s="2"/>
+      <c r="FJ6" s="2"/>
+      <c r="FL6" s="2"/>
+      <c r="FN6" s="2"/>
+      <c r="FP6" s="2"/>
+      <c r="FR6" s="2"/>
+      <c r="FT6" s="2"/>
+      <c r="FV6" s="2"/>
+      <c r="FX6" s="2"/>
+      <c r="FZ6" s="2"/>
+      <c r="GB6" s="2"/>
+      <c r="GD6" s="2"/>
+      <c r="GF6" s="2"/>
+      <c r="GH6" s="2"/>
+      <c r="GJ6" s="2"/>
+      <c r="GL6" s="2"/>
+      <c r="GN6" s="2"/>
+      <c r="GP6" s="2"/>
+      <c r="GR6" s="2"/>
+      <c r="GT6" s="2"/>
+      <c r="GV6" s="2"/>
+      <c r="GX6" s="2"/>
+      <c r="GZ6" s="2"/>
+      <c r="HB6" s="2"/>
+      <c r="HD6" s="2"/>
+      <c r="HF6" s="2"/>
+      <c r="HH6" s="2"/>
+      <c r="HJ6" s="2"/>
+      <c r="HL6" s="2"/>
+      <c r="HN6" s="2"/>
+      <c r="HP6" s="2"/>
+      <c r="HR6" s="2"/>
+      <c r="HT6" s="2"/>
+      <c r="HV6" s="2"/>
+      <c r="HX6" s="2"/>
+      <c r="HZ6" s="2"/>
+      <c r="IB6" s="2"/>
+      <c r="ID6" s="2"/>
+      <c r="IF6" s="2"/>
+      <c r="IH6" s="2"/>
+      <c r="IJ6" s="2"/>
+      <c r="IL6" s="2"/>
+      <c r="IN6" s="2"/>
+      <c r="IP6" s="2"/>
+      <c r="IR6" s="2"/>
+      <c r="IT6" s="2"/>
+      <c r="IV6" s="2"/>
+      <c r="IX6" s="2"/>
+      <c r="IZ6" s="2"/>
+      <c r="JB6" s="2"/>
+      <c r="JD6" s="2"/>
+      <c r="JF6" s="2"/>
+      <c r="JH6" s="2"/>
+      <c r="JJ6" s="2"/>
+      <c r="JL6" s="2"/>
+      <c r="JN6" s="2"/>
+      <c r="JP6" s="2"/>
+      <c r="JR6" s="2"/>
+      <c r="JT6" s="2"/>
+      <c r="JV6" s="2"/>
+      <c r="JX6" s="2"/>
+      <c r="JZ6" s="2"/>
+      <c r="KB6" s="2"/>
+      <c r="KD6" s="2"/>
+      <c r="KF6" s="2"/>
+      <c r="KH6" s="2"/>
+      <c r="KJ6" s="2"/>
+      <c r="KL6" s="2"/>
+      <c r="KN6" s="2"/>
+      <c r="KP6" s="2"/>
+      <c r="KR6" s="2"/>
+      <c r="KT6" s="2"/>
+      <c r="KV6" s="2"/>
+      <c r="KX6" s="2"/>
+      <c r="KZ6" s="2"/>
+      <c r="LB6" s="2"/>
+      <c r="LD6" s="2"/>
+      <c r="LF6" s="2"/>
+      <c r="LH6" s="2"/>
+      <c r="LJ6" s="2"/>
+      <c r="LL6" s="2"/>
+      <c r="LN6" s="2"/>
+      <c r="LP6" s="2"/>
+      <c r="LR6" s="2"/>
+      <c r="LT6" s="2"/>
+      <c r="LV6" s="2"/>
+      <c r="LX6" s="2"/>
+      <c r="LZ6" s="2"/>
+      <c r="MB6" s="2"/>
+      <c r="MD6" s="2"/>
+      <c r="MF6" s="2"/>
+      <c r="MH6" s="2"/>
+      <c r="MJ6" s="2"/>
+      <c r="ML6" s="2"/>
+      <c r="MN6" s="2"/>
+      <c r="MP6" s="2"/>
+      <c r="MR6" s="2"/>
+      <c r="MT6" s="2"/>
+      <c r="MV6" s="2"/>
+      <c r="MX6" s="2"/>
+      <c r="MZ6" s="2"/>
+      <c r="NB6" s="2"/>
+      <c r="ND6" s="2"/>
+      <c r="NF6" s="2"/>
+      <c r="NH6" s="2"/>
+      <c r="NJ6" s="2"/>
+      <c r="NL6" s="2"/>
+      <c r="NN6" s="2"/>
+      <c r="NP6" s="2"/>
+      <c r="NR6" s="2"/>
+      <c r="NT6" s="2"/>
+      <c r="NV6" s="2"/>
+      <c r="NX6" s="2"/>
+      <c r="NZ6" s="2"/>
+      <c r="OB6" s="2"/>
+      <c r="OD6" s="2"/>
+      <c r="OF6" s="2"/>
+      <c r="OH6" s="2"/>
+      <c r="OJ6" s="2"/>
+      <c r="OL6" s="2"/>
+      <c r="ON6" s="2"/>
+      <c r="OP6" s="2"/>
+      <c r="OR6" s="2"/>
+      <c r="OT6" s="2"/>
+      <c r="OV6" s="2"/>
+      <c r="OX6" s="2"/>
+      <c r="OZ6" s="2"/>
+      <c r="PB6" s="2"/>
+      <c r="PD6" s="2"/>
+      <c r="PF6" s="2"/>
+      <c r="PH6" s="2"/>
+      <c r="PJ6" s="2"/>
+      <c r="PL6" s="2"/>
+      <c r="PN6" s="2"/>
+      <c r="PP6" s="2"/>
+      <c r="PR6" s="2"/>
+      <c r="PT6" s="2"/>
+      <c r="PV6" s="2"/>
+      <c r="PX6" s="2"/>
+      <c r="PZ6" s="2"/>
+      <c r="QB6" s="2"/>
+      <c r="QD6" s="2"/>
+      <c r="QF6" s="2"/>
+      <c r="QH6" s="2"/>
+      <c r="QJ6" s="2"/>
+      <c r="QL6" s="2"/>
+      <c r="QN6" s="2"/>
+      <c r="QP6" s="2"/>
+      <c r="QR6" s="2"/>
+      <c r="QT6" s="2"/>
+      <c r="QV6" s="2"/>
+      <c r="QX6" s="2"/>
+      <c r="QZ6" s="2"/>
+      <c r="RB6" s="2"/>
+      <c r="RD6" s="2"/>
+      <c r="RF6" s="2"/>
+      <c r="RH6" s="2"/>
+      <c r="RJ6" s="2"/>
+      <c r="RL6" s="2"/>
+      <c r="RN6" s="2"/>
+      <c r="RP6" s="2"/>
+      <c r="RR6" s="2"/>
+      <c r="RT6" s="2"/>
+      <c r="RV6" s="2"/>
+      <c r="RX6" s="2"/>
+      <c r="RZ6" s="2"/>
+      <c r="SB6" s="2"/>
+      <c r="SD6" s="2"/>
+      <c r="SF6" s="2"/>
+      <c r="SH6" s="2"/>
+      <c r="SJ6" s="2"/>
+      <c r="SL6" s="2"/>
+      <c r="SN6" s="2"/>
+      <c r="SP6" s="2"/>
+      <c r="SR6" s="2"/>
+      <c r="ST6" s="2"/>
+      <c r="SV6" s="2"/>
+      <c r="SX6" s="2"/>
+      <c r="SZ6" s="2"/>
+      <c r="TB6" s="2"/>
+      <c r="TD6" s="2"/>
+      <c r="TF6" s="2"/>
+      <c r="TH6" s="2"/>
+      <c r="TJ6" s="2"/>
+      <c r="TL6" s="2"/>
+      <c r="TN6" s="2"/>
+      <c r="TP6" s="2"/>
+      <c r="TR6" s="2"/>
+      <c r="TT6" s="2"/>
+      <c r="TV6" s="2"/>
+      <c r="TX6" s="2"/>
+      <c r="TZ6" s="2"/>
+      <c r="UB6" s="2"/>
+      <c r="UD6" s="2"/>
+      <c r="UF6" s="2"/>
+      <c r="UH6" s="2"/>
+      <c r="UJ6" s="2"/>
+      <c r="UL6" s="2"/>
+      <c r="UN6" s="2"/>
+      <c r="UP6" s="2"/>
+      <c r="UR6" s="2"/>
+      <c r="UT6" s="2"/>
+      <c r="UV6" s="2"/>
+      <c r="UX6" s="2"/>
+      <c r="UZ6" s="2"/>
+      <c r="VB6" s="2"/>
+      <c r="VD6" s="2"/>
+      <c r="VF6" s="2"/>
+      <c r="VH6" s="2"/>
+      <c r="VJ6" s="2"/>
+      <c r="VL6" s="2"/>
+      <c r="VN6" s="2"/>
+      <c r="VP6" s="2"/>
+      <c r="VR6" s="2"/>
+      <c r="VT6" s="2"/>
+      <c r="VV6" s="2"/>
+      <c r="VX6" s="2"/>
+      <c r="VZ6" s="2"/>
+      <c r="WB6" s="2"/>
+      <c r="WD6" s="2"/>
+      <c r="WF6" s="2"/>
+      <c r="WH6" s="2"/>
+      <c r="WJ6" s="2"/>
+      <c r="WL6" s="2"/>
+      <c r="WN6" s="2"/>
+      <c r="WP6" s="2"/>
+      <c r="WR6" s="2"/>
+      <c r="WT6" s="2"/>
+      <c r="WV6" s="2"/>
+      <c r="WX6" s="2"/>
+      <c r="WZ6" s="2"/>
+      <c r="XB6" s="2"/>
+      <c r="XD6" s="2"/>
+      <c r="XF6" s="2"/>
+      <c r="XH6" s="2"/>
+      <c r="XJ6" s="2"/>
+      <c r="XL6" s="2"/>
+      <c r="XN6" s="2"/>
+      <c r="XP6" s="2"/>
+      <c r="XR6" s="2"/>
+      <c r="XT6" s="2"/>
+      <c r="XV6" s="2"/>
+      <c r="XX6" s="2"/>
+      <c r="XZ6" s="2"/>
+      <c r="YB6" s="2"/>
+      <c r="YD6" s="2"/>
+      <c r="YF6" s="2"/>
+      <c r="YH6" s="2"/>
+      <c r="YJ6" s="2"/>
+      <c r="YL6" s="2"/>
+      <c r="YN6" s="2"/>
+      <c r="YP6" s="2"/>
+      <c r="YR6" s="2"/>
+      <c r="YT6" s="2"/>
+      <c r="YV6" s="2"/>
+      <c r="YX6" s="2"/>
+      <c r="YZ6" s="2"/>
+      <c r="ZB6" s="2"/>
+      <c r="ZD6" s="2"/>
+      <c r="ZF6" s="2"/>
+      <c r="ZH6" s="2"/>
+      <c r="ZJ6" s="2"/>
+      <c r="ZL6" s="2"/>
+      <c r="ZN6" s="2"/>
+      <c r="ZP6" s="2"/>
+      <c r="ZR6" s="2"/>
+      <c r="ZT6" s="2"/>
+      <c r="ZV6" s="2"/>
+      <c r="ZX6" s="2"/>
+      <c r="ZZ6" s="2"/>
+      <c r="AAB6" s="2"/>
+      <c r="AAD6" s="2"/>
+      <c r="AAF6" s="2"/>
+      <c r="AAH6" s="2"/>
+      <c r="AAJ6" s="2"/>
+      <c r="AAL6" s="2"/>
+      <c r="AAN6" s="2"/>
+      <c r="AAP6" s="2"/>
+      <c r="AAR6" s="2"/>
+      <c r="AAT6" s="2"/>
+      <c r="AAV6" s="2"/>
+      <c r="AAX6" s="2"/>
+      <c r="AAZ6" s="2"/>
+      <c r="ABB6" s="2"/>
+      <c r="ABD6" s="2"/>
+      <c r="ABF6" s="2"/>
+      <c r="ABH6" s="2"/>
+      <c r="ABJ6" s="2"/>
+      <c r="ABL6" s="2"/>
+      <c r="ABN6" s="2"/>
+      <c r="ABP6" s="2"/>
+      <c r="ABR6" s="2"/>
+      <c r="ABT6" s="2"/>
+      <c r="ABV6" s="2"/>
+      <c r="ABX6" s="2"/>
+      <c r="ABZ6" s="2"/>
+      <c r="ACB6" s="2"/>
+      <c r="ACD6" s="2"/>
+      <c r="ACF6" s="2"/>
+      <c r="ACH6" s="2"/>
+      <c r="ACJ6" s="2"/>
+      <c r="ACL6" s="2"/>
+      <c r="ACN6" s="2"/>
+      <c r="ACP6" s="2"/>
+      <c r="ACR6" s="2"/>
+      <c r="ACT6" s="2"/>
+      <c r="ACV6" s="2"/>
+      <c r="ACX6" s="2"/>
+      <c r="ACZ6" s="2"/>
+      <c r="ADB6" s="2"/>
+      <c r="ADD6" s="2"/>
+      <c r="ADF6" s="2"/>
+      <c r="ADH6" s="2"/>
+      <c r="ADJ6" s="2"/>
+      <c r="ADL6" s="2"/>
+      <c r="ADN6" s="2"/>
+      <c r="ADP6" s="2"/>
+      <c r="ADR6" s="2"/>
+      <c r="ADT6" s="2"/>
+      <c r="ADV6" s="2"/>
+      <c r="ADX6" s="2"/>
+      <c r="ADZ6" s="2"/>
+      <c r="AEB6" s="2"/>
+      <c r="AED6" s="2"/>
+      <c r="AEF6" s="2"/>
+      <c r="AEH6" s="2"/>
+      <c r="AEJ6" s="2"/>
+      <c r="AEL6" s="2"/>
+      <c r="AEN6" s="2"/>
+      <c r="AEP6" s="2"/>
+      <c r="AER6" s="2"/>
+      <c r="AET6" s="2"/>
+      <c r="AEV6" s="2"/>
+      <c r="AEX6" s="2"/>
+      <c r="AEZ6" s="2"/>
+      <c r="AFB6" s="2"/>
+      <c r="AFD6" s="2"/>
+      <c r="AFF6" s="2"/>
+      <c r="AFH6" s="2"/>
+      <c r="AFJ6" s="2"/>
+      <c r="AFL6" s="2"/>
+      <c r="AFN6" s="2"/>
+      <c r="AFP6" s="2"/>
+      <c r="AFR6" s="2"/>
+      <c r="AFT6" s="2"/>
+      <c r="AFV6" s="2"/>
+      <c r="AFX6" s="2"/>
+      <c r="AFZ6" s="2"/>
+      <c r="AGB6" s="2"/>
+      <c r="AGD6" s="2"/>
+      <c r="AGF6" s="2"/>
+      <c r="AGH6" s="2"/>
+      <c r="AGJ6" s="2"/>
+      <c r="AGL6" s="2"/>
+      <c r="AGN6" s="2"/>
+      <c r="AGP6" s="2"/>
+      <c r="AGR6" s="2"/>
+      <c r="AGT6" s="2"/>
+      <c r="AGV6" s="2"/>
+      <c r="AGX6" s="2"/>
+      <c r="AGZ6" s="2"/>
+      <c r="AHB6" s="2"/>
+      <c r="AHD6" s="2"/>
+      <c r="AHF6" s="2"/>
+      <c r="AHH6" s="2"/>
+      <c r="AHJ6" s="2"/>
+      <c r="AHL6" s="2"/>
+      <c r="AHN6" s="2"/>
+      <c r="AHP6" s="2"/>
+      <c r="AHR6" s="2"/>
+      <c r="AHT6" s="2"/>
+      <c r="AHV6" s="2"/>
+      <c r="AHX6" s="2"/>
+      <c r="AHZ6" s="2"/>
+      <c r="AIB6" s="2"/>
+      <c r="AID6" s="2"/>
+      <c r="AIF6" s="2"/>
+      <c r="AIH6" s="2"/>
+      <c r="AIJ6" s="2"/>
+      <c r="AIL6" s="2"/>
+      <c r="AIN6" s="2"/>
+      <c r="AIP6" s="2"/>
+      <c r="AIR6" s="2"/>
+      <c r="AIT6" s="2"/>
+      <c r="AIV6" s="2"/>
+      <c r="AIX6" s="2"/>
+      <c r="AIZ6" s="2"/>
+      <c r="AJB6" s="2"/>
+      <c r="AJD6" s="2"/>
+      <c r="AJF6" s="2"/>
+      <c r="AJH6" s="2"/>
+      <c r="AJJ6" s="2"/>
+      <c r="AJL6" s="2"/>
+      <c r="AJN6" s="2"/>
+      <c r="AJP6" s="2"/>
+      <c r="AJR6" s="2"/>
+      <c r="AJT6" s="2"/>
+      <c r="AJV6" s="2"/>
+      <c r="AJX6" s="2"/>
+      <c r="AJZ6" s="2"/>
+      <c r="AKB6" s="2"/>
+      <c r="AKD6" s="2"/>
+      <c r="AKF6" s="2"/>
+      <c r="AKH6" s="2"/>
+      <c r="AKJ6" s="2"/>
+      <c r="AKL6" s="2"/>
+      <c r="AKN6" s="2"/>
+      <c r="AKP6" s="2"/>
+      <c r="AKR6" s="2"/>
+      <c r="AKT6" s="2"/>
+      <c r="AKV6" s="2"/>
+      <c r="AKX6" s="2"/>
+      <c r="AKZ6" s="2"/>
+      <c r="ALB6" s="2"/>
+      <c r="ALD6" s="2"/>
+      <c r="ALF6" s="2"/>
+      <c r="ALH6" s="2"/>
+      <c r="ALJ6" s="2"/>
+      <c r="ALL6" s="2"/>
+      <c r="ALN6" s="2"/>
+      <c r="ALP6" s="2"/>
+      <c r="ALR6" s="2"/>
+      <c r="ALT6" s="2"/>
+      <c r="ALV6" s="2"/>
+      <c r="ALX6" s="2"/>
+      <c r="ALZ6" s="2"/>
+      <c r="AMB6" s="2"/>
+      <c r="AMD6" s="2"/>
+      <c r="AMF6" s="2"/>
+      <c r="AMH6" s="2"/>
+      <c r="AMJ6" s="2"/>
+      <c r="AML6" s="2"/>
+      <c r="AMN6" s="2"/>
+      <c r="AMP6" s="2"/>
+      <c r="AMR6" s="2"/>
+      <c r="AMT6" s="2"/>
+      <c r="AMV6" s="2"/>
+      <c r="AMX6" s="2"/>
+      <c r="AMZ6" s="2"/>
+      <c r="ANB6" s="2"/>
+      <c r="AND6" s="2"/>
+      <c r="ANF6" s="2"/>
+      <c r="ANH6" s="2"/>
+      <c r="ANJ6" s="2"/>
+      <c r="ANL6" s="2"/>
+      <c r="ANN6" s="2"/>
+      <c r="ANP6" s="2"/>
+      <c r="ANR6" s="2"/>
+      <c r="ANT6" s="2"/>
+      <c r="ANV6" s="2"/>
+      <c r="ANX6" s="2"/>
+      <c r="ANZ6" s="2"/>
+      <c r="AOB6" s="2"/>
+      <c r="AOD6" s="2"/>
+      <c r="AOF6" s="2"/>
+      <c r="AOH6" s="2"/>
+      <c r="AOJ6" s="2"/>
+      <c r="AOL6" s="2"/>
+      <c r="AON6" s="2"/>
+      <c r="AOP6" s="2"/>
+      <c r="AOR6" s="2"/>
+      <c r="AOT6" s="2"/>
+      <c r="AOV6" s="2"/>
+      <c r="AOX6" s="2"/>
+      <c r="AOZ6" s="2"/>
+      <c r="APB6" s="2"/>
+      <c r="APD6" s="2"/>
+      <c r="APF6" s="2"/>
+      <c r="APH6" s="2"/>
+      <c r="APJ6" s="2"/>
+      <c r="APL6" s="2"/>
+      <c r="APN6" s="2"/>
+      <c r="APP6" s="2"/>
+      <c r="APR6" s="2"/>
+      <c r="APT6" s="2"/>
+      <c r="APV6" s="2"/>
+      <c r="APX6" s="2"/>
+      <c r="APZ6" s="2"/>
+      <c r="AQB6" s="2"/>
+      <c r="AQD6" s="2"/>
+      <c r="AQF6" s="2"/>
+      <c r="AQH6" s="2"/>
+      <c r="AQJ6" s="2"/>
+      <c r="AQL6" s="2"/>
+      <c r="AQN6" s="2"/>
+      <c r="AQP6" s="2"/>
+      <c r="AQR6" s="2"/>
+      <c r="AQT6" s="2"/>
+      <c r="AQV6" s="2"/>
+      <c r="AQX6" s="2"/>
+      <c r="AQZ6" s="2"/>
+      <c r="ARB6" s="2"/>
+      <c r="ARD6" s="2"/>
+      <c r="ARF6" s="2"/>
+      <c r="ARH6" s="2"/>
+      <c r="ARJ6" s="2"/>
+      <c r="ARL6" s="2"/>
+      <c r="ARN6" s="2"/>
+      <c r="ARP6" s="2"/>
+      <c r="ARR6" s="2"/>
+      <c r="ART6" s="2"/>
+      <c r="ARV6" s="2"/>
+      <c r="ARX6" s="2"/>
+      <c r="ARZ6" s="2"/>
+      <c r="ASB6" s="2"/>
+      <c r="ASD6" s="2"/>
+      <c r="ASF6" s="2"/>
+      <c r="ASH6" s="2"/>
+      <c r="ASJ6" s="2"/>
+      <c r="ASL6" s="2"/>
+      <c r="ASN6" s="2"/>
+      <c r="ASP6" s="2"/>
+      <c r="ASR6" s="2"/>
+      <c r="AST6" s="2"/>
+      <c r="ASV6" s="2"/>
+      <c r="ASX6" s="2"/>
+      <c r="ASZ6" s="2"/>
+      <c r="ATB6" s="2"/>
+      <c r="ATD6" s="2"/>
+      <c r="ATF6" s="2"/>
+      <c r="ATH6" s="2"/>
+      <c r="ATJ6" s="2"/>
+      <c r="ATL6" s="2"/>
+      <c r="ATN6" s="2"/>
+      <c r="ATP6" s="2"/>
+      <c r="ATR6" s="2"/>
+      <c r="ATT6" s="2"/>
+      <c r="ATV6" s="2"/>
+      <c r="ATX6" s="2"/>
+      <c r="ATZ6" s="2"/>
+      <c r="AUB6" s="2"/>
+      <c r="AUD6" s="2"/>
+      <c r="AUF6" s="2"/>
+      <c r="AUH6" s="2"/>
+      <c r="AUJ6" s="2"/>
+      <c r="AUL6" s="2"/>
+      <c r="AUN6" s="2"/>
+      <c r="AUP6" s="2"/>
+      <c r="AUR6" s="2"/>
+      <c r="AUT6" s="2"/>
+      <c r="AUV6" s="2"/>
+      <c r="AUX6" s="2"/>
+      <c r="AUZ6" s="2"/>
+      <c r="AVB6" s="2"/>
+      <c r="AVD6" s="2"/>
+      <c r="AVF6" s="2"/>
+      <c r="AVH6" s="2"/>
+      <c r="AVJ6" s="2"/>
+      <c r="AVL6" s="2"/>
+      <c r="AVN6" s="2"/>
+      <c r="AVP6" s="2"/>
+      <c r="AVR6" s="2"/>
+      <c r="AVT6" s="2"/>
+      <c r="AVV6" s="2"/>
+      <c r="AVX6" s="2"/>
+      <c r="AVZ6" s="2"/>
+      <c r="AWB6" s="2"/>
+      <c r="AWD6" s="2"/>
+      <c r="AWF6" s="2"/>
+      <c r="AWH6" s="2"/>
+      <c r="AWJ6" s="2"/>
+      <c r="AWL6" s="2"/>
+      <c r="AWN6" s="2"/>
+      <c r="AWP6" s="2"/>
+      <c r="AWR6" s="2"/>
+      <c r="AWT6" s="2"/>
+      <c r="AWV6" s="2"/>
+      <c r="AWX6" s="2"/>
+      <c r="AWZ6" s="2"/>
+      <c r="AXB6" s="2"/>
+      <c r="AXD6" s="2"/>
+      <c r="AXF6" s="2"/>
+      <c r="AXH6" s="2"/>
+      <c r="AXJ6" s="2"/>
+      <c r="AXL6" s="2"/>
+      <c r="AXN6" s="2"/>
+      <c r="AXP6" s="2"/>
+      <c r="AXR6" s="2"/>
+      <c r="AXT6" s="2"/>
+      <c r="AXV6" s="2"/>
+      <c r="AXX6" s="2"/>
+      <c r="AXZ6" s="2"/>
+      <c r="AYB6" s="2"/>
+      <c r="AYD6" s="2"/>
+      <c r="AYF6" s="2"/>
+      <c r="AYH6" s="2"/>
+      <c r="AYJ6" s="2"/>
+      <c r="AYL6" s="2"/>
+      <c r="AYN6" s="2"/>
+      <c r="AYP6" s="2"/>
+      <c r="AYR6" s="2"/>
+      <c r="AYT6" s="2"/>
+      <c r="AYV6" s="2"/>
+      <c r="AYX6" s="2"/>
+      <c r="AYZ6" s="2"/>
+      <c r="AZB6" s="2"/>
+      <c r="AZD6" s="2"/>
+      <c r="AZF6" s="2"/>
+      <c r="AZH6" s="2"/>
+      <c r="AZJ6" s="2"/>
+      <c r="AZL6" s="2"/>
+      <c r="AZN6" s="2"/>
+      <c r="AZP6" s="2"/>
+      <c r="AZR6" s="2"/>
+      <c r="AZT6" s="2"/>
+      <c r="AZV6" s="2"/>
+      <c r="AZX6" s="2"/>
+      <c r="AZZ6" s="2"/>
+      <c r="BAB6" s="2"/>
+      <c r="BAD6" s="2"/>
+      <c r="BAF6" s="2"/>
+      <c r="BAH6" s="2"/>
+      <c r="BAJ6" s="2"/>
+      <c r="BAL6" s="2"/>
+      <c r="BAN6" s="2"/>
+      <c r="BAP6" s="2"/>
+      <c r="BAR6" s="2"/>
+      <c r="BAT6" s="2"/>
+      <c r="BAV6" s="2"/>
+      <c r="BAX6" s="2"/>
+      <c r="BAZ6" s="2"/>
+      <c r="BBB6" s="2"/>
+      <c r="BBD6" s="2"/>
+      <c r="BBF6" s="2"/>
+      <c r="BBH6" s="2"/>
+      <c r="BBJ6" s="2"/>
+      <c r="BBL6" s="2"/>
+      <c r="BBN6" s="2"/>
+      <c r="BBP6" s="2"/>
+      <c r="BBR6" s="2"/>
+      <c r="BBT6" s="2"/>
+      <c r="BBV6" s="2"/>
+      <c r="BBX6" s="2"/>
+      <c r="BBZ6" s="2"/>
+      <c r="BCB6" s="2"/>
+      <c r="BCD6" s="2"/>
+      <c r="BCF6" s="2"/>
+      <c r="BCH6" s="2"/>
+      <c r="BCJ6" s="2"/>
+      <c r="BCL6" s="2"/>
+      <c r="BCN6" s="2"/>
+      <c r="BCP6" s="2"/>
+      <c r="BCR6" s="2"/>
+      <c r="BCT6" s="2"/>
+      <c r="BCV6" s="2"/>
+      <c r="BCX6" s="2"/>
+      <c r="BCZ6" s="2"/>
+      <c r="BDB6" s="2"/>
+      <c r="BDD6" s="2"/>
+      <c r="BDF6" s="2"/>
+      <c r="BDH6" s="2"/>
+      <c r="BDJ6" s="2"/>
+      <c r="BDL6" s="2"/>
+      <c r="BDN6" s="2"/>
+      <c r="BDP6" s="2"/>
+      <c r="BDR6" s="2"/>
+      <c r="BDT6" s="2"/>
+      <c r="BDV6" s="2"/>
+      <c r="BDX6" s="2"/>
+      <c r="BDZ6" s="2"/>
+      <c r="BEB6" s="2"/>
+      <c r="BED6" s="2"/>
+      <c r="BEF6" s="2"/>
+      <c r="BEH6" s="2"/>
+      <c r="BEJ6" s="2"/>
+      <c r="BEL6" s="2"/>
+      <c r="BEN6" s="2"/>
+      <c r="BEP6" s="2"/>
+      <c r="BER6" s="2"/>
+      <c r="BET6" s="2"/>
+      <c r="BEV6" s="2"/>
+      <c r="BEX6" s="2"/>
+      <c r="BEZ6" s="2"/>
+      <c r="BFB6" s="2"/>
+      <c r="BFD6" s="2"/>
+      <c r="BFF6" s="2"/>
+      <c r="BFH6" s="2"/>
+      <c r="BFJ6" s="2"/>
+      <c r="BFL6" s="2"/>
+      <c r="BFN6" s="2"/>
+      <c r="BFP6" s="2"/>
+      <c r="BFR6" s="2"/>
+      <c r="BFT6" s="2"/>
+      <c r="BFV6" s="2"/>
+      <c r="BFX6" s="2"/>
+      <c r="BFZ6" s="2"/>
+      <c r="BGB6" s="2"/>
+      <c r="BGD6" s="2"/>
+      <c r="BGF6" s="2"/>
+      <c r="BGH6" s="2"/>
+      <c r="BGJ6" s="2"/>
+      <c r="BGL6" s="2"/>
+      <c r="BGN6" s="2"/>
+      <c r="BGP6" s="2"/>
+      <c r="BGR6" s="2"/>
+      <c r="BGT6" s="2"/>
+      <c r="BGV6" s="2"/>
+      <c r="BGX6" s="2"/>
+      <c r="BGZ6" s="2"/>
+      <c r="BHB6" s="2"/>
+      <c r="BHD6" s="2"/>
+      <c r="BHF6" s="2"/>
+      <c r="BHH6" s="2"/>
+      <c r="BHJ6" s="2"/>
+      <c r="BHL6" s="2"/>
+      <c r="BHN6" s="2"/>
+      <c r="BHP6" s="2"/>
+      <c r="BHR6" s="2"/>
+      <c r="BHT6" s="2"/>
+      <c r="BHV6" s="2"/>
+      <c r="BHX6" s="2"/>
+      <c r="BHZ6" s="2"/>
+      <c r="BIB6" s="2"/>
+      <c r="BID6" s="2"/>
+      <c r="BIF6" s="2"/>
+      <c r="BIH6" s="2"/>
+      <c r="BIJ6" s="2"/>
+      <c r="BIL6" s="2"/>
+      <c r="BIN6" s="2"/>
+      <c r="BIP6" s="2"/>
+      <c r="BIR6" s="2"/>
+      <c r="BIT6" s="2"/>
+      <c r="BIV6" s="2"/>
+      <c r="BIX6" s="2"/>
+      <c r="BIZ6" s="2"/>
+      <c r="BJB6" s="2"/>
+      <c r="BJD6" s="2"/>
+      <c r="BJF6" s="2"/>
+      <c r="BJH6" s="2"/>
+      <c r="BJJ6" s="2"/>
+      <c r="BJL6" s="2"/>
+      <c r="BJN6" s="2"/>
+      <c r="BJP6" s="2"/>
+      <c r="BJR6" s="2"/>
+      <c r="BJT6" s="2"/>
+      <c r="BJV6" s="2"/>
+      <c r="BJX6" s="2"/>
+      <c r="BJZ6" s="2"/>
+      <c r="BKB6" s="2"/>
+      <c r="BKD6" s="2"/>
+      <c r="BKF6" s="2"/>
+      <c r="BKH6" s="2"/>
+      <c r="BKJ6" s="2"/>
+      <c r="BKL6" s="2"/>
+      <c r="BKN6" s="2"/>
+      <c r="BKP6" s="2"/>
+      <c r="BKR6" s="2"/>
+      <c r="BKT6" s="2"/>
+      <c r="BKV6" s="2"/>
+      <c r="BKX6" s="2"/>
+      <c r="BKZ6" s="2"/>
+      <c r="BLB6" s="2"/>
+      <c r="BLD6" s="2"/>
+      <c r="BLF6" s="2"/>
+      <c r="BLH6" s="2"/>
+      <c r="BLJ6" s="2"/>
+      <c r="BLL6" s="2"/>
+      <c r="BLN6" s="2"/>
+      <c r="BLP6" s="2"/>
+      <c r="BLR6" s="2"/>
+      <c r="BLT6" s="2"/>
+      <c r="BLV6" s="2"/>
+      <c r="BLX6" s="2"/>
+      <c r="BLZ6" s="2"/>
+      <c r="BMB6" s="2"/>
+      <c r="BMD6" s="2"/>
+      <c r="BMF6" s="2"/>
+      <c r="BMH6" s="2"/>
+      <c r="BMJ6" s="2"/>
+      <c r="BML6" s="2"/>
+      <c r="BMN6" s="2"/>
+      <c r="BMP6" s="2"/>
+      <c r="BMR6" s="2"/>
+      <c r="BMT6" s="2"/>
+      <c r="BMV6" s="2"/>
+      <c r="BMX6" s="2"/>
+      <c r="BMZ6" s="2"/>
+      <c r="BNB6" s="2"/>
+      <c r="BND6" s="2"/>
+      <c r="BNF6" s="2"/>
+      <c r="BNH6" s="2"/>
+      <c r="BNJ6" s="2"/>
+      <c r="BNL6" s="2"/>
+      <c r="BNN6" s="2"/>
+      <c r="BNP6" s="2"/>
+      <c r="BNR6" s="2"/>
+      <c r="BNT6" s="2"/>
+      <c r="BNV6" s="2"/>
+      <c r="BNX6" s="2"/>
+      <c r="BNZ6" s="2"/>
+      <c r="BOB6" s="2"/>
+      <c r="BOD6" s="2"/>
+      <c r="BOF6" s="2"/>
+      <c r="BOH6" s="2"/>
+      <c r="BOJ6" s="2"/>
+      <c r="BOL6" s="2"/>
+      <c r="BON6" s="2"/>
+      <c r="BOP6" s="2"/>
+      <c r="BOR6" s="2"/>
+      <c r="BOT6" s="2"/>
+      <c r="BOV6" s="2"/>
+      <c r="BOX6" s="2"/>
+      <c r="BOZ6" s="2"/>
+      <c r="BPB6" s="2"/>
+      <c r="BPD6" s="2"/>
+      <c r="BPF6" s="2"/>
+      <c r="BPH6" s="2"/>
+      <c r="BPJ6" s="2"/>
+      <c r="BPL6" s="2"/>
+      <c r="BPN6" s="2"/>
+      <c r="BPP6" s="2"/>
+      <c r="BPR6" s="2"/>
+      <c r="BPT6" s="2"/>
+      <c r="BPV6" s="2"/>
+      <c r="BPX6" s="2"/>
+      <c r="BPZ6" s="2"/>
+      <c r="BQB6" s="2"/>
+      <c r="BQD6" s="2"/>
+      <c r="BQF6" s="2"/>
+      <c r="BQH6" s="2"/>
+      <c r="BQJ6" s="2"/>
+      <c r="BQL6" s="2"/>
+      <c r="BQN6" s="2"/>
+      <c r="BQP6" s="2"/>
+      <c r="BQR6" s="2"/>
+      <c r="BQT6" s="2"/>
+      <c r="BQV6" s="2"/>
+      <c r="BQX6" s="2"/>
+      <c r="BQZ6" s="2"/>
+      <c r="BRB6" s="2"/>
+      <c r="BRD6" s="2"/>
+      <c r="BRF6" s="2"/>
+      <c r="BRH6" s="2"/>
+      <c r="BRJ6" s="2"/>
+      <c r="BRL6" s="2"/>
+      <c r="BRN6" s="2"/>
+      <c r="BRP6" s="2"/>
+      <c r="BRR6" s="2"/>
+      <c r="BRT6" s="2"/>
+      <c r="BRV6" s="2"/>
+      <c r="BRX6" s="2"/>
+      <c r="BRZ6" s="2"/>
+      <c r="BSB6" s="2"/>
+      <c r="BSD6" s="2"/>
+      <c r="BSF6" s="2"/>
+      <c r="BSH6" s="2"/>
+      <c r="BSJ6" s="2"/>
+      <c r="BSL6" s="2"/>
+      <c r="BSN6" s="2"/>
+      <c r="BSP6" s="2"/>
+      <c r="BSR6" s="2"/>
+      <c r="BST6" s="2"/>
+      <c r="BSV6" s="2"/>
+      <c r="BSX6" s="2"/>
+      <c r="BSZ6" s="2"/>
+      <c r="BTB6" s="2"/>
+      <c r="BTD6" s="2"/>
+      <c r="BTF6" s="2"/>
+      <c r="BTH6" s="2"/>
+      <c r="BTJ6" s="2"/>
+      <c r="BTL6" s="2"/>
+      <c r="BTN6" s="2"/>
+      <c r="BTP6" s="2"/>
+      <c r="BTR6" s="2"/>
+      <c r="BTT6" s="2"/>
+      <c r="BTV6" s="2"/>
+      <c r="BTX6" s="2"/>
+      <c r="BTZ6" s="2"/>
+      <c r="BUB6" s="2"/>
+      <c r="BUD6" s="2"/>
+      <c r="BUF6" s="2"/>
+      <c r="BUH6" s="2"/>
+      <c r="BUJ6" s="2"/>
+      <c r="BUL6" s="2"/>
+      <c r="BUN6" s="2"/>
+      <c r="BUP6" s="2"/>
+      <c r="BUR6" s="2"/>
+      <c r="BUT6" s="2"/>
+      <c r="BUV6" s="2"/>
+      <c r="BUX6" s="2"/>
+      <c r="BUZ6" s="2"/>
+      <c r="BVB6" s="2"/>
+      <c r="BVD6" s="2"/>
+      <c r="BVF6" s="2"/>
+      <c r="BVH6" s="2"/>
+      <c r="BVJ6" s="2"/>
+      <c r="BVL6" s="2"/>
+      <c r="BVN6" s="2"/>
+      <c r="BVP6" s="2"/>
+      <c r="BVR6" s="2"/>
+      <c r="BVT6" s="2"/>
+      <c r="BVV6" s="2"/>
+      <c r="BVX6" s="2"/>
+      <c r="BVZ6" s="2"/>
+      <c r="BWB6" s="2"/>
+      <c r="BWD6" s="2"/>
+      <c r="BWF6" s="2"/>
+      <c r="BWH6" s="2"/>
+      <c r="BWJ6" s="2"/>
+      <c r="BWL6" s="2"/>
+      <c r="BWN6" s="2"/>
+      <c r="BWP6" s="2"/>
+      <c r="BWR6" s="2"/>
+      <c r="BWT6" s="2"/>
+      <c r="BWV6" s="2"/>
+      <c r="BWX6" s="2"/>
+      <c r="BWZ6" s="2"/>
+      <c r="BXB6" s="2"/>
+      <c r="BXD6" s="2"/>
+      <c r="BXF6" s="2"/>
+      <c r="BXH6" s="2"/>
+      <c r="BXJ6" s="2"/>
+      <c r="BXL6" s="2"/>
+      <c r="BXN6" s="2"/>
+      <c r="BXP6" s="2"/>
+      <c r="BXR6" s="2"/>
+      <c r="BXT6" s="2"/>
+      <c r="BXV6" s="2"/>
+      <c r="BXX6" s="2"/>
+      <c r="BXZ6" s="2"/>
+      <c r="BYB6" s="2"/>
+      <c r="BYD6" s="2"/>
+      <c r="BYF6" s="2"/>
+      <c r="BYH6" s="2"/>
+      <c r="BYJ6" s="2"/>
+      <c r="BYL6" s="2"/>
+      <c r="BYN6" s="2"/>
+      <c r="BYP6" s="2"/>
+      <c r="BYR6" s="2"/>
+      <c r="BYT6" s="2"/>
+      <c r="BYV6" s="2"/>
+      <c r="BYX6" s="2"/>
+      <c r="BYZ6" s="2"/>
+      <c r="BZB6" s="2"/>
+      <c r="BZD6" s="2"/>
+      <c r="BZF6" s="2"/>
+      <c r="BZH6" s="2"/>
+      <c r="BZJ6" s="2"/>
+      <c r="BZL6" s="2"/>
+      <c r="BZN6" s="2"/>
+      <c r="BZP6" s="2"/>
+      <c r="BZR6" s="2"/>
+      <c r="BZT6" s="2"/>
+      <c r="BZV6" s="2"/>
+      <c r="BZX6" s="2"/>
+      <c r="BZZ6" s="2"/>
+      <c r="CAB6" s="2"/>
+      <c r="CAD6" s="2"/>
+      <c r="CAF6" s="2"/>
+      <c r="CAH6" s="2"/>
+      <c r="CAJ6" s="2"/>
+      <c r="CAL6" s="2"/>
+      <c r="CAN6" s="2"/>
+      <c r="CAP6" s="2"/>
+      <c r="CAR6" s="2"/>
+      <c r="CAT6" s="2"/>
+      <c r="CAV6" s="2"/>
+      <c r="CAX6" s="2"/>
+      <c r="CAZ6" s="2"/>
+      <c r="CBB6" s="2"/>
+      <c r="CBD6" s="2"/>
+      <c r="CBF6" s="2"/>
+      <c r="CBH6" s="2"/>
+      <c r="CBJ6" s="2"/>
+      <c r="CBL6" s="2"/>
+      <c r="CBN6" s="2"/>
+      <c r="CBP6" s="2"/>
+      <c r="CBR6" s="2"/>
+      <c r="CBT6" s="2"/>
+      <c r="CBV6" s="2"/>
+      <c r="CBX6" s="2"/>
+      <c r="CBZ6" s="2"/>
+      <c r="CCB6" s="2"/>
+      <c r="CCD6" s="2"/>
+      <c r="CCF6" s="2"/>
+      <c r="CCH6" s="2"/>
+      <c r="CCJ6" s="2"/>
+      <c r="CCL6" s="2"/>
+      <c r="CCN6" s="2"/>
+      <c r="CCP6" s="2"/>
+      <c r="CCR6" s="2"/>
+      <c r="CCT6" s="2"/>
+      <c r="CCV6" s="2"/>
+      <c r="CCX6" s="2"/>
+      <c r="CCZ6" s="2"/>
+      <c r="CDB6" s="2"/>
+      <c r="CDD6" s="2"/>
+      <c r="CDF6" s="2"/>
+      <c r="CDH6" s="2"/>
+      <c r="CDJ6" s="2"/>
+      <c r="CDL6" s="2"/>
+      <c r="CDN6" s="2"/>
+      <c r="CDP6" s="2"/>
+      <c r="CDR6" s="2"/>
+      <c r="CDT6" s="2"/>
+      <c r="CDV6" s="2"/>
+      <c r="CDX6" s="2"/>
+      <c r="CDZ6" s="2"/>
+      <c r="CEB6" s="2"/>
+      <c r="CED6" s="2"/>
+      <c r="CEF6" s="2"/>
+      <c r="CEH6" s="2"/>
+      <c r="CEJ6" s="2"/>
+      <c r="CEL6" s="2"/>
+      <c r="CEN6" s="2"/>
+      <c r="CEP6" s="2"/>
+      <c r="CER6" s="2"/>
+      <c r="CET6" s="2"/>
+      <c r="CEV6" s="2"/>
+      <c r="CEX6" s="2"/>
+      <c r="CEZ6" s="2"/>
+      <c r="CFB6" s="2"/>
+      <c r="CFD6" s="2"/>
+      <c r="CFF6" s="2"/>
+      <c r="CFH6" s="2"/>
+      <c r="CFJ6" s="2"/>
+      <c r="CFL6" s="2"/>
+      <c r="CFN6" s="2"/>
+      <c r="CFP6" s="2"/>
+      <c r="CFR6" s="2"/>
+      <c r="CFT6" s="2"/>
+      <c r="CFV6" s="2"/>
+      <c r="CFX6" s="2"/>
+      <c r="CFZ6" s="2"/>
+      <c r="CGB6" s="2"/>
+      <c r="CGD6" s="2"/>
+      <c r="CGF6" s="2"/>
+      <c r="CGH6" s="2"/>
+      <c r="CGJ6" s="2"/>
+      <c r="CGL6" s="2"/>
+      <c r="CGN6" s="2"/>
+      <c r="CGP6" s="2"/>
+      <c r="CGR6" s="2"/>
+      <c r="CGT6" s="2"/>
+      <c r="CGV6" s="2"/>
+      <c r="CGX6" s="2"/>
+      <c r="CGZ6" s="2"/>
+      <c r="CHB6" s="2"/>
+      <c r="CHD6" s="2"/>
+      <c r="CHF6" s="2"/>
+      <c r="CHH6" s="2"/>
+      <c r="CHJ6" s="2"/>
+      <c r="CHL6" s="2"/>
+      <c r="CHN6" s="2"/>
+      <c r="CHP6" s="2"/>
+      <c r="CHR6" s="2"/>
+      <c r="CHT6" s="2"/>
+      <c r="CHV6" s="2"/>
+      <c r="CHX6" s="2"/>
+      <c r="CHZ6" s="2"/>
+      <c r="CIB6" s="2"/>
+      <c r="CID6" s="2"/>
+      <c r="CIF6" s="2"/>
+      <c r="CIH6" s="2"/>
+      <c r="CIJ6" s="2"/>
+      <c r="CIL6" s="2"/>
+      <c r="CIN6" s="2"/>
+      <c r="CIP6" s="2"/>
+      <c r="CIR6" s="2"/>
+      <c r="CIT6" s="2"/>
+      <c r="CIV6" s="2"/>
+      <c r="CIX6" s="2"/>
+      <c r="CIZ6" s="2"/>
+      <c r="CJB6" s="2"/>
+      <c r="CJD6" s="2"/>
+      <c r="CJF6" s="2"/>
+      <c r="CJH6" s="2"/>
+      <c r="CJJ6" s="2"/>
+      <c r="CJL6" s="2"/>
+      <c r="CJN6" s="2"/>
+      <c r="CJP6" s="2"/>
+      <c r="CJR6" s="2"/>
+      <c r="CJT6" s="2"/>
+      <c r="CJV6" s="2"/>
+      <c r="CJX6" s="2"/>
+      <c r="CJZ6" s="2"/>
+      <c r="CKB6" s="2"/>
+      <c r="CKD6" s="2"/>
+      <c r="CKF6" s="2"/>
+      <c r="CKH6" s="2"/>
+      <c r="CKJ6" s="2"/>
+      <c r="CKL6" s="2"/>
+      <c r="CKN6" s="2"/>
+      <c r="CKP6" s="2"/>
+      <c r="CKR6" s="2"/>
+      <c r="CKT6" s="2"/>
+      <c r="CKV6" s="2"/>
+      <c r="CKX6" s="2"/>
+      <c r="CKZ6" s="2"/>
+      <c r="CLB6" s="2"/>
+      <c r="CLD6" s="2"/>
+      <c r="CLF6" s="2"/>
+      <c r="CLH6" s="2"/>
+      <c r="CLJ6" s="2"/>
+      <c r="CLL6" s="2"/>
+      <c r="CLN6" s="2"/>
+      <c r="CLP6" s="2"/>
+      <c r="CLR6" s="2"/>
+      <c r="CLT6" s="2"/>
+      <c r="CLV6" s="2"/>
+      <c r="CLX6" s="2"/>
+      <c r="CLZ6" s="2"/>
+      <c r="CMB6" s="2"/>
+      <c r="CMD6" s="2"/>
+      <c r="CMF6" s="2"/>
+      <c r="CMH6" s="2"/>
+      <c r="CMJ6" s="2"/>
+      <c r="CML6" s="2"/>
+      <c r="CMN6" s="2"/>
+      <c r="CMP6" s="2"/>
+      <c r="CMR6" s="2"/>
+      <c r="CMT6" s="2"/>
+      <c r="CMV6" s="2"/>
+      <c r="CMX6" s="2"/>
+      <c r="CMZ6" s="2"/>
+      <c r="CNB6" s="2"/>
+      <c r="CND6" s="2"/>
+      <c r="CNF6" s="2"/>
+      <c r="CNH6" s="2"/>
+      <c r="CNJ6" s="2"/>
+      <c r="CNL6" s="2"/>
+      <c r="CNN6" s="2"/>
+      <c r="CNP6" s="2"/>
+      <c r="CNR6" s="2"/>
+      <c r="CNT6" s="2"/>
+      <c r="CNV6" s="2"/>
+      <c r="CNX6" s="2"/>
+      <c r="CNZ6" s="2"/>
+      <c r="COB6" s="2"/>
+      <c r="COD6" s="2"/>
+      <c r="COF6" s="2"/>
+      <c r="COH6" s="2"/>
+      <c r="COJ6" s="2"/>
+      <c r="COL6" s="2"/>
+      <c r="CON6" s="2"/>
+      <c r="COP6" s="2"/>
+      <c r="COR6" s="2"/>
+      <c r="COT6" s="2"/>
+      <c r="COV6" s="2"/>
+      <c r="COX6" s="2"/>
+      <c r="COZ6" s="2"/>
+      <c r="CPB6" s="2"/>
+      <c r="CPD6" s="2"/>
+      <c r="CPF6" s="2"/>
+      <c r="CPH6" s="2"/>
+      <c r="CPJ6" s="2"/>
+      <c r="CPL6" s="2"/>
+      <c r="CPN6" s="2"/>
+      <c r="CPP6" s="2"/>
+      <c r="CPR6" s="2"/>
+      <c r="CPT6" s="2"/>
+      <c r="CPV6" s="2"/>
+      <c r="CPX6" s="2"/>
+      <c r="CPZ6" s="2"/>
+      <c r="CQB6" s="2"/>
+      <c r="CQD6" s="2"/>
+      <c r="CQF6" s="2"/>
+      <c r="CQH6" s="2"/>
+      <c r="CQJ6" s="2"/>
+      <c r="CQL6" s="2"/>
+      <c r="CQN6" s="2"/>
+      <c r="CQP6" s="2"/>
+      <c r="CQR6" s="2"/>
+      <c r="CQT6" s="2"/>
+      <c r="CQV6" s="2"/>
+      <c r="CQX6" s="2"/>
+      <c r="CQZ6" s="2"/>
+      <c r="CRB6" s="2"/>
+      <c r="CRD6" s="2"/>
+      <c r="CRF6" s="2"/>
+      <c r="CRH6" s="2"/>
+      <c r="CRJ6" s="2"/>
+      <c r="CRL6" s="2"/>
+      <c r="CRN6" s="2"/>
+      <c r="CRP6" s="2"/>
+      <c r="CRR6" s="2"/>
+      <c r="CRT6" s="2"/>
+      <c r="CRV6" s="2"/>
+      <c r="CRX6" s="2"/>
+      <c r="CRZ6" s="2"/>
+      <c r="CSB6" s="2"/>
+      <c r="CSD6" s="2"/>
+      <c r="CSF6" s="2"/>
+      <c r="CSH6" s="2"/>
+      <c r="CSJ6" s="2"/>
+      <c r="CSL6" s="2"/>
+      <c r="CSN6" s="2"/>
+      <c r="CSP6" s="2"/>
+      <c r="CSR6" s="2"/>
+      <c r="CST6" s="2"/>
+      <c r="CSV6" s="2"/>
+      <c r="CSX6" s="2"/>
+      <c r="CSZ6" s="2"/>
+      <c r="CTB6" s="2"/>
+      <c r="CTD6" s="2"/>
+      <c r="CTF6" s="2"/>
+      <c r="CTH6" s="2"/>
+      <c r="CTJ6" s="2"/>
+      <c r="CTL6" s="2"/>
+      <c r="CTN6" s="2"/>
+      <c r="CTP6" s="2"/>
+      <c r="CTR6" s="2"/>
+      <c r="CTT6" s="2"/>
+      <c r="CTV6" s="2"/>
+      <c r="CTX6" s="2"/>
+      <c r="CTZ6" s="2"/>
+      <c r="CUB6" s="2"/>
+      <c r="CUD6" s="2"/>
+      <c r="CUF6" s="2"/>
+      <c r="CUH6" s="2"/>
+      <c r="CUJ6" s="2"/>
+      <c r="CUL6" s="2"/>
+      <c r="CUN6" s="2"/>
+      <c r="CUP6" s="2"/>
+      <c r="CUR6" s="2"/>
+      <c r="CUT6" s="2"/>
+      <c r="CUV6" s="2"/>
+      <c r="CUX6" s="2"/>
+      <c r="CUZ6" s="2"/>
+      <c r="CVB6" s="2"/>
+      <c r="CVD6" s="2"/>
+      <c r="CVF6" s="2"/>
+      <c r="CVH6" s="2"/>
+      <c r="CVJ6" s="2"/>
+      <c r="CVL6" s="2"/>
+      <c r="CVN6" s="2"/>
+      <c r="CVP6" s="2"/>
+      <c r="CVR6" s="2"/>
+      <c r="CVT6" s="2"/>
+      <c r="CVV6" s="2"/>
+      <c r="CVX6" s="2"/>
+      <c r="CVZ6" s="2"/>
+      <c r="CWB6" s="2"/>
+      <c r="CWD6" s="2"/>
+      <c r="CWF6" s="2"/>
+      <c r="CWH6" s="2"/>
+      <c r="CWJ6" s="2"/>
+      <c r="CWL6" s="2"/>
+      <c r="CWN6" s="2"/>
+      <c r="CWP6" s="2"/>
+      <c r="CWR6" s="2"/>
+      <c r="CWT6" s="2"/>
+      <c r="CWV6" s="2"/>
+      <c r="CWX6" s="2"/>
+      <c r="CWZ6" s="2"/>
+      <c r="CXB6" s="2"/>
+      <c r="CXD6" s="2"/>
+      <c r="CXF6" s="2"/>
+      <c r="CXH6" s="2"/>
+      <c r="CXJ6" s="2"/>
+      <c r="CXL6" s="2"/>
+      <c r="CXN6" s="2"/>
+      <c r="CXP6" s="2"/>
+      <c r="CXR6" s="2"/>
+      <c r="CXT6" s="2"/>
+      <c r="CXV6" s="2"/>
+      <c r="CXX6" s="2"/>
+      <c r="CXZ6" s="2"/>
+      <c r="CYB6" s="2"/>
+      <c r="CYD6" s="2"/>
+      <c r="CYF6" s="2"/>
+      <c r="CYH6" s="2"/>
+      <c r="CYJ6" s="2"/>
+      <c r="CYL6" s="2"/>
+      <c r="CYN6" s="2"/>
+      <c r="CYP6" s="2"/>
+      <c r="CYR6" s="2"/>
+      <c r="CYT6" s="2"/>
+      <c r="CYV6" s="2"/>
+      <c r="CYX6" s="2"/>
+      <c r="CYZ6" s="2"/>
+      <c r="CZB6" s="2"/>
+      <c r="CZD6" s="2"/>
+      <c r="CZF6" s="2"/>
+      <c r="CZH6" s="2"/>
+      <c r="CZJ6" s="2"/>
+      <c r="CZL6" s="2"/>
+      <c r="CZN6" s="2"/>
+      <c r="CZP6" s="2"/>
+      <c r="CZR6" s="2"/>
+      <c r="CZT6" s="2"/>
+      <c r="CZV6" s="2"/>
+      <c r="CZX6" s="2"/>
+      <c r="CZZ6" s="2"/>
+      <c r="DAB6" s="2"/>
+      <c r="DAD6" s="2"/>
+      <c r="DAF6" s="2"/>
+      <c r="DAH6" s="2"/>
+      <c r="DAJ6" s="2"/>
+      <c r="DAL6" s="2"/>
+      <c r="DAN6" s="2"/>
+      <c r="DAP6" s="2"/>
+      <c r="DAR6" s="2"/>
+      <c r="DAT6" s="2"/>
+      <c r="DAV6" s="2"/>
+      <c r="DAX6" s="2"/>
+      <c r="DAZ6" s="2"/>
+      <c r="DBB6" s="2"/>
+      <c r="DBD6" s="2"/>
+      <c r="DBF6" s="2"/>
+      <c r="DBH6" s="2"/>
+      <c r="DBJ6" s="2"/>
+      <c r="DBL6" s="2"/>
+      <c r="DBN6" s="2"/>
+      <c r="DBP6" s="2"/>
+      <c r="DBR6" s="2"/>
+      <c r="DBT6" s="2"/>
+      <c r="DBV6" s="2"/>
+      <c r="DBX6" s="2"/>
+      <c r="DBZ6" s="2"/>
+      <c r="DCB6" s="2"/>
+      <c r="DCD6" s="2"/>
+      <c r="DCF6" s="2"/>
+      <c r="DCH6" s="2"/>
+      <c r="DCJ6" s="2"/>
+      <c r="DCL6" s="2"/>
+      <c r="DCN6" s="2"/>
+      <c r="DCP6" s="2"/>
+      <c r="DCR6" s="2"/>
+      <c r="DCT6" s="2"/>
+      <c r="DCV6" s="2"/>
+      <c r="DCX6" s="2"/>
+      <c r="DCZ6" s="2"/>
+      <c r="DDB6" s="2"/>
+      <c r="DDD6" s="2"/>
+      <c r="DDF6" s="2"/>
+      <c r="DDH6" s="2"/>
+      <c r="DDJ6" s="2"/>
+      <c r="DDL6" s="2"/>
+      <c r="DDN6" s="2"/>
+      <c r="DDP6" s="2"/>
+      <c r="DDR6" s="2"/>
+      <c r="DDT6" s="2"/>
+      <c r="DDV6" s="2"/>
+      <c r="DDX6" s="2"/>
+      <c r="DDZ6" s="2"/>
+      <c r="DEB6" s="2"/>
+      <c r="DED6" s="2"/>
+      <c r="DEF6" s="2"/>
+      <c r="DEH6" s="2"/>
+      <c r="DEJ6" s="2"/>
+      <c r="DEL6" s="2"/>
+      <c r="DEN6" s="2"/>
+      <c r="DEP6" s="2"/>
+      <c r="DER6" s="2"/>
+      <c r="DET6" s="2"/>
+      <c r="DEV6" s="2"/>
+      <c r="DEX6" s="2"/>
+      <c r="DEZ6" s="2"/>
+      <c r="DFB6" s="2"/>
+      <c r="DFD6" s="2"/>
+      <c r="DFF6" s="2"/>
+      <c r="DFH6" s="2"/>
+      <c r="DFJ6" s="2"/>
+      <c r="DFL6" s="2"/>
+      <c r="DFN6" s="2"/>
+      <c r="DFP6" s="2"/>
+      <c r="DFR6" s="2"/>
+      <c r="DFT6" s="2"/>
+      <c r="DFV6" s="2"/>
+      <c r="DFX6" s="2"/>
+      <c r="DFZ6" s="2"/>
+      <c r="DGB6" s="2"/>
+      <c r="DGD6" s="2"/>
+      <c r="DGF6" s="2"/>
+      <c r="DGH6" s="2"/>
+      <c r="DGJ6" s="2"/>
+      <c r="DGL6" s="2"/>
+      <c r="DGN6" s="2"/>
+      <c r="DGP6" s="2"/>
+      <c r="DGR6" s="2"/>
+      <c r="DGT6" s="2"/>
+      <c r="DGV6" s="2"/>
+      <c r="DGX6" s="2"/>
+      <c r="DGZ6" s="2"/>
+      <c r="DHB6" s="2"/>
+      <c r="DHD6" s="2"/>
+      <c r="DHF6" s="2"/>
+      <c r="DHH6" s="2"/>
+      <c r="DHJ6" s="2"/>
+      <c r="DHL6" s="2"/>
+      <c r="DHN6" s="2"/>
+      <c r="DHP6" s="2"/>
+      <c r="DHR6" s="2"/>
+      <c r="DHT6" s="2"/>
+      <c r="DHV6" s="2"/>
+      <c r="DHX6" s="2"/>
+      <c r="DHZ6" s="2"/>
+      <c r="DIB6" s="2"/>
+      <c r="DID6" s="2"/>
+      <c r="DIF6" s="2"/>
+      <c r="DIH6" s="2"/>
+      <c r="DIJ6" s="2"/>
+      <c r="DIL6" s="2"/>
+      <c r="DIN6" s="2"/>
+      <c r="DIP6" s="2"/>
+      <c r="DIR6" s="2"/>
+      <c r="DIT6" s="2"/>
+      <c r="DIV6" s="2"/>
+      <c r="DIX6" s="2"/>
+      <c r="DIZ6" s="2"/>
+      <c r="DJB6" s="2"/>
+      <c r="DJD6" s="2"/>
+      <c r="DJF6" s="2"/>
+      <c r="DJH6" s="2"/>
+      <c r="DJJ6" s="2"/>
+      <c r="DJL6" s="2"/>
+      <c r="DJN6" s="2"/>
+      <c r="DJP6" s="2"/>
+      <c r="DJR6" s="2"/>
+      <c r="DJT6" s="2"/>
+      <c r="DJV6" s="2"/>
+      <c r="DJX6" s="2"/>
+      <c r="DJZ6" s="2"/>
+      <c r="DKB6" s="2"/>
+      <c r="DKD6" s="2"/>
+      <c r="DKF6" s="2"/>
+      <c r="DKH6" s="2"/>
+      <c r="DKJ6" s="2"/>
+      <c r="DKL6" s="2"/>
+      <c r="DKN6" s="2"/>
+      <c r="DKP6" s="2"/>
+      <c r="DKR6" s="2"/>
+      <c r="DKT6" s="2"/>
+      <c r="DKV6" s="2"/>
+      <c r="DKX6" s="2"/>
+      <c r="DKZ6" s="2"/>
+      <c r="DLB6" s="2"/>
+      <c r="DLD6" s="2"/>
+      <c r="DLF6" s="2"/>
+      <c r="DLH6" s="2"/>
+      <c r="DLJ6" s="2"/>
+      <c r="DLL6" s="2"/>
+      <c r="DLN6" s="2"/>
+      <c r="DLP6" s="2"/>
+      <c r="DLR6" s="2"/>
+      <c r="DLT6" s="2"/>
+      <c r="DLV6" s="2"/>
+      <c r="DLX6" s="2"/>
+      <c r="DLZ6" s="2"/>
+      <c r="DMB6" s="2"/>
+      <c r="DMD6" s="2"/>
+      <c r="DMF6" s="2"/>
+      <c r="DMH6" s="2"/>
+      <c r="DMJ6" s="2"/>
+      <c r="DML6" s="2"/>
+      <c r="DMN6" s="2"/>
+      <c r="DMP6" s="2"/>
+      <c r="DMR6" s="2"/>
+      <c r="DMT6" s="2"/>
+      <c r="DMV6" s="2"/>
+      <c r="DMX6" s="2"/>
+      <c r="DMZ6" s="2"/>
+      <c r="DNB6" s="2"/>
+      <c r="DND6" s="2"/>
+      <c r="DNF6" s="2"/>
+      <c r="DNH6" s="2"/>
+      <c r="DNJ6" s="2"/>
+      <c r="DNL6" s="2"/>
+      <c r="DNN6" s="2"/>
+      <c r="DNP6" s="2"/>
+      <c r="DNR6" s="2"/>
+      <c r="DNT6" s="2"/>
+      <c r="DNV6" s="2"/>
+      <c r="DNX6" s="2"/>
+      <c r="DNZ6" s="2"/>
+      <c r="DOB6" s="2"/>
+      <c r="DOD6" s="2"/>
+      <c r="DOF6" s="2"/>
+      <c r="DOH6" s="2"/>
+      <c r="DOJ6" s="2"/>
+      <c r="DOL6" s="2"/>
+      <c r="DON6" s="2"/>
+      <c r="DOP6" s="2"/>
+      <c r="DOR6" s="2"/>
+      <c r="DOT6" s="2"/>
+      <c r="DOV6" s="2"/>
+      <c r="DOX6" s="2"/>
+      <c r="DOZ6" s="2"/>
+      <c r="DPB6" s="2"/>
+      <c r="DPD6" s="2"/>
+      <c r="DPF6" s="2"/>
+      <c r="DPH6" s="2"/>
+      <c r="DPJ6" s="2"/>
+      <c r="DPL6" s="2"/>
+      <c r="DPN6" s="2"/>
+      <c r="DPP6" s="2"/>
+      <c r="DPR6" s="2"/>
+      <c r="DPT6" s="2"/>
+      <c r="DPV6" s="2"/>
+      <c r="DPX6" s="2"/>
+      <c r="DPZ6" s="2"/>
+      <c r="DQB6" s="2"/>
+      <c r="DQD6" s="2"/>
+      <c r="DQF6" s="2"/>
+      <c r="DQH6" s="2"/>
+      <c r="DQJ6" s="2"/>
+      <c r="DQL6" s="2"/>
+      <c r="DQN6" s="2"/>
+      <c r="DQP6" s="2"/>
+      <c r="DQR6" s="2"/>
+      <c r="DQT6" s="2"/>
+      <c r="DQV6" s="2"/>
+      <c r="DQX6" s="2"/>
+      <c r="DQZ6" s="2"/>
+      <c r="DRB6" s="2"/>
+      <c r="DRD6" s="2"/>
+      <c r="DRF6" s="2"/>
+      <c r="DRH6" s="2"/>
+      <c r="DRJ6" s="2"/>
+      <c r="DRL6" s="2"/>
+      <c r="DRN6" s="2"/>
+      <c r="DRP6" s="2"/>
+      <c r="DRR6" s="2"/>
+      <c r="DRT6" s="2"/>
+      <c r="DRV6" s="2"/>
+      <c r="DRX6" s="2"/>
+      <c r="DRZ6" s="2"/>
+      <c r="DSB6" s="2"/>
+      <c r="DSD6" s="2"/>
+      <c r="DSF6" s="2"/>
+      <c r="DSH6" s="2"/>
+      <c r="DSJ6" s="2"/>
+      <c r="DSL6" s="2"/>
+      <c r="DSN6" s="2"/>
+      <c r="DSP6" s="2"/>
+      <c r="DSR6" s="2"/>
+      <c r="DST6" s="2"/>
+      <c r="DSV6" s="2"/>
+      <c r="DSX6" s="2"/>
+      <c r="DSZ6" s="2"/>
+      <c r="DTB6" s="2"/>
+      <c r="DTD6" s="2"/>
+      <c r="DTF6" s="2"/>
+      <c r="DTH6" s="2"/>
+      <c r="DTJ6" s="2"/>
+      <c r="DTL6" s="2"/>
+      <c r="DTN6" s="2"/>
+      <c r="DTP6" s="2"/>
+      <c r="DTR6" s="2"/>
+      <c r="DTT6" s="2"/>
+      <c r="DTV6" s="2"/>
+      <c r="DTX6" s="2"/>
+      <c r="DTZ6" s="2"/>
+      <c r="DUB6" s="2"/>
+      <c r="DUD6" s="2"/>
+      <c r="DUF6" s="2"/>
+      <c r="DUH6" s="2"/>
+      <c r="DUJ6" s="2"/>
+      <c r="DUL6" s="2"/>
+      <c r="DUN6" s="2"/>
+      <c r="DUP6" s="2"/>
+      <c r="DUR6" s="2"/>
+      <c r="DUT6" s="2"/>
+      <c r="DUV6" s="2"/>
+      <c r="DUX6" s="2"/>
+      <c r="DUZ6" s="2"/>
+      <c r="DVB6" s="2"/>
+      <c r="DVD6" s="2"/>
+      <c r="DVF6" s="2"/>
+      <c r="DVH6" s="2"/>
+      <c r="DVJ6" s="2"/>
+      <c r="DVL6" s="2"/>
+      <c r="DVN6" s="2"/>
+      <c r="DVP6" s="2"/>
+      <c r="DVR6" s="2"/>
+      <c r="DVT6" s="2"/>
+      <c r="DVV6" s="2"/>
+      <c r="DVX6" s="2"/>
+      <c r="DVZ6" s="2"/>
+      <c r="DWB6" s="2"/>
+      <c r="DWD6" s="2"/>
+      <c r="DWF6" s="2"/>
+      <c r="DWH6" s="2"/>
+      <c r="DWJ6" s="2"/>
+      <c r="DWL6" s="2"/>
+      <c r="DWN6" s="2"/>
+      <c r="DWP6" s="2"/>
+      <c r="DWR6" s="2"/>
+      <c r="DWT6" s="2"/>
+      <c r="DWV6" s="2"/>
+      <c r="DWX6" s="2"/>
+      <c r="DWZ6" s="2"/>
+      <c r="DXB6" s="2"/>
+      <c r="DXD6" s="2"/>
+      <c r="DXF6" s="2"/>
+      <c r="DXH6" s="2"/>
+      <c r="DXJ6" s="2"/>
+      <c r="DXL6" s="2"/>
+      <c r="DXN6" s="2"/>
+      <c r="DXP6" s="2"/>
+      <c r="DXR6" s="2"/>
+      <c r="DXT6" s="2"/>
+      <c r="DXV6" s="2"/>
+      <c r="DXX6" s="2"/>
+      <c r="DXZ6" s="2"/>
+      <c r="DYB6" s="2"/>
+      <c r="DYD6" s="2"/>
+      <c r="DYF6" s="2"/>
+      <c r="DYH6" s="2"/>
+      <c r="DYJ6" s="2"/>
+      <c r="DYL6" s="2"/>
+      <c r="DYN6" s="2"/>
+      <c r="DYP6" s="2"/>
+      <c r="DYR6" s="2"/>
+      <c r="DYT6" s="2"/>
+      <c r="DYV6" s="2"/>
+      <c r="DYX6" s="2"/>
+      <c r="DYZ6" s="2"/>
+      <c r="DZB6" s="2"/>
+      <c r="DZD6" s="2"/>
+      <c r="DZF6" s="2"/>
+      <c r="DZH6" s="2"/>
+      <c r="DZJ6" s="2"/>
+      <c r="DZL6" s="2"/>
+      <c r="DZN6" s="2"/>
+      <c r="DZP6" s="2"/>
+      <c r="DZR6" s="2"/>
+      <c r="DZT6" s="2"/>
+      <c r="DZV6" s="2"/>
+      <c r="DZX6" s="2"/>
+      <c r="DZZ6" s="2"/>
+      <c r="EAB6" s="2"/>
+      <c r="EAD6" s="2"/>
+      <c r="EAF6" s="2"/>
+      <c r="EAH6" s="2"/>
+      <c r="EAJ6" s="2"/>
+      <c r="EAL6" s="2"/>
+      <c r="EAN6" s="2"/>
+      <c r="EAP6" s="2"/>
+      <c r="EAR6" s="2"/>
+      <c r="EAT6" s="2"/>
+      <c r="EAV6" s="2"/>
+      <c r="EAX6" s="2"/>
+      <c r="EAZ6" s="2"/>
+      <c r="EBB6" s="2"/>
+      <c r="EBD6" s="2"/>
+      <c r="EBF6" s="2"/>
+      <c r="EBH6" s="2"/>
+      <c r="EBJ6" s="2"/>
+      <c r="EBL6" s="2"/>
+      <c r="EBN6" s="2"/>
+      <c r="EBP6" s="2"/>
+      <c r="EBR6" s="2"/>
+      <c r="EBT6" s="2"/>
+      <c r="EBV6" s="2"/>
+      <c r="EBX6" s="2"/>
+      <c r="EBZ6" s="2"/>
+      <c r="ECB6" s="2"/>
+      <c r="ECD6" s="2"/>
+      <c r="ECF6" s="2"/>
+      <c r="ECH6" s="2"/>
+      <c r="ECJ6" s="2"/>
+      <c r="ECL6" s="2"/>
+      <c r="ECN6" s="2"/>
+      <c r="ECP6" s="2"/>
+      <c r="ECR6" s="2"/>
+      <c r="ECT6" s="2"/>
+      <c r="ECV6" s="2"/>
+      <c r="ECX6" s="2"/>
+      <c r="ECZ6" s="2"/>
+      <c r="EDB6" s="2"/>
+      <c r="EDD6" s="2"/>
+      <c r="EDF6" s="2"/>
+      <c r="EDH6" s="2"/>
+      <c r="EDJ6" s="2"/>
+      <c r="EDL6" s="2"/>
+      <c r="EDN6" s="2"/>
+      <c r="EDP6" s="2"/>
+      <c r="EDR6" s="2"/>
+      <c r="EDT6" s="2"/>
+      <c r="EDV6" s="2"/>
+      <c r="EDX6" s="2"/>
+      <c r="EDZ6" s="2"/>
+      <c r="EEB6" s="2"/>
+      <c r="EED6" s="2"/>
+      <c r="EEF6" s="2"/>
+      <c r="EEH6" s="2"/>
+      <c r="EEJ6" s="2"/>
+      <c r="EEL6" s="2"/>
+      <c r="EEN6" s="2"/>
+      <c r="EEP6" s="2"/>
+      <c r="EER6" s="2"/>
+      <c r="EET6" s="2"/>
+      <c r="EEV6" s="2"/>
+      <c r="EEX6" s="2"/>
+      <c r="EEZ6" s="2"/>
+      <c r="EFB6" s="2"/>
+      <c r="EFD6" s="2"/>
+      <c r="EFF6" s="2"/>
+      <c r="EFH6" s="2"/>
+      <c r="EFJ6" s="2"/>
+      <c r="EFL6" s="2"/>
+      <c r="EFN6" s="2"/>
+      <c r="EFP6" s="2"/>
+      <c r="EFR6" s="2"/>
+      <c r="EFT6" s="2"/>
+      <c r="EFV6" s="2"/>
+      <c r="EFX6" s="2"/>
+      <c r="EFZ6" s="2"/>
+      <c r="EGB6" s="2"/>
+      <c r="EGD6" s="2"/>
+      <c r="EGF6" s="2"/>
+      <c r="EGH6" s="2"/>
+      <c r="EGJ6" s="2"/>
+      <c r="EGL6" s="2"/>
+      <c r="EGN6" s="2"/>
+      <c r="EGP6" s="2"/>
+      <c r="EGR6" s="2"/>
+      <c r="EGT6" s="2"/>
+      <c r="EGV6" s="2"/>
+      <c r="EGX6" s="2"/>
+      <c r="EGZ6" s="2"/>
+      <c r="EHB6" s="2"/>
+      <c r="EHD6" s="2"/>
+      <c r="EHF6" s="2"/>
+      <c r="EHH6" s="2"/>
+      <c r="EHJ6" s="2"/>
+      <c r="EHL6" s="2"/>
+      <c r="EHN6" s="2"/>
+      <c r="EHP6" s="2"/>
+      <c r="EHR6" s="2"/>
+      <c r="EHT6" s="2"/>
+      <c r="EHV6" s="2"/>
+      <c r="EHX6" s="2"/>
+      <c r="EHZ6" s="2"/>
+      <c r="EIB6" s="2"/>
+      <c r="EID6" s="2"/>
+      <c r="EIF6" s="2"/>
+      <c r="EIH6" s="2"/>
+      <c r="EIJ6" s="2"/>
+      <c r="EIL6" s="2"/>
+      <c r="EIN6" s="2"/>
+      <c r="EIP6" s="2"/>
+      <c r="EIR6" s="2"/>
+      <c r="EIT6" s="2"/>
+      <c r="EIV6" s="2"/>
+      <c r="EIX6" s="2"/>
+      <c r="EIZ6" s="2"/>
+      <c r="EJB6" s="2"/>
+      <c r="EJD6" s="2"/>
+      <c r="EJF6" s="2"/>
+      <c r="EJH6" s="2"/>
+      <c r="EJJ6" s="2"/>
+      <c r="EJL6" s="2"/>
+      <c r="EJN6" s="2"/>
+      <c r="EJP6" s="2"/>
+      <c r="EJR6" s="2"/>
+      <c r="EJT6" s="2"/>
+      <c r="EJV6" s="2"/>
+      <c r="EJX6" s="2"/>
+      <c r="EJZ6" s="2"/>
+      <c r="EKB6" s="2"/>
+      <c r="EKD6" s="2"/>
+      <c r="EKF6" s="2"/>
+      <c r="EKH6" s="2"/>
+      <c r="EKJ6" s="2"/>
+      <c r="EKL6" s="2"/>
+      <c r="EKN6" s="2"/>
+      <c r="EKP6" s="2"/>
+      <c r="EKR6" s="2"/>
+      <c r="EKT6" s="2"/>
+      <c r="EKV6" s="2"/>
+      <c r="EKX6" s="2"/>
+      <c r="EKZ6" s="2"/>
+      <c r="ELB6" s="2"/>
+      <c r="ELD6" s="2"/>
+      <c r="ELF6" s="2"/>
+      <c r="ELH6" s="2"/>
+      <c r="ELJ6" s="2"/>
+      <c r="ELL6" s="2"/>
+      <c r="ELN6" s="2"/>
+      <c r="ELP6" s="2"/>
+      <c r="ELR6" s="2"/>
+      <c r="ELT6" s="2"/>
+      <c r="ELV6" s="2"/>
+      <c r="ELX6" s="2"/>
+      <c r="ELZ6" s="2"/>
+      <c r="EMB6" s="2"/>
+      <c r="EMD6" s="2"/>
+      <c r="EMF6" s="2"/>
+      <c r="EMH6" s="2"/>
+      <c r="EMJ6" s="2"/>
+      <c r="EML6" s="2"/>
+      <c r="EMN6" s="2"/>
+      <c r="EMP6" s="2"/>
+      <c r="EMR6" s="2"/>
+      <c r="EMT6" s="2"/>
+      <c r="EMV6" s="2"/>
+      <c r="EMX6" s="2"/>
+      <c r="EMZ6" s="2"/>
+      <c r="ENB6" s="2"/>
+      <c r="END6" s="2"/>
+      <c r="ENF6" s="2"/>
+      <c r="ENH6" s="2"/>
+      <c r="ENJ6" s="2"/>
+      <c r="ENL6" s="2"/>
+      <c r="ENN6" s="2"/>
+      <c r="ENP6" s="2"/>
+      <c r="ENR6" s="2"/>
+      <c r="ENT6" s="2"/>
+      <c r="ENV6" s="2"/>
+      <c r="ENX6" s="2"/>
+      <c r="ENZ6" s="2"/>
+      <c r="EOB6" s="2"/>
+      <c r="EOD6" s="2"/>
+      <c r="EOF6" s="2"/>
+      <c r="EOH6" s="2"/>
+      <c r="EOJ6" s="2"/>
+      <c r="EOL6" s="2"/>
+      <c r="EON6" s="2"/>
+      <c r="EOP6" s="2"/>
+      <c r="EOR6" s="2"/>
+      <c r="EOT6" s="2"/>
+      <c r="EOV6" s="2"/>
+      <c r="EOX6" s="2"/>
+      <c r="EOZ6" s="2"/>
+      <c r="EPB6" s="2"/>
+      <c r="EPD6" s="2"/>
+      <c r="EPF6" s="2"/>
+      <c r="EPH6" s="2"/>
+      <c r="EPJ6" s="2"/>
+      <c r="EPL6" s="2"/>
+      <c r="EPN6" s="2"/>
+      <c r="EPP6" s="2"/>
+      <c r="EPR6" s="2"/>
+      <c r="EPT6" s="2"/>
+      <c r="EPV6" s="2"/>
+      <c r="EPX6" s="2"/>
+      <c r="EPZ6" s="2"/>
+      <c r="EQB6" s="2"/>
+      <c r="EQD6" s="2"/>
+      <c r="EQF6" s="2"/>
+      <c r="EQH6" s="2"/>
+      <c r="EQJ6" s="2"/>
+      <c r="EQL6" s="2"/>
+      <c r="EQN6" s="2"/>
+      <c r="EQP6" s="2"/>
+      <c r="EQR6" s="2"/>
+      <c r="EQT6" s="2"/>
+      <c r="EQV6" s="2"/>
+      <c r="EQX6" s="2"/>
+      <c r="EQZ6" s="2"/>
+      <c r="ERB6" s="2"/>
+      <c r="ERD6" s="2"/>
+      <c r="ERF6" s="2"/>
+      <c r="ERH6" s="2"/>
+      <c r="ERJ6" s="2"/>
+      <c r="ERL6" s="2"/>
+      <c r="ERN6" s="2"/>
+      <c r="ERP6" s="2"/>
+      <c r="ERR6" s="2"/>
+      <c r="ERT6" s="2"/>
+      <c r="ERV6" s="2"/>
+      <c r="ERX6" s="2"/>
+      <c r="ERZ6" s="2"/>
+      <c r="ESB6" s="2"/>
+      <c r="ESD6" s="2"/>
+      <c r="ESF6" s="2"/>
+      <c r="ESH6" s="2"/>
+      <c r="ESJ6" s="2"/>
+      <c r="ESL6" s="2"/>
+      <c r="ESN6" s="2"/>
+      <c r="ESP6" s="2"/>
+      <c r="ESR6" s="2"/>
+      <c r="EST6" s="2"/>
+      <c r="ESV6" s="2"/>
+      <c r="ESX6" s="2"/>
+      <c r="ESZ6" s="2"/>
+      <c r="ETB6" s="2"/>
+      <c r="ETD6" s="2"/>
+      <c r="ETF6" s="2"/>
+      <c r="ETH6" s="2"/>
+      <c r="ETJ6" s="2"/>
+      <c r="ETL6" s="2"/>
+      <c r="ETN6" s="2"/>
+      <c r="ETP6" s="2"/>
+      <c r="ETR6" s="2"/>
+      <c r="ETT6" s="2"/>
+      <c r="ETV6" s="2"/>
+      <c r="ETX6" s="2"/>
+      <c r="ETZ6" s="2"/>
+      <c r="EUB6" s="2"/>
+      <c r="EUD6" s="2"/>
+      <c r="EUF6" s="2"/>
+      <c r="EUH6" s="2"/>
+      <c r="EUJ6" s="2"/>
+      <c r="EUL6" s="2"/>
+      <c r="EUN6" s="2"/>
+      <c r="EUP6" s="2"/>
+      <c r="EUR6" s="2"/>
+      <c r="EUT6" s="2"/>
+      <c r="EUV6" s="2"/>
+      <c r="EUX6" s="2"/>
+      <c r="EUZ6" s="2"/>
+      <c r="EVB6" s="2"/>
+      <c r="EVD6" s="2"/>
+      <c r="EVF6" s="2"/>
+      <c r="EVH6" s="2"/>
+      <c r="EVJ6" s="2"/>
+      <c r="EVL6" s="2"/>
+      <c r="EVN6" s="2"/>
+      <c r="EVP6" s="2"/>
+      <c r="EVR6" s="2"/>
+      <c r="EVT6" s="2"/>
+      <c r="EVV6" s="2"/>
+      <c r="EVX6" s="2"/>
+      <c r="EVZ6" s="2"/>
+      <c r="EWB6" s="2"/>
+      <c r="EWD6" s="2"/>
+      <c r="EWF6" s="2"/>
+      <c r="EWH6" s="2"/>
+      <c r="EWJ6" s="2"/>
+      <c r="EWL6" s="2"/>
+      <c r="EWN6" s="2"/>
+      <c r="EWP6" s="2"/>
+      <c r="EWR6" s="2"/>
+      <c r="EWT6" s="2"/>
+      <c r="EWV6" s="2"/>
+      <c r="EWX6" s="2"/>
+      <c r="EWZ6" s="2"/>
+      <c r="EXB6" s="2"/>
+      <c r="EXD6" s="2"/>
+      <c r="EXF6" s="2"/>
+      <c r="EXH6" s="2"/>
+      <c r="EXJ6" s="2"/>
+      <c r="EXL6" s="2"/>
+      <c r="EXN6" s="2"/>
+      <c r="EXP6" s="2"/>
+      <c r="EXR6" s="2"/>
+      <c r="EXT6" s="2"/>
+      <c r="EXV6" s="2"/>
+      <c r="EXX6" s="2"/>
+      <c r="EXZ6" s="2"/>
+      <c r="EYB6" s="2"/>
+      <c r="EYD6" s="2"/>
+      <c r="EYF6" s="2"/>
+      <c r="EYH6" s="2"/>
+      <c r="EYJ6" s="2"/>
+      <c r="EYL6" s="2"/>
+      <c r="EYN6" s="2"/>
+      <c r="EYP6" s="2"/>
+      <c r="EYR6" s="2"/>
+      <c r="EYT6" s="2"/>
+      <c r="EYV6" s="2"/>
+      <c r="EYX6" s="2"/>
+      <c r="EYZ6" s="2"/>
+      <c r="EZB6" s="2"/>
+      <c r="EZD6" s="2"/>
+      <c r="EZF6" s="2"/>
+      <c r="EZH6" s="2"/>
+      <c r="EZJ6" s="2"/>
+      <c r="EZL6" s="2"/>
+      <c r="EZN6" s="2"/>
+      <c r="EZP6" s="2"/>
+      <c r="EZR6" s="2"/>
+      <c r="EZT6" s="2"/>
+      <c r="EZV6" s="2"/>
+      <c r="EZX6" s="2"/>
+      <c r="EZZ6" s="2"/>
+      <c r="FAB6" s="2"/>
+      <c r="FAD6" s="2"/>
+      <c r="FAF6" s="2"/>
+      <c r="FAH6" s="2"/>
+      <c r="FAJ6" s="2"/>
+      <c r="FAL6" s="2"/>
+      <c r="FAN6" s="2"/>
+      <c r="FAP6" s="2"/>
+      <c r="FAR6" s="2"/>
+      <c r="FAT6" s="2"/>
+      <c r="FAV6" s="2"/>
+      <c r="FAX6" s="2"/>
+      <c r="FAZ6" s="2"/>
+      <c r="FBB6" s="2"/>
+      <c r="FBD6" s="2"/>
+      <c r="FBF6" s="2"/>
+      <c r="FBH6" s="2"/>
+      <c r="FBJ6" s="2"/>
+      <c r="FBL6" s="2"/>
+      <c r="FBN6" s="2"/>
+      <c r="FBP6" s="2"/>
+      <c r="FBR6" s="2"/>
+      <c r="FBT6" s="2"/>
+      <c r="FBV6" s="2"/>
+      <c r="FBX6" s="2"/>
+      <c r="FBZ6" s="2"/>
+      <c r="FCB6" s="2"/>
+      <c r="FCD6" s="2"/>
+      <c r="FCF6" s="2"/>
+      <c r="FCH6" s="2"/>
+      <c r="FCJ6" s="2"/>
+      <c r="FCL6" s="2"/>
+      <c r="FCN6" s="2"/>
+      <c r="FCP6" s="2"/>
+      <c r="FCR6" s="2"/>
+      <c r="FCT6" s="2"/>
+      <c r="FCV6" s="2"/>
+      <c r="FCX6" s="2"/>
+      <c r="FCZ6" s="2"/>
+      <c r="FDB6" s="2"/>
+      <c r="FDD6" s="2"/>
+      <c r="FDF6" s="2"/>
+      <c r="FDH6" s="2"/>
+      <c r="FDJ6" s="2"/>
+      <c r="FDL6" s="2"/>
+      <c r="FDN6" s="2"/>
+      <c r="FDP6" s="2"/>
+      <c r="FDR6" s="2"/>
+      <c r="FDT6" s="2"/>
+      <c r="FDV6" s="2"/>
+      <c r="FDX6" s="2"/>
+      <c r="FDZ6" s="2"/>
+      <c r="FEB6" s="2"/>
+      <c r="FED6" s="2"/>
+      <c r="FEF6" s="2"/>
+      <c r="FEH6" s="2"/>
+      <c r="FEJ6" s="2"/>
+      <c r="FEL6" s="2"/>
+      <c r="FEN6" s="2"/>
+      <c r="FEP6" s="2"/>
+      <c r="FER6" s="2"/>
+      <c r="FET6" s="2"/>
+      <c r="FEV6" s="2"/>
+      <c r="FEX6" s="2"/>
+      <c r="FEZ6" s="2"/>
+      <c r="FFB6" s="2"/>
+      <c r="FFD6" s="2"/>
+      <c r="FFF6" s="2"/>
+      <c r="FFH6" s="2"/>
+      <c r="FFJ6" s="2"/>
+      <c r="FFL6" s="2"/>
+      <c r="FFN6" s="2"/>
+      <c r="FFP6" s="2"/>
+      <c r="FFR6" s="2"/>
+      <c r="FFT6" s="2"/>
+      <c r="FFV6" s="2"/>
+      <c r="FFX6" s="2"/>
+      <c r="FFZ6" s="2"/>
+      <c r="FGB6" s="2"/>
+      <c r="FGD6" s="2"/>
+      <c r="FGF6" s="2"/>
+      <c r="FGH6" s="2"/>
+      <c r="FGJ6" s="2"/>
+      <c r="FGL6" s="2"/>
+      <c r="FGN6" s="2"/>
+      <c r="FGP6" s="2"/>
+      <c r="FGR6" s="2"/>
+      <c r="FGT6" s="2"/>
+      <c r="FGV6" s="2"/>
+      <c r="FGX6" s="2"/>
+      <c r="FGZ6" s="2"/>
+      <c r="FHB6" s="2"/>
+      <c r="FHD6" s="2"/>
+      <c r="FHF6" s="2"/>
+      <c r="FHH6" s="2"/>
+      <c r="FHJ6" s="2"/>
+      <c r="FHL6" s="2"/>
+      <c r="FHN6" s="2"/>
+      <c r="FHP6" s="2"/>
+      <c r="FHR6" s="2"/>
+      <c r="FHT6" s="2"/>
+      <c r="FHV6" s="2"/>
+      <c r="FHX6" s="2"/>
+      <c r="FHZ6" s="2"/>
+      <c r="FIB6" s="2"/>
+      <c r="FID6" s="2"/>
+      <c r="FIF6" s="2"/>
+      <c r="FIH6" s="2"/>
+      <c r="FIJ6" s="2"/>
+      <c r="FIL6" s="2"/>
+      <c r="FIN6" s="2"/>
+      <c r="FIP6" s="2"/>
+      <c r="FIR6" s="2"/>
+      <c r="FIT6" s="2"/>
+      <c r="FIV6" s="2"/>
+      <c r="FIX6" s="2"/>
+      <c r="FIZ6" s="2"/>
+      <c r="FJB6" s="2"/>
+      <c r="FJD6" s="2"/>
+      <c r="FJF6" s="2"/>
+      <c r="FJH6" s="2"/>
+      <c r="FJJ6" s="2"/>
+      <c r="FJL6" s="2"/>
+      <c r="FJN6" s="2"/>
+      <c r="FJP6" s="2"/>
+      <c r="FJR6" s="2"/>
+      <c r="FJT6" s="2"/>
+      <c r="FJV6" s="2"/>
+      <c r="FJX6" s="2"/>
+      <c r="FJZ6" s="2"/>
+      <c r="FKB6" s="2"/>
+      <c r="FKD6" s="2"/>
+      <c r="FKF6" s="2"/>
+      <c r="FKH6" s="2"/>
+      <c r="FKJ6" s="2"/>
+      <c r="FKL6" s="2"/>
+      <c r="FKN6" s="2"/>
+      <c r="FKP6" s="2"/>
+      <c r="FKR6" s="2"/>
+      <c r="FKT6" s="2"/>
+      <c r="FKV6" s="2"/>
+      <c r="FKX6" s="2"/>
+      <c r="FKZ6" s="2"/>
+      <c r="FLB6" s="2"/>
+      <c r="FLD6" s="2"/>
+      <c r="FLF6" s="2"/>
+      <c r="FLH6" s="2"/>
+      <c r="FLJ6" s="2"/>
+      <c r="FLL6" s="2"/>
+      <c r="FLN6" s="2"/>
+      <c r="FLP6" s="2"/>
+      <c r="FLR6" s="2"/>
+      <c r="FLT6" s="2"/>
+      <c r="FLV6" s="2"/>
+      <c r="FLX6" s="2"/>
+      <c r="FLZ6" s="2"/>
+      <c r="FMB6" s="2"/>
+      <c r="FMD6" s="2"/>
+      <c r="FMF6" s="2"/>
+      <c r="FMH6" s="2"/>
+      <c r="FMJ6" s="2"/>
+      <c r="FML6" s="2"/>
+      <c r="FMN6" s="2"/>
+      <c r="FMP6" s="2"/>
+      <c r="FMR6" s="2"/>
+      <c r="FMT6" s="2"/>
+      <c r="FMV6" s="2"/>
+      <c r="FMX6" s="2"/>
+      <c r="FMZ6" s="2"/>
+      <c r="FNB6" s="2"/>
+      <c r="FND6" s="2"/>
+      <c r="FNF6" s="2"/>
+      <c r="FNH6" s="2"/>
+      <c r="FNJ6" s="2"/>
+      <c r="FNL6" s="2"/>
+      <c r="FNN6" s="2"/>
+      <c r="FNP6" s="2"/>
+      <c r="FNR6" s="2"/>
+      <c r="FNT6" s="2"/>
+      <c r="FNV6" s="2"/>
+      <c r="FNX6" s="2"/>
+      <c r="FNZ6" s="2"/>
+      <c r="FOB6" s="2"/>
+      <c r="FOD6" s="2"/>
+      <c r="FOF6" s="2"/>
+      <c r="FOH6" s="2"/>
+      <c r="FOJ6" s="2"/>
+      <c r="FOL6" s="2"/>
+      <c r="FON6" s="2"/>
+      <c r="FOP6" s="2"/>
+      <c r="FOR6" s="2"/>
+      <c r="FOT6" s="2"/>
+      <c r="FOV6" s="2"/>
+      <c r="FOX6" s="2"/>
+      <c r="FOZ6" s="2"/>
+      <c r="FPB6" s="2"/>
+      <c r="FPD6" s="2"/>
+      <c r="FPF6" s="2"/>
+      <c r="FPH6" s="2"/>
+      <c r="FPJ6" s="2"/>
+      <c r="FPL6" s="2"/>
+      <c r="FPN6" s="2"/>
+      <c r="FPP6" s="2"/>
+      <c r="FPR6" s="2"/>
+      <c r="FPT6" s="2"/>
+      <c r="FPV6" s="2"/>
+      <c r="FPX6" s="2"/>
+      <c r="FPZ6" s="2"/>
+      <c r="FQB6" s="2"/>
+      <c r="FQD6" s="2"/>
+      <c r="FQF6" s="2"/>
+      <c r="FQH6" s="2"/>
+      <c r="FQJ6" s="2"/>
+      <c r="FQL6" s="2"/>
+      <c r="FQN6" s="2"/>
+      <c r="FQP6" s="2"/>
+      <c r="FQR6" s="2"/>
+      <c r="FQT6" s="2"/>
+      <c r="FQV6" s="2"/>
+      <c r="FQX6" s="2"/>
+      <c r="FQZ6" s="2"/>
+      <c r="FRB6" s="2"/>
+      <c r="FRD6" s="2"/>
+      <c r="FRF6" s="2"/>
+      <c r="FRH6" s="2"/>
+      <c r="FRJ6" s="2"/>
+      <c r="FRL6" s="2"/>
+      <c r="FRN6" s="2"/>
+      <c r="FRP6" s="2"/>
+      <c r="FRR6" s="2"/>
+      <c r="FRT6" s="2"/>
+      <c r="FRV6" s="2"/>
+      <c r="FRX6" s="2"/>
+      <c r="FRZ6" s="2"/>
+      <c r="FSB6" s="2"/>
+      <c r="FSD6" s="2"/>
+      <c r="FSF6" s="2"/>
+      <c r="FSH6" s="2"/>
+      <c r="FSJ6" s="2"/>
+      <c r="FSL6" s="2"/>
+      <c r="FSN6" s="2"/>
+      <c r="FSP6" s="2"/>
+      <c r="FSR6" s="2"/>
+      <c r="FST6" s="2"/>
+      <c r="FSV6" s="2"/>
+      <c r="FSX6" s="2"/>
+      <c r="FSZ6" s="2"/>
+      <c r="FTB6" s="2"/>
+      <c r="FTD6" s="2"/>
+      <c r="FTF6" s="2"/>
+      <c r="FTH6" s="2"/>
+      <c r="FTJ6" s="2"/>
+      <c r="FTL6" s="2"/>
+      <c r="FTN6" s="2"/>
+      <c r="FTP6" s="2"/>
+      <c r="FTR6" s="2"/>
+      <c r="FTT6" s="2"/>
+      <c r="FTV6" s="2"/>
+      <c r="FTX6" s="2"/>
+      <c r="FTZ6" s="2"/>
+      <c r="FUB6" s="2"/>
+      <c r="FUD6" s="2"/>
+      <c r="FUF6" s="2"/>
+      <c r="FUH6" s="2"/>
+      <c r="FUJ6" s="2"/>
+      <c r="FUL6" s="2"/>
+      <c r="FUN6" s="2"/>
+      <c r="FUP6" s="2"/>
+      <c r="FUR6" s="2"/>
+      <c r="FUT6" s="2"/>
+      <c r="FUV6" s="2"/>
+      <c r="FUX6" s="2"/>
+      <c r="FUZ6" s="2"/>
+      <c r="FVB6" s="2"/>
+      <c r="FVD6" s="2"/>
+      <c r="FVF6" s="2"/>
+      <c r="FVH6" s="2"/>
+      <c r="FVJ6" s="2"/>
+      <c r="FVL6" s="2"/>
+      <c r="FVN6" s="2"/>
+      <c r="FVP6" s="2"/>
+      <c r="FVR6" s="2"/>
+      <c r="FVT6" s="2"/>
+      <c r="FVV6" s="2"/>
+      <c r="FVX6" s="2"/>
+      <c r="FVZ6" s="2"/>
+      <c r="FWB6" s="2"/>
+      <c r="FWD6" s="2"/>
+      <c r="FWF6" s="2"/>
+      <c r="FWH6" s="2"/>
+      <c r="FWJ6" s="2"/>
+      <c r="FWL6" s="2"/>
+      <c r="FWN6" s="2"/>
+      <c r="FWP6" s="2"/>
+      <c r="FWR6" s="2"/>
+      <c r="FWT6" s="2"/>
+      <c r="FWV6" s="2"/>
+      <c r="FWX6" s="2"/>
+      <c r="FWZ6" s="2"/>
+      <c r="FXB6" s="2"/>
+      <c r="FXD6" s="2"/>
+      <c r="FXF6" s="2"/>
+      <c r="FXH6" s="2"/>
+      <c r="FXJ6" s="2"/>
+      <c r="FXL6" s="2"/>
+      <c r="FXN6" s="2"/>
+      <c r="FXP6" s="2"/>
+      <c r="FXR6" s="2"/>
+      <c r="FXT6" s="2"/>
+      <c r="FXV6" s="2"/>
+      <c r="FXX6" s="2"/>
+      <c r="FXZ6" s="2"/>
+      <c r="FYB6" s="2"/>
+      <c r="FYD6" s="2"/>
+      <c r="FYF6" s="2"/>
+      <c r="FYH6" s="2"/>
+      <c r="FYJ6" s="2"/>
+      <c r="FYL6" s="2"/>
+      <c r="FYN6" s="2"/>
+      <c r="FYP6" s="2"/>
+      <c r="FYR6" s="2"/>
+      <c r="FYT6" s="2"/>
+      <c r="FYV6" s="2"/>
+      <c r="FYX6" s="2"/>
+      <c r="FYZ6" s="2"/>
+      <c r="FZB6" s="2"/>
+      <c r="FZD6" s="2"/>
+      <c r="FZF6" s="2"/>
+      <c r="FZH6" s="2"/>
+      <c r="FZJ6" s="2"/>
+      <c r="FZL6" s="2"/>
+      <c r="FZN6" s="2"/>
+      <c r="FZP6" s="2"/>
+      <c r="FZR6" s="2"/>
+      <c r="FZT6" s="2"/>
+      <c r="FZV6" s="2"/>
+      <c r="FZX6" s="2"/>
+      <c r="FZZ6" s="2"/>
+      <c r="GAB6" s="2"/>
+      <c r="GAD6" s="2"/>
+      <c r="GAF6" s="2"/>
+      <c r="GAH6" s="2"/>
+      <c r="GAJ6" s="2"/>
+      <c r="GAL6" s="2"/>
+      <c r="GAN6" s="2"/>
+      <c r="GAP6" s="2"/>
+      <c r="GAR6" s="2"/>
+      <c r="GAT6" s="2"/>
+      <c r="GAV6" s="2"/>
+      <c r="GAX6" s="2"/>
+      <c r="GAZ6" s="2"/>
+      <c r="GBB6" s="2"/>
+      <c r="GBD6" s="2"/>
+      <c r="GBF6" s="2"/>
+      <c r="GBH6" s="2"/>
+      <c r="GBJ6" s="2"/>
+      <c r="GBL6" s="2"/>
+      <c r="GBN6" s="2"/>
+      <c r="GBP6" s="2"/>
+      <c r="GBR6" s="2"/>
+      <c r="GBT6" s="2"/>
+      <c r="GBV6" s="2"/>
+      <c r="GBX6" s="2"/>
+      <c r="GBZ6" s="2"/>
+      <c r="GCB6" s="2"/>
+      <c r="GCD6" s="2"/>
+      <c r="GCF6" s="2"/>
+      <c r="GCH6" s="2"/>
+      <c r="GCJ6" s="2"/>
+      <c r="GCL6" s="2"/>
+      <c r="GCN6" s="2"/>
+      <c r="GCP6" s="2"/>
+      <c r="GCR6" s="2"/>
+      <c r="GCT6" s="2"/>
+      <c r="GCV6" s="2"/>
+      <c r="GCX6" s="2"/>
+      <c r="GCZ6" s="2"/>
+      <c r="GDB6" s="2"/>
+      <c r="GDD6" s="2"/>
+      <c r="GDF6" s="2"/>
+      <c r="GDH6" s="2"/>
+      <c r="GDJ6" s="2"/>
+      <c r="GDL6" s="2"/>
+      <c r="GDN6" s="2"/>
+      <c r="GDP6" s="2"/>
+      <c r="GDR6" s="2"/>
+      <c r="GDT6" s="2"/>
+      <c r="GDV6" s="2"/>
+      <c r="GDX6" s="2"/>
+      <c r="GDZ6" s="2"/>
+      <c r="GEB6" s="2"/>
+      <c r="GED6" s="2"/>
+      <c r="GEF6" s="2"/>
+      <c r="GEH6" s="2"/>
+      <c r="GEJ6" s="2"/>
+      <c r="GEL6" s="2"/>
+      <c r="GEN6" s="2"/>
+      <c r="GEP6" s="2"/>
+      <c r="GER6" s="2"/>
+      <c r="GET6" s="2"/>
+      <c r="GEV6" s="2"/>
+      <c r="GEX6" s="2"/>
+      <c r="GEZ6" s="2"/>
+      <c r="GFB6" s="2"/>
+      <c r="GFD6" s="2"/>
+      <c r="GFF6" s="2"/>
+      <c r="GFH6" s="2"/>
+      <c r="GFJ6" s="2"/>
+      <c r="GFL6" s="2"/>
+      <c r="GFN6" s="2"/>
+      <c r="GFP6" s="2"/>
+      <c r="GFR6" s="2"/>
+      <c r="GFT6" s="2"/>
+      <c r="GFV6" s="2"/>
+      <c r="GFX6" s="2"/>
+      <c r="GFZ6" s="2"/>
+      <c r="GGB6" s="2"/>
+      <c r="GGD6" s="2"/>
+      <c r="GGF6" s="2"/>
+      <c r="GGH6" s="2"/>
+      <c r="GGJ6" s="2"/>
+      <c r="GGL6" s="2"/>
+      <c r="GGN6" s="2"/>
+      <c r="GGP6" s="2"/>
+      <c r="GGR6" s="2"/>
+      <c r="GGT6" s="2"/>
+      <c r="GGV6" s="2"/>
+      <c r="GGX6" s="2"/>
+      <c r="GGZ6" s="2"/>
+      <c r="GHB6" s="2"/>
+      <c r="GHD6" s="2"/>
+      <c r="GHF6" s="2"/>
+      <c r="GHH6" s="2"/>
+      <c r="GHJ6" s="2"/>
+      <c r="GHL6" s="2"/>
+      <c r="GHN6" s="2"/>
+      <c r="GHP6" s="2"/>
+      <c r="GHR6" s="2"/>
+      <c r="GHT6" s="2"/>
+      <c r="GHV6" s="2"/>
+      <c r="GHX6" s="2"/>
+      <c r="GHZ6" s="2"/>
+      <c r="GIB6" s="2"/>
+      <c r="GID6" s="2"/>
+      <c r="GIF6" s="2"/>
+      <c r="GIH6" s="2"/>
+      <c r="GIJ6" s="2"/>
+      <c r="GIL6" s="2"/>
+      <c r="GIN6" s="2"/>
+      <c r="GIP6" s="2"/>
+      <c r="GIR6" s="2"/>
+      <c r="GIT6" s="2"/>
+      <c r="GIV6" s="2"/>
+      <c r="GIX6" s="2"/>
+      <c r="GIZ6" s="2"/>
+      <c r="GJB6" s="2"/>
+      <c r="GJD6" s="2"/>
+      <c r="GJF6" s="2"/>
+      <c r="GJH6" s="2"/>
+      <c r="GJJ6" s="2"/>
+      <c r="GJL6" s="2"/>
+      <c r="GJN6" s="2"/>
+      <c r="GJP6" s="2"/>
+      <c r="GJR6" s="2"/>
+      <c r="GJT6" s="2"/>
+      <c r="GJV6" s="2"/>
+      <c r="GJX6" s="2"/>
+      <c r="GJZ6" s="2"/>
+      <c r="GKB6" s="2"/>
+      <c r="GKD6" s="2"/>
+      <c r="GKF6" s="2"/>
+      <c r="GKH6" s="2"/>
+      <c r="GKJ6" s="2"/>
+      <c r="GKL6" s="2"/>
+      <c r="GKN6" s="2"/>
+      <c r="GKP6" s="2"/>
+      <c r="GKR6" s="2"/>
+      <c r="GKT6" s="2"/>
+      <c r="GKV6" s="2"/>
+      <c r="GKX6" s="2"/>
+      <c r="GKZ6" s="2"/>
+      <c r="GLB6" s="2"/>
+      <c r="GLD6" s="2"/>
+      <c r="GLF6" s="2"/>
+      <c r="GLH6" s="2"/>
+      <c r="GLJ6" s="2"/>
+      <c r="GLL6" s="2"/>
+      <c r="GLN6" s="2"/>
+      <c r="GLP6" s="2"/>
+      <c r="GLR6" s="2"/>
+      <c r="GLT6" s="2"/>
+      <c r="GLV6" s="2"/>
+      <c r="GLX6" s="2"/>
+      <c r="GLZ6" s="2"/>
+      <c r="GMB6" s="2"/>
+      <c r="GMD6" s="2"/>
+      <c r="GMF6" s="2"/>
+      <c r="GMH6" s="2"/>
+      <c r="GMJ6" s="2"/>
+      <c r="GML6" s="2"/>
+      <c r="GMN6" s="2"/>
+      <c r="GMP6" s="2"/>
+      <c r="GMR6" s="2"/>
+      <c r="GMT6" s="2"/>
+      <c r="GMV6" s="2"/>
+      <c r="GMX6" s="2"/>
+      <c r="GMZ6" s="2"/>
+      <c r="GNB6" s="2"/>
+      <c r="GND6" s="2"/>
+      <c r="GNF6" s="2"/>
+      <c r="GNH6" s="2"/>
+      <c r="GNJ6" s="2"/>
+      <c r="GNL6" s="2"/>
+      <c r="GNN6" s="2"/>
+      <c r="GNP6" s="2"/>
+      <c r="GNR6" s="2"/>
+      <c r="GNT6" s="2"/>
+      <c r="GNV6" s="2"/>
+      <c r="GNX6" s="2"/>
+      <c r="GNZ6" s="2"/>
+      <c r="GOB6" s="2"/>
+      <c r="GOD6" s="2"/>
+      <c r="GOF6" s="2"/>
+      <c r="GOH6" s="2"/>
+      <c r="GOJ6" s="2"/>
+      <c r="GOL6" s="2"/>
+      <c r="GON6" s="2"/>
+      <c r="GOP6" s="2"/>
+      <c r="GOR6" s="2"/>
+      <c r="GOT6" s="2"/>
+      <c r="GOV6" s="2"/>
+      <c r="GOX6" s="2"/>
+      <c r="GOZ6" s="2"/>
+      <c r="GPB6" s="2"/>
+      <c r="GPD6" s="2"/>
+      <c r="GPF6" s="2"/>
+      <c r="GPH6" s="2"/>
+      <c r="GPJ6" s="2"/>
+      <c r="GPL6" s="2"/>
+      <c r="GPN6" s="2"/>
+      <c r="GPP6" s="2"/>
+      <c r="GPR6" s="2"/>
+      <c r="GPT6" s="2"/>
+      <c r="GPV6" s="2"/>
+      <c r="GPX6" s="2"/>
+      <c r="GPZ6" s="2"/>
+      <c r="GQB6" s="2"/>
+      <c r="GQD6" s="2"/>
+      <c r="GQF6" s="2"/>
+      <c r="GQH6" s="2"/>
+      <c r="GQJ6" s="2"/>
+      <c r="GQL6" s="2"/>
+      <c r="GQN6" s="2"/>
+      <c r="GQP6" s="2"/>
+      <c r="GQR6" s="2"/>
+      <c r="GQT6" s="2"/>
+      <c r="GQV6" s="2"/>
+      <c r="GQX6" s="2"/>
+      <c r="GQZ6" s="2"/>
+      <c r="GRB6" s="2"/>
+      <c r="GRD6" s="2"/>
+      <c r="GRF6" s="2"/>
+      <c r="GRH6" s="2"/>
+      <c r="GRJ6" s="2"/>
+      <c r="GRL6" s="2"/>
+      <c r="GRN6" s="2"/>
+      <c r="GRP6" s="2"/>
+      <c r="GRR6" s="2"/>
+      <c r="GRT6" s="2"/>
+      <c r="GRV6" s="2"/>
+      <c r="GRX6" s="2"/>
+      <c r="GRZ6" s="2"/>
+      <c r="GSB6" s="2"/>
+      <c r="GSD6" s="2"/>
+      <c r="GSF6" s="2"/>
+      <c r="GSH6" s="2"/>
+      <c r="GSJ6" s="2"/>
+      <c r="GSL6" s="2"/>
+      <c r="GSN6" s="2"/>
+      <c r="GSP6" s="2"/>
+      <c r="GSR6" s="2"/>
+      <c r="GST6" s="2"/>
+      <c r="GSV6" s="2"/>
+      <c r="GSX6" s="2"/>
+      <c r="GSZ6" s="2"/>
+      <c r="GTB6" s="2"/>
+      <c r="GTD6" s="2"/>
+      <c r="GTF6" s="2"/>
+      <c r="GTH6" s="2"/>
+      <c r="GTJ6" s="2"/>
+      <c r="GTL6" s="2"/>
+      <c r="GTN6" s="2"/>
+      <c r="GTP6" s="2"/>
+      <c r="GTR6" s="2"/>
+      <c r="GTT6" s="2"/>
+      <c r="GTV6" s="2"/>
+      <c r="GTX6" s="2"/>
+      <c r="GTZ6" s="2"/>
+      <c r="GUB6" s="2"/>
+      <c r="GUD6" s="2"/>
+      <c r="GUF6" s="2"/>
+      <c r="GUH6" s="2"/>
+      <c r="GUJ6" s="2"/>
+      <c r="GUL6" s="2"/>
+      <c r="GUN6" s="2"/>
+      <c r="GUP6" s="2"/>
+      <c r="GUR6" s="2"/>
+      <c r="GUT6" s="2"/>
+      <c r="GUV6" s="2"/>
+      <c r="GUX6" s="2"/>
+      <c r="GUZ6" s="2"/>
+      <c r="GVB6" s="2"/>
+      <c r="GVD6" s="2"/>
+      <c r="GVF6" s="2"/>
+      <c r="GVH6" s="2"/>
+      <c r="GVJ6" s="2"/>
+      <c r="GVL6" s="2"/>
+      <c r="GVN6" s="2"/>
+      <c r="GVP6" s="2"/>
+      <c r="GVR6" s="2"/>
+      <c r="GVT6" s="2"/>
+      <c r="GVV6" s="2"/>
+      <c r="GVX6" s="2"/>
+      <c r="GVZ6" s="2"/>
+      <c r="GWB6" s="2"/>
+      <c r="GWD6" s="2"/>
+      <c r="GWF6" s="2"/>
+      <c r="GWH6" s="2"/>
+      <c r="GWJ6" s="2"/>
+      <c r="GWL6" s="2"/>
+      <c r="GWN6" s="2"/>
+      <c r="GWP6" s="2"/>
+      <c r="GWR6" s="2"/>
+      <c r="GWT6" s="2"/>
+      <c r="GWV6" s="2"/>
+      <c r="GWX6" s="2"/>
+      <c r="GWZ6" s="2"/>
+      <c r="GXB6" s="2"/>
+      <c r="GXD6" s="2"/>
+      <c r="GXF6" s="2"/>
+      <c r="GXH6" s="2"/>
+      <c r="GXJ6" s="2"/>
+      <c r="GXL6" s="2"/>
+      <c r="GXN6" s="2"/>
+      <c r="GXP6" s="2"/>
+      <c r="GXR6" s="2"/>
+      <c r="GXT6" s="2"/>
+      <c r="GXV6" s="2"/>
+      <c r="GXX6" s="2"/>
+      <c r="GXZ6" s="2"/>
+      <c r="GYB6" s="2"/>
+      <c r="GYD6" s="2"/>
+      <c r="GYF6" s="2"/>
+      <c r="GYH6" s="2"/>
+      <c r="GYJ6" s="2"/>
+      <c r="GYL6" s="2"/>
+      <c r="GYN6" s="2"/>
+      <c r="GYP6" s="2"/>
+      <c r="GYR6" s="2"/>
+      <c r="GYT6" s="2"/>
+      <c r="GYV6" s="2"/>
+      <c r="GYX6" s="2"/>
+      <c r="GYZ6" s="2"/>
+      <c r="GZB6" s="2"/>
+      <c r="GZD6" s="2"/>
+      <c r="GZF6" s="2"/>
+      <c r="GZH6" s="2"/>
+      <c r="GZJ6" s="2"/>
+      <c r="GZL6" s="2"/>
+      <c r="GZN6" s="2"/>
+      <c r="GZP6" s="2"/>
+      <c r="GZR6" s="2"/>
+      <c r="GZT6" s="2"/>
+      <c r="GZV6" s="2"/>
+      <c r="GZX6" s="2"/>
+      <c r="GZZ6" s="2"/>
+      <c r="HAB6" s="2"/>
+      <c r="HAD6" s="2"/>
+      <c r="HAF6" s="2"/>
+      <c r="HAH6" s="2"/>
+      <c r="HAJ6" s="2"/>
+      <c r="HAL6" s="2"/>
+      <c r="HAN6" s="2"/>
+      <c r="HAP6" s="2"/>
+      <c r="HAR6" s="2"/>
+      <c r="HAT6" s="2"/>
+      <c r="HAV6" s="2"/>
+      <c r="HAX6" s="2"/>
+      <c r="HAZ6" s="2"/>
+      <c r="HBB6" s="2"/>
+      <c r="HBD6" s="2"/>
+      <c r="HBF6" s="2"/>
+      <c r="HBH6" s="2"/>
+      <c r="HBJ6" s="2"/>
+      <c r="HBL6" s="2"/>
+      <c r="HBN6" s="2"/>
+      <c r="HBP6" s="2"/>
+      <c r="HBR6" s="2"/>
+      <c r="HBT6" s="2"/>
+      <c r="HBV6" s="2"/>
+      <c r="HBX6" s="2"/>
+      <c r="HBZ6" s="2"/>
+      <c r="HCB6" s="2"/>
+      <c r="HCD6" s="2"/>
+      <c r="HCF6" s="2"/>
+      <c r="HCH6" s="2"/>
+      <c r="HCJ6" s="2"/>
+      <c r="HCL6" s="2"/>
+      <c r="HCN6" s="2"/>
+      <c r="HCP6" s="2"/>
+      <c r="HCR6" s="2"/>
+      <c r="HCT6" s="2"/>
+      <c r="HCV6" s="2"/>
+      <c r="HCX6" s="2"/>
+      <c r="HCZ6" s="2"/>
+      <c r="HDB6" s="2"/>
+      <c r="HDD6" s="2"/>
+      <c r="HDF6" s="2"/>
+      <c r="HDH6" s="2"/>
+      <c r="HDJ6" s="2"/>
+      <c r="HDL6" s="2"/>
+      <c r="HDN6" s="2"/>
+      <c r="HDP6" s="2"/>
+      <c r="HDR6" s="2"/>
+      <c r="HDT6" s="2"/>
+      <c r="HDV6" s="2"/>
+      <c r="HDX6" s="2"/>
+      <c r="HDZ6" s="2"/>
+      <c r="HEB6" s="2"/>
+      <c r="HED6" s="2"/>
+      <c r="HEF6" s="2"/>
+      <c r="HEH6" s="2"/>
+      <c r="HEJ6" s="2"/>
+      <c r="HEL6" s="2"/>
+      <c r="HEN6" s="2"/>
+      <c r="HEP6" s="2"/>
+      <c r="HER6" s="2"/>
+      <c r="HET6" s="2"/>
+      <c r="HEV6" s="2"/>
+      <c r="HEX6" s="2"/>
+      <c r="HEZ6" s="2"/>
+      <c r="HFB6" s="2"/>
+      <c r="HFD6" s="2"/>
+      <c r="HFF6" s="2"/>
+      <c r="HFH6" s="2"/>
+      <c r="HFJ6" s="2"/>
+      <c r="HFL6" s="2"/>
+      <c r="HFN6" s="2"/>
+      <c r="HFP6" s="2"/>
+      <c r="HFR6" s="2"/>
+      <c r="HFT6" s="2"/>
+      <c r="HFV6" s="2"/>
+      <c r="HFX6" s="2"/>
+      <c r="HFZ6" s="2"/>
+      <c r="HGB6" s="2"/>
+      <c r="HGD6" s="2"/>
+      <c r="HGF6" s="2"/>
+      <c r="HGH6" s="2"/>
+      <c r="HGJ6" s="2"/>
+      <c r="HGL6" s="2"/>
+      <c r="HGN6" s="2"/>
+      <c r="HGP6" s="2"/>
+      <c r="HGR6" s="2"/>
+      <c r="HGT6" s="2"/>
+      <c r="HGV6" s="2"/>
+      <c r="HGX6" s="2"/>
+      <c r="HGZ6" s="2"/>
+      <c r="HHB6" s="2"/>
+      <c r="HHD6" s="2"/>
+      <c r="HHF6" s="2"/>
+      <c r="HHH6" s="2"/>
+      <c r="HHJ6" s="2"/>
+      <c r="HHL6" s="2"/>
+      <c r="HHN6" s="2"/>
+      <c r="HHP6" s="2"/>
+      <c r="HHR6" s="2"/>
+      <c r="HHT6" s="2"/>
+      <c r="HHV6" s="2"/>
+      <c r="HHX6" s="2"/>
+      <c r="HHZ6" s="2"/>
+      <c r="HIB6" s="2"/>
+      <c r="HID6" s="2"/>
+      <c r="HIF6" s="2"/>
+      <c r="HIH6" s="2"/>
+      <c r="HIJ6" s="2"/>
+      <c r="HIL6" s="2"/>
+      <c r="HIN6" s="2"/>
+      <c r="HIP6" s="2"/>
+      <c r="HIR6" s="2"/>
+      <c r="HIT6" s="2"/>
+      <c r="HIV6" s="2"/>
+      <c r="HIX6" s="2"/>
+      <c r="HIZ6" s="2"/>
+      <c r="HJB6" s="2"/>
+      <c r="HJD6" s="2"/>
+      <c r="HJF6" s="2"/>
+      <c r="HJH6" s="2"/>
+      <c r="HJJ6" s="2"/>
+      <c r="HJL6" s="2"/>
+      <c r="HJN6" s="2"/>
+      <c r="HJP6" s="2"/>
+      <c r="HJR6" s="2"/>
+      <c r="HJT6" s="2"/>
+      <c r="HJV6" s="2"/>
+      <c r="HJX6" s="2"/>
+      <c r="HJZ6" s="2"/>
+      <c r="HKB6" s="2"/>
+      <c r="HKD6" s="2"/>
+      <c r="HKF6" s="2"/>
+      <c r="HKH6" s="2"/>
+      <c r="HKJ6" s="2"/>
+      <c r="HKL6" s="2"/>
+      <c r="HKN6" s="2"/>
+      <c r="HKP6" s="2"/>
+      <c r="HKR6" s="2"/>
+      <c r="HKT6" s="2"/>
+      <c r="HKV6" s="2"/>
+      <c r="HKX6" s="2"/>
+      <c r="HKZ6" s="2"/>
+      <c r="HLB6" s="2"/>
+      <c r="HLD6" s="2"/>
+      <c r="HLF6" s="2"/>
+      <c r="HLH6" s="2"/>
+      <c r="HLJ6" s="2"/>
+      <c r="HLL6" s="2"/>
+      <c r="HLN6" s="2"/>
+      <c r="HLP6" s="2"/>
+      <c r="HLR6" s="2"/>
+      <c r="HLT6" s="2"/>
+      <c r="HLV6" s="2"/>
+      <c r="HLX6" s="2"/>
+      <c r="HLZ6" s="2"/>
+      <c r="HMB6" s="2"/>
+      <c r="HMD6" s="2"/>
+      <c r="HMF6" s="2"/>
+      <c r="HMH6" s="2"/>
+      <c r="HMJ6" s="2"/>
+      <c r="HML6" s="2"/>
+      <c r="HMN6" s="2"/>
+      <c r="HMP6" s="2"/>
+      <c r="HMR6" s="2"/>
+      <c r="HMT6" s="2"/>
+      <c r="HMV6" s="2"/>
+      <c r="HMX6" s="2"/>
+      <c r="HMZ6" s="2"/>
+      <c r="HNB6" s="2"/>
+      <c r="HND6" s="2"/>
+      <c r="HNF6" s="2"/>
+      <c r="HNH6" s="2"/>
+      <c r="HNJ6" s="2"/>
+      <c r="HNL6" s="2"/>
+      <c r="HNN6" s="2"/>
+      <c r="HNP6" s="2"/>
+      <c r="HNR6" s="2"/>
+      <c r="HNT6" s="2"/>
+      <c r="HNV6" s="2"/>
+      <c r="HNX6" s="2"/>
+      <c r="HNZ6" s="2"/>
+      <c r="HOB6" s="2"/>
+      <c r="HOD6" s="2"/>
+      <c r="HOF6" s="2"/>
+      <c r="HOH6" s="2"/>
+      <c r="HOJ6" s="2"/>
+      <c r="HOL6" s="2"/>
+      <c r="HON6" s="2"/>
+      <c r="HOP6" s="2"/>
+      <c r="HOR6" s="2"/>
+      <c r="HOT6" s="2"/>
+      <c r="HOV6" s="2"/>
+      <c r="HOX6" s="2"/>
+      <c r="HOZ6" s="2"/>
+      <c r="HPB6" s="2"/>
+      <c r="HPD6" s="2"/>
+      <c r="HPF6" s="2"/>
+      <c r="HPH6" s="2"/>
+      <c r="HPJ6" s="2"/>
+      <c r="HPL6" s="2"/>
+      <c r="HPN6" s="2"/>
+      <c r="HPP6" s="2"/>
+      <c r="HPR6" s="2"/>
+      <c r="HPT6" s="2"/>
+      <c r="HPV6" s="2"/>
+      <c r="HPX6" s="2"/>
+      <c r="HPZ6" s="2"/>
+      <c r="HQB6" s="2"/>
+      <c r="HQD6" s="2"/>
+      <c r="HQF6" s="2"/>
+      <c r="HQH6" s="2"/>
+      <c r="HQJ6" s="2"/>
+      <c r="HQL6" s="2"/>
+      <c r="HQN6" s="2"/>
+      <c r="HQP6" s="2"/>
+      <c r="HQR6" s="2"/>
+      <c r="HQT6" s="2"/>
+      <c r="HQV6" s="2"/>
+      <c r="HQX6" s="2"/>
+      <c r="HQZ6" s="2"/>
+      <c r="HRB6" s="2"/>
+      <c r="HRD6" s="2"/>
+      <c r="HRF6" s="2"/>
+      <c r="HRH6" s="2"/>
+      <c r="HRJ6" s="2"/>
+      <c r="HRL6" s="2"/>
+      <c r="HRN6" s="2"/>
+      <c r="HRP6" s="2"/>
+      <c r="HRR6" s="2"/>
+      <c r="HRT6" s="2"/>
+      <c r="HRV6" s="2"/>
+      <c r="HRX6" s="2"/>
+      <c r="HRZ6" s="2"/>
+      <c r="HSB6" s="2"/>
+      <c r="HSD6" s="2"/>
+      <c r="HSF6" s="2"/>
+      <c r="HSH6" s="2"/>
+      <c r="HSJ6" s="2"/>
+      <c r="HSL6" s="2"/>
+      <c r="HSN6" s="2"/>
+      <c r="HSP6" s="2"/>
+      <c r="HSR6" s="2"/>
+      <c r="HST6" s="2"/>
+      <c r="HSV6" s="2"/>
+      <c r="HSX6" s="2"/>
+      <c r="HSZ6" s="2"/>
+      <c r="HTB6" s="2"/>
+      <c r="HTD6" s="2"/>
+      <c r="HTF6" s="2"/>
+      <c r="HTH6" s="2"/>
+      <c r="HTJ6" s="2"/>
+      <c r="HTL6" s="2"/>
+      <c r="HTN6" s="2"/>
+      <c r="HTP6" s="2"/>
+      <c r="HTR6" s="2"/>
+      <c r="HTT6" s="2"/>
+      <c r="HTV6" s="2"/>
+      <c r="HTX6" s="2"/>
+      <c r="HTZ6" s="2"/>
+      <c r="HUB6" s="2"/>
+      <c r="HUD6" s="2"/>
+      <c r="HUF6" s="2"/>
+      <c r="HUH6" s="2"/>
+      <c r="HUJ6" s="2"/>
+      <c r="HUL6" s="2"/>
+      <c r="HUN6" s="2"/>
+      <c r="HUP6" s="2"/>
+      <c r="HUR6" s="2"/>
+      <c r="HUT6" s="2"/>
+      <c r="HUV6" s="2"/>
+      <c r="HUX6" s="2"/>
+      <c r="HUZ6" s="2"/>
+      <c r="HVB6" s="2"/>
+      <c r="HVD6" s="2"/>
+      <c r="HVF6" s="2"/>
+      <c r="HVH6" s="2"/>
+      <c r="HVJ6" s="2"/>
+      <c r="HVL6" s="2"/>
+      <c r="HVN6" s="2"/>
+      <c r="HVP6" s="2"/>
+      <c r="HVR6" s="2"/>
+      <c r="HVT6" s="2"/>
+      <c r="HVV6" s="2"/>
+      <c r="HVX6" s="2"/>
+      <c r="HVZ6" s="2"/>
+      <c r="HWB6" s="2"/>
+      <c r="HWD6" s="2"/>
+      <c r="HWF6" s="2"/>
+      <c r="HWH6" s="2"/>
+      <c r="HWJ6" s="2"/>
+      <c r="HWL6" s="2"/>
+      <c r="HWN6" s="2"/>
+      <c r="HWP6" s="2"/>
+      <c r="HWR6" s="2"/>
+      <c r="HWT6" s="2"/>
+      <c r="HWV6" s="2"/>
+      <c r="HWX6" s="2"/>
+      <c r="HWZ6" s="2"/>
+      <c r="HXB6" s="2"/>
+      <c r="HXD6" s="2"/>
+      <c r="HXF6" s="2"/>
+      <c r="HXH6" s="2"/>
+      <c r="HXJ6" s="2"/>
+      <c r="HXL6" s="2"/>
+      <c r="HXN6" s="2"/>
+      <c r="HXP6" s="2"/>
+      <c r="HXR6" s="2"/>
+      <c r="HXT6" s="2"/>
+      <c r="HXV6" s="2"/>
+      <c r="HXX6" s="2"/>
+      <c r="HXZ6" s="2"/>
+      <c r="HYB6" s="2"/>
+      <c r="HYD6" s="2"/>
+      <c r="HYF6" s="2"/>
+      <c r="HYH6" s="2"/>
+      <c r="HYJ6" s="2"/>
+      <c r="HYL6" s="2"/>
+      <c r="HYN6" s="2"/>
+      <c r="HYP6" s="2"/>
+      <c r="HYR6" s="2"/>
+      <c r="HYT6" s="2"/>
+      <c r="HYV6" s="2"/>
+      <c r="HYX6" s="2"/>
+      <c r="HYZ6" s="2"/>
+      <c r="HZB6" s="2"/>
+      <c r="HZD6" s="2"/>
+      <c r="HZF6" s="2"/>
+      <c r="HZH6" s="2"/>
+      <c r="HZJ6" s="2"/>
+      <c r="HZL6" s="2"/>
+      <c r="HZN6" s="2"/>
+      <c r="HZP6" s="2"/>
+      <c r="HZR6" s="2"/>
+      <c r="HZT6" s="2"/>
+      <c r="HZV6" s="2"/>
+      <c r="HZX6" s="2"/>
+      <c r="HZZ6" s="2"/>
+      <c r="IAB6" s="2"/>
+      <c r="IAD6" s="2"/>
+      <c r="IAF6" s="2"/>
+      <c r="IAH6" s="2"/>
+      <c r="IAJ6" s="2"/>
+      <c r="IAL6" s="2"/>
+      <c r="IAN6" s="2"/>
+      <c r="IAP6" s="2"/>
+      <c r="IAR6" s="2"/>
+      <c r="IAT6" s="2"/>
+      <c r="IAV6" s="2"/>
+      <c r="IAX6" s="2"/>
+      <c r="IAZ6" s="2"/>
+      <c r="IBB6" s="2"/>
+      <c r="IBD6" s="2"/>
+      <c r="IBF6" s="2"/>
+      <c r="IBH6" s="2"/>
+      <c r="IBJ6" s="2"/>
+      <c r="IBL6" s="2"/>
+      <c r="IBN6" s="2"/>
+      <c r="IBP6" s="2"/>
+      <c r="IBR6" s="2"/>
+      <c r="IBT6" s="2"/>
+      <c r="IBV6" s="2"/>
+      <c r="IBX6" s="2"/>
+      <c r="IBZ6" s="2"/>
+      <c r="ICB6" s="2"/>
+      <c r="ICD6" s="2"/>
+      <c r="ICF6" s="2"/>
+      <c r="ICH6" s="2"/>
+      <c r="ICJ6" s="2"/>
+      <c r="ICL6" s="2"/>
+      <c r="ICN6" s="2"/>
+      <c r="ICP6" s="2"/>
+      <c r="ICR6" s="2"/>
+      <c r="ICT6" s="2"/>
+      <c r="ICV6" s="2"/>
+      <c r="ICX6" s="2"/>
+      <c r="ICZ6" s="2"/>
+      <c r="IDB6" s="2"/>
+      <c r="IDD6" s="2"/>
+      <c r="IDF6" s="2"/>
+      <c r="IDH6" s="2"/>
+      <c r="IDJ6" s="2"/>
+      <c r="IDL6" s="2"/>
+      <c r="IDN6" s="2"/>
+      <c r="IDP6" s="2"/>
+      <c r="IDR6" s="2"/>
+      <c r="IDT6" s="2"/>
+      <c r="IDV6" s="2"/>
+      <c r="IDX6" s="2"/>
+      <c r="IDZ6" s="2"/>
+      <c r="IEB6" s="2"/>
+      <c r="IED6" s="2"/>
+      <c r="IEF6" s="2"/>
+      <c r="IEH6" s="2"/>
+      <c r="IEJ6" s="2"/>
+      <c r="IEL6" s="2"/>
+      <c r="IEN6" s="2"/>
+      <c r="IEP6" s="2"/>
+      <c r="IER6" s="2"/>
+      <c r="IET6" s="2"/>
+      <c r="IEV6" s="2"/>
+      <c r="IEX6" s="2"/>
+      <c r="IEZ6" s="2"/>
+      <c r="IFB6" s="2"/>
+      <c r="IFD6" s="2"/>
+      <c r="IFF6" s="2"/>
+      <c r="IFH6" s="2"/>
+      <c r="IFJ6" s="2"/>
+      <c r="IFL6" s="2"/>
+      <c r="IFN6" s="2"/>
+      <c r="IFP6" s="2"/>
+      <c r="IFR6" s="2"/>
+      <c r="IFT6" s="2"/>
+      <c r="IFV6" s="2"/>
+      <c r="IFX6" s="2"/>
+      <c r="IFZ6" s="2"/>
+      <c r="IGB6" s="2"/>
+      <c r="IGD6" s="2"/>
+      <c r="IGF6" s="2"/>
+      <c r="IGH6" s="2"/>
+      <c r="IGJ6" s="2"/>
+      <c r="IGL6" s="2"/>
+      <c r="IGN6" s="2"/>
+      <c r="IGP6" s="2"/>
+      <c r="IGR6" s="2"/>
+      <c r="IGT6" s="2"/>
+      <c r="IGV6" s="2"/>
+      <c r="IGX6" s="2"/>
+      <c r="IGZ6" s="2"/>
+      <c r="IHB6" s="2"/>
+      <c r="IHD6" s="2"/>
+      <c r="IHF6" s="2"/>
+      <c r="IHH6" s="2"/>
+      <c r="IHJ6" s="2"/>
+      <c r="IHL6" s="2"/>
+      <c r="IHN6" s="2"/>
+      <c r="IHP6" s="2"/>
+      <c r="IHR6" s="2"/>
+      <c r="IHT6" s="2"/>
+      <c r="IHV6" s="2"/>
+      <c r="IHX6" s="2"/>
+      <c r="IHZ6" s="2"/>
+      <c r="IIB6" s="2"/>
+      <c r="IID6" s="2"/>
+      <c r="IIF6" s="2"/>
+      <c r="IIH6" s="2"/>
+      <c r="IIJ6" s="2"/>
+      <c r="IIL6" s="2"/>
+      <c r="IIN6" s="2"/>
+      <c r="IIP6" s="2"/>
+      <c r="IIR6" s="2"/>
+      <c r="IIT6" s="2"/>
+      <c r="IIV6" s="2"/>
+      <c r="IIX6" s="2"/>
+      <c r="IIZ6" s="2"/>
+      <c r="IJB6" s="2"/>
+      <c r="IJD6" s="2"/>
+      <c r="IJF6" s="2"/>
+      <c r="IJH6" s="2"/>
+      <c r="IJJ6" s="2"/>
+      <c r="IJL6" s="2"/>
+      <c r="IJN6" s="2"/>
+      <c r="IJP6" s="2"/>
+      <c r="IJR6" s="2"/>
+      <c r="IJT6" s="2"/>
+      <c r="IJV6" s="2"/>
+      <c r="IJX6" s="2"/>
+      <c r="IJZ6" s="2"/>
+      <c r="IKB6" s="2"/>
+      <c r="IKD6" s="2"/>
+      <c r="IKF6" s="2"/>
+      <c r="IKH6" s="2"/>
+      <c r="IKJ6" s="2"/>
+      <c r="IKL6" s="2"/>
+      <c r="IKN6" s="2"/>
+      <c r="IKP6" s="2"/>
+      <c r="IKR6" s="2"/>
+      <c r="IKT6" s="2"/>
+      <c r="IKV6" s="2"/>
+      <c r="IKX6" s="2"/>
+      <c r="IKZ6" s="2"/>
+      <c r="ILB6" s="2"/>
+      <c r="ILD6" s="2"/>
+      <c r="ILF6" s="2"/>
+      <c r="ILH6" s="2"/>
+      <c r="ILJ6" s="2"/>
+      <c r="ILL6" s="2"/>
+      <c r="ILN6" s="2"/>
+      <c r="ILP6" s="2"/>
+      <c r="ILR6" s="2"/>
+      <c r="ILT6" s="2"/>
+      <c r="ILV6" s="2"/>
+      <c r="ILX6" s="2"/>
+      <c r="ILZ6" s="2"/>
+      <c r="IMB6" s="2"/>
+      <c r="IMD6" s="2"/>
+      <c r="IMF6" s="2"/>
+      <c r="IMH6" s="2"/>
+      <c r="IMJ6" s="2"/>
+      <c r="IML6" s="2"/>
+      <c r="IMN6" s="2"/>
+      <c r="IMP6" s="2"/>
+      <c r="IMR6" s="2"/>
+      <c r="IMT6" s="2"/>
+      <c r="IMV6" s="2"/>
+      <c r="IMX6" s="2"/>
+      <c r="IMZ6" s="2"/>
+      <c r="INB6" s="2"/>
+      <c r="IND6" s="2"/>
+      <c r="INF6" s="2"/>
+      <c r="INH6" s="2"/>
+      <c r="INJ6" s="2"/>
+      <c r="INL6" s="2"/>
+      <c r="INN6" s="2"/>
+      <c r="INP6" s="2"/>
+      <c r="INR6" s="2"/>
+      <c r="INT6" s="2"/>
+      <c r="INV6" s="2"/>
+      <c r="INX6" s="2"/>
+      <c r="INZ6" s="2"/>
+      <c r="IOB6" s="2"/>
+      <c r="IOD6" s="2"/>
+      <c r="IOF6" s="2"/>
+      <c r="IOH6" s="2"/>
+      <c r="IOJ6" s="2"/>
+      <c r="IOL6" s="2"/>
+      <c r="ION6" s="2"/>
+      <c r="IOP6" s="2"/>
+      <c r="IOR6" s="2"/>
+      <c r="IOT6" s="2"/>
+      <c r="IOV6" s="2"/>
+      <c r="IOX6" s="2"/>
+      <c r="IOZ6" s="2"/>
+      <c r="IPB6" s="2"/>
+      <c r="IPD6" s="2"/>
+      <c r="IPF6" s="2"/>
+      <c r="IPH6" s="2"/>
+      <c r="IPJ6" s="2"/>
+      <c r="IPL6" s="2"/>
+      <c r="IPN6" s="2"/>
+      <c r="IPP6" s="2"/>
+      <c r="IPR6" s="2"/>
+      <c r="IPT6" s="2"/>
+      <c r="IPV6" s="2"/>
+      <c r="IPX6" s="2"/>
+      <c r="IPZ6" s="2"/>
+      <c r="IQB6" s="2"/>
+      <c r="IQD6" s="2"/>
+      <c r="IQF6" s="2"/>
+      <c r="IQH6" s="2"/>
+      <c r="IQJ6" s="2"/>
+      <c r="IQL6" s="2"/>
+      <c r="IQN6" s="2"/>
+      <c r="IQP6" s="2"/>
+      <c r="IQR6" s="2"/>
+      <c r="IQT6" s="2"/>
+      <c r="IQV6" s="2"/>
+      <c r="IQX6" s="2"/>
+      <c r="IQZ6" s="2"/>
+      <c r="IRB6" s="2"/>
+      <c r="IRD6" s="2"/>
+      <c r="IRF6" s="2"/>
+      <c r="IRH6" s="2"/>
+      <c r="IRJ6" s="2"/>
+      <c r="IRL6" s="2"/>
+      <c r="IRN6" s="2"/>
+      <c r="IRP6" s="2"/>
+      <c r="IRR6" s="2"/>
+      <c r="IRT6" s="2"/>
+      <c r="IRV6" s="2"/>
+      <c r="IRX6" s="2"/>
+      <c r="IRZ6" s="2"/>
+      <c r="ISB6" s="2"/>
+      <c r="ISD6" s="2"/>
+      <c r="ISF6" s="2"/>
+      <c r="ISH6" s="2"/>
+      <c r="ISJ6" s="2"/>
+      <c r="ISL6" s="2"/>
+      <c r="ISN6" s="2"/>
+      <c r="ISP6" s="2"/>
+      <c r="ISR6" s="2"/>
+      <c r="IST6" s="2"/>
+      <c r="ISV6" s="2"/>
+      <c r="ISX6" s="2"/>
+      <c r="ISZ6" s="2"/>
+      <c r="ITB6" s="2"/>
+      <c r="ITD6" s="2"/>
+      <c r="ITF6" s="2"/>
+      <c r="ITH6" s="2"/>
+      <c r="ITJ6" s="2"/>
+      <c r="ITL6" s="2"/>
+      <c r="ITN6" s="2"/>
+      <c r="ITP6" s="2"/>
+      <c r="ITR6" s="2"/>
+      <c r="ITT6" s="2"/>
+      <c r="ITV6" s="2"/>
+      <c r="ITX6" s="2"/>
+      <c r="ITZ6" s="2"/>
+      <c r="IUB6" s="2"/>
+      <c r="IUD6" s="2"/>
+      <c r="IUF6" s="2"/>
+      <c r="IUH6" s="2"/>
+      <c r="IUJ6" s="2"/>
+      <c r="IUL6" s="2"/>
+      <c r="IUN6" s="2"/>
+      <c r="IUP6" s="2"/>
+      <c r="IUR6" s="2"/>
+      <c r="IUT6" s="2"/>
+      <c r="IUV6" s="2"/>
+      <c r="IUX6" s="2"/>
+      <c r="IUZ6" s="2"/>
+      <c r="IVB6" s="2"/>
+      <c r="IVD6" s="2"/>
+      <c r="IVF6" s="2"/>
+      <c r="IVH6" s="2"/>
+      <c r="IVJ6" s="2"/>
+      <c r="IVL6" s="2"/>
+      <c r="IVN6" s="2"/>
+      <c r="IVP6" s="2"/>
+      <c r="IVR6" s="2"/>
+      <c r="IVT6" s="2"/>
+      <c r="IVV6" s="2"/>
+      <c r="IVX6" s="2"/>
+      <c r="IVZ6" s="2"/>
+      <c r="IWB6" s="2"/>
+      <c r="IWD6" s="2"/>
+      <c r="IWF6" s="2"/>
+      <c r="IWH6" s="2"/>
+      <c r="IWJ6" s="2"/>
+      <c r="IWL6" s="2"/>
+      <c r="IWN6" s="2"/>
+      <c r="IWP6" s="2"/>
+      <c r="IWR6" s="2"/>
+      <c r="IWT6" s="2"/>
+      <c r="IWV6" s="2"/>
+      <c r="IWX6" s="2"/>
+      <c r="IWZ6" s="2"/>
+      <c r="IXB6" s="2"/>
+      <c r="IXD6" s="2"/>
+      <c r="IXF6" s="2"/>
+      <c r="IXH6" s="2"/>
+      <c r="IXJ6" s="2"/>
+      <c r="IXL6" s="2"/>
+      <c r="IXN6" s="2"/>
+      <c r="IXP6" s="2"/>
+      <c r="IXR6" s="2"/>
+      <c r="IXT6" s="2"/>
+      <c r="IXV6" s="2"/>
+      <c r="IXX6" s="2"/>
+      <c r="IXZ6" s="2"/>
+      <c r="IYB6" s="2"/>
+      <c r="IYD6" s="2"/>
+      <c r="IYF6" s="2"/>
+      <c r="IYH6" s="2"/>
+      <c r="IYJ6" s="2"/>
+      <c r="IYL6" s="2"/>
+      <c r="IYN6" s="2"/>
+      <c r="IYP6" s="2"/>
+      <c r="IYR6" s="2"/>
+      <c r="IYT6" s="2"/>
+      <c r="IYV6" s="2"/>
+      <c r="IYX6" s="2"/>
+      <c r="IYZ6" s="2"/>
+      <c r="IZB6" s="2"/>
+      <c r="IZD6" s="2"/>
+      <c r="IZF6" s="2"/>
+      <c r="IZH6" s="2"/>
+      <c r="IZJ6" s="2"/>
+      <c r="IZL6" s="2"/>
+      <c r="IZN6" s="2"/>
+      <c r="IZP6" s="2"/>
+      <c r="IZR6" s="2"/>
+      <c r="IZT6" s="2"/>
+      <c r="IZV6" s="2"/>
+      <c r="IZX6" s="2"/>
+      <c r="IZZ6" s="2"/>
+      <c r="JAB6" s="2"/>
+      <c r="JAD6" s="2"/>
+      <c r="JAF6" s="2"/>
+      <c r="JAH6" s="2"/>
+      <c r="JAJ6" s="2"/>
+      <c r="JAL6" s="2"/>
+      <c r="JAN6" s="2"/>
+      <c r="JAP6" s="2"/>
+      <c r="JAR6" s="2"/>
+      <c r="JAT6" s="2"/>
+      <c r="JAV6" s="2"/>
+      <c r="JAX6" s="2"/>
+      <c r="JAZ6" s="2"/>
+      <c r="JBB6" s="2"/>
+      <c r="JBD6" s="2"/>
+      <c r="JBF6" s="2"/>
+      <c r="JBH6" s="2"/>
+      <c r="JBJ6" s="2"/>
+      <c r="JBL6" s="2"/>
+      <c r="JBN6" s="2"/>
+      <c r="JBP6" s="2"/>
+      <c r="JBR6" s="2"/>
+      <c r="JBT6" s="2"/>
+      <c r="JBV6" s="2"/>
+      <c r="JBX6" s="2"/>
+      <c r="JBZ6" s="2"/>
+      <c r="JCB6" s="2"/>
+      <c r="JCD6" s="2"/>
+      <c r="JCF6" s="2"/>
+      <c r="JCH6" s="2"/>
+      <c r="JCJ6" s="2"/>
+      <c r="JCL6" s="2"/>
+      <c r="JCN6" s="2"/>
+      <c r="JCP6" s="2"/>
+      <c r="JCR6" s="2"/>
+      <c r="JCT6" s="2"/>
+      <c r="JCV6" s="2"/>
+      <c r="JCX6" s="2"/>
+      <c r="JCZ6" s="2"/>
+      <c r="JDB6" s="2"/>
+      <c r="JDD6" s="2"/>
+      <c r="JDF6" s="2"/>
+      <c r="JDH6" s="2"/>
+      <c r="JDJ6" s="2"/>
+      <c r="JDL6" s="2"/>
+      <c r="JDN6" s="2"/>
+      <c r="JDP6" s="2"/>
+      <c r="JDR6" s="2"/>
+      <c r="JDT6" s="2"/>
+      <c r="JDV6" s="2"/>
+      <c r="JDX6" s="2"/>
+      <c r="JDZ6" s="2"/>
+      <c r="JEB6" s="2"/>
+      <c r="JED6" s="2"/>
+      <c r="JEF6" s="2"/>
+      <c r="JEH6" s="2"/>
+      <c r="JEJ6" s="2"/>
+      <c r="JEL6" s="2"/>
+      <c r="JEN6" s="2"/>
+      <c r="JEP6" s="2"/>
+      <c r="JER6" s="2"/>
+      <c r="JET6" s="2"/>
+      <c r="JEV6" s="2"/>
+      <c r="JEX6" s="2"/>
+      <c r="JEZ6" s="2"/>
+      <c r="JFB6" s="2"/>
+      <c r="JFD6" s="2"/>
+      <c r="JFF6" s="2"/>
+      <c r="JFH6" s="2"/>
+      <c r="JFJ6" s="2"/>
+      <c r="JFL6" s="2"/>
+      <c r="JFN6" s="2"/>
+      <c r="JFP6" s="2"/>
+      <c r="JFR6" s="2"/>
+      <c r="JFT6" s="2"/>
+      <c r="JFV6" s="2"/>
+      <c r="JFX6" s="2"/>
+      <c r="JFZ6" s="2"/>
+      <c r="JGB6" s="2"/>
+      <c r="JGD6" s="2"/>
+      <c r="JGF6" s="2"/>
+      <c r="JGH6" s="2"/>
+      <c r="JGJ6" s="2"/>
+      <c r="JGL6" s="2"/>
+      <c r="JGN6" s="2"/>
+      <c r="JGP6" s="2"/>
+      <c r="JGR6" s="2"/>
+      <c r="JGT6" s="2"/>
+      <c r="JGV6" s="2"/>
+      <c r="JGX6" s="2"/>
+      <c r="JGZ6" s="2"/>
+      <c r="JHB6" s="2"/>
+      <c r="JHD6" s="2"/>
+      <c r="JHF6" s="2"/>
+      <c r="JHH6" s="2"/>
+      <c r="JHJ6" s="2"/>
+      <c r="JHL6" s="2"/>
+      <c r="JHN6" s="2"/>
+      <c r="JHP6" s="2"/>
+      <c r="JHR6" s="2"/>
+      <c r="JHT6" s="2"/>
+      <c r="JHV6" s="2"/>
+      <c r="JHX6" s="2"/>
+      <c r="JHZ6" s="2"/>
+      <c r="JIB6" s="2"/>
+      <c r="JID6" s="2"/>
+      <c r="JIF6" s="2"/>
+      <c r="JIH6" s="2"/>
+      <c r="JIJ6" s="2"/>
+      <c r="JIL6" s="2"/>
+      <c r="JIN6" s="2"/>
+      <c r="JIP6" s="2"/>
+      <c r="JIR6" s="2"/>
+      <c r="JIT6" s="2"/>
+      <c r="JIV6" s="2"/>
+      <c r="JIX6" s="2"/>
+      <c r="JIZ6" s="2"/>
+      <c r="JJB6" s="2"/>
+      <c r="JJD6" s="2"/>
+      <c r="JJF6" s="2"/>
+      <c r="JJH6" s="2"/>
+      <c r="JJJ6" s="2"/>
+      <c r="JJL6" s="2"/>
+      <c r="JJN6" s="2"/>
+      <c r="JJP6" s="2"/>
+      <c r="JJR6" s="2"/>
+      <c r="JJT6" s="2"/>
+      <c r="JJV6" s="2"/>
+      <c r="JJX6" s="2"/>
+      <c r="JJZ6" s="2"/>
+      <c r="JKB6" s="2"/>
+      <c r="JKD6" s="2"/>
+      <c r="JKF6" s="2"/>
+      <c r="JKH6" s="2"/>
+      <c r="JKJ6" s="2"/>
+      <c r="JKL6" s="2"/>
+      <c r="JKN6" s="2"/>
+      <c r="JKP6" s="2"/>
+      <c r="JKR6" s="2"/>
+      <c r="JKT6" s="2"/>
+      <c r="JKV6" s="2"/>
+      <c r="JKX6" s="2"/>
+      <c r="JKZ6" s="2"/>
+      <c r="JLB6" s="2"/>
+      <c r="JLD6" s="2"/>
+      <c r="JLF6" s="2"/>
+      <c r="JLH6" s="2"/>
+      <c r="JLJ6" s="2"/>
+      <c r="JLL6" s="2"/>
+      <c r="JLN6" s="2"/>
+      <c r="JLP6" s="2"/>
+      <c r="JLR6" s="2"/>
+      <c r="JLT6" s="2"/>
+      <c r="JLV6" s="2"/>
+      <c r="JLX6" s="2"/>
+      <c r="JLZ6" s="2"/>
+      <c r="JMB6" s="2"/>
+      <c r="JMD6" s="2"/>
+      <c r="JMF6" s="2"/>
+      <c r="JMH6" s="2"/>
+      <c r="JMJ6" s="2"/>
+      <c r="JML6" s="2"/>
+      <c r="JMN6" s="2"/>
+      <c r="JMP6" s="2"/>
+      <c r="JMR6" s="2"/>
+      <c r="JMT6" s="2"/>
+      <c r="JMV6" s="2"/>
+      <c r="JMX6" s="2"/>
+      <c r="JMZ6" s="2"/>
+      <c r="JNB6" s="2"/>
+      <c r="JND6" s="2"/>
+      <c r="JNF6" s="2"/>
+      <c r="JNH6" s="2"/>
+      <c r="JNJ6" s="2"/>
+      <c r="JNL6" s="2"/>
+      <c r="JNN6" s="2"/>
+      <c r="JNP6" s="2"/>
+      <c r="JNR6" s="2"/>
+      <c r="JNT6" s="2"/>
+      <c r="JNV6" s="2"/>
+      <c r="JNX6" s="2"/>
+      <c r="JNZ6" s="2"/>
+      <c r="JOB6" s="2"/>
+      <c r="JOD6" s="2"/>
+      <c r="JOF6" s="2"/>
+      <c r="JOH6" s="2"/>
+      <c r="JOJ6" s="2"/>
+      <c r="JOL6" s="2"/>
+      <c r="JON6" s="2"/>
+      <c r="JOP6" s="2"/>
+      <c r="JOR6" s="2"/>
+      <c r="JOT6" s="2"/>
+      <c r="JOV6" s="2"/>
+      <c r="JOX6" s="2"/>
+      <c r="JOZ6" s="2"/>
+      <c r="JPB6" s="2"/>
+      <c r="JPD6" s="2"/>
+      <c r="JPF6" s="2"/>
+      <c r="JPH6" s="2"/>
+      <c r="JPJ6" s="2"/>
+      <c r="JPL6" s="2"/>
+      <c r="JPN6" s="2"/>
+      <c r="JPP6" s="2"/>
+      <c r="JPR6" s="2"/>
+      <c r="JPT6" s="2"/>
+      <c r="JPV6" s="2"/>
+      <c r="JPX6" s="2"/>
+      <c r="JPZ6" s="2"/>
+      <c r="JQB6" s="2"/>
+      <c r="JQD6" s="2"/>
+      <c r="JQF6" s="2"/>
+      <c r="JQH6" s="2"/>
+      <c r="JQJ6" s="2"/>
+      <c r="JQL6" s="2"/>
+      <c r="JQN6" s="2"/>
+      <c r="JQP6" s="2"/>
+      <c r="JQR6" s="2"/>
+      <c r="JQT6" s="2"/>
+      <c r="JQV6" s="2"/>
+      <c r="JQX6" s="2"/>
+      <c r="JQZ6" s="2"/>
+      <c r="JRB6" s="2"/>
+      <c r="JRD6" s="2"/>
+      <c r="JRF6" s="2"/>
+      <c r="JRH6" s="2"/>
+      <c r="JRJ6" s="2"/>
+      <c r="JRL6" s="2"/>
+      <c r="JRN6" s="2"/>
+      <c r="JRP6" s="2"/>
+      <c r="JRR6" s="2"/>
+      <c r="JRT6" s="2"/>
+      <c r="JRV6" s="2"/>
+      <c r="JRX6" s="2"/>
+      <c r="JRZ6" s="2"/>
+      <c r="JSB6" s="2"/>
+      <c r="JSD6" s="2"/>
+      <c r="JSF6" s="2"/>
+      <c r="JSH6" s="2"/>
+      <c r="JSJ6" s="2"/>
+      <c r="JSL6" s="2"/>
+      <c r="JSN6" s="2"/>
+      <c r="JSP6" s="2"/>
+      <c r="JSR6" s="2"/>
+      <c r="JST6" s="2"/>
+      <c r="JSV6" s="2"/>
+      <c r="JSX6" s="2"/>
+      <c r="JSZ6" s="2"/>
+      <c r="JTB6" s="2"/>
+      <c r="JTD6" s="2"/>
+      <c r="JTF6" s="2"/>
+      <c r="JTH6" s="2"/>
+      <c r="JTJ6" s="2"/>
+      <c r="JTL6" s="2"/>
+      <c r="JTN6" s="2"/>
+      <c r="JTP6" s="2"/>
+      <c r="JTR6" s="2"/>
+      <c r="JTT6" s="2"/>
+      <c r="JTV6" s="2"/>
+      <c r="JTX6" s="2"/>
+      <c r="JTZ6" s="2"/>
+      <c r="JUB6" s="2"/>
+      <c r="JUD6" s="2"/>
+      <c r="JUF6" s="2"/>
+      <c r="JUH6" s="2"/>
+      <c r="JUJ6" s="2"/>
+      <c r="JUL6" s="2"/>
+      <c r="JUN6" s="2"/>
+      <c r="JUP6" s="2"/>
+      <c r="JUR6" s="2"/>
+      <c r="JUT6" s="2"/>
+      <c r="JUV6" s="2"/>
+      <c r="JUX6" s="2"/>
+      <c r="JUZ6" s="2"/>
+      <c r="JVB6" s="2"/>
+      <c r="JVD6" s="2"/>
+      <c r="JVF6" s="2"/>
+      <c r="JVH6" s="2"/>
+      <c r="JVJ6" s="2"/>
+      <c r="JVL6" s="2"/>
+      <c r="JVN6" s="2"/>
+      <c r="JVP6" s="2"/>
+      <c r="JVR6" s="2"/>
+      <c r="JVT6" s="2"/>
+      <c r="JVV6" s="2"/>
+      <c r="JVX6" s="2"/>
+      <c r="JVZ6" s="2"/>
+      <c r="JWB6" s="2"/>
+      <c r="JWD6" s="2"/>
+      <c r="JWF6" s="2"/>
+      <c r="JWH6" s="2"/>
+      <c r="JWJ6" s="2"/>
+      <c r="JWL6" s="2"/>
+      <c r="JWN6" s="2"/>
+      <c r="JWP6" s="2"/>
+      <c r="JWR6" s="2"/>
+      <c r="JWT6" s="2"/>
+      <c r="JWV6" s="2"/>
+      <c r="JWX6" s="2"/>
+      <c r="JWZ6" s="2"/>
+      <c r="JXB6" s="2"/>
+      <c r="JXD6" s="2"/>
+      <c r="JXF6" s="2"/>
+      <c r="JXH6" s="2"/>
+      <c r="JXJ6" s="2"/>
+      <c r="JXL6" s="2"/>
+      <c r="JXN6" s="2"/>
+      <c r="JXP6" s="2"/>
+      <c r="JXR6" s="2"/>
+      <c r="JXT6" s="2"/>
+      <c r="JXV6" s="2"/>
+      <c r="JXX6" s="2"/>
+      <c r="JXZ6" s="2"/>
+      <c r="JYB6" s="2"/>
+      <c r="JYD6" s="2"/>
+      <c r="JYF6" s="2"/>
+      <c r="JYH6" s="2"/>
+      <c r="JYJ6" s="2"/>
+      <c r="JYL6" s="2"/>
+      <c r="JYN6" s="2"/>
+      <c r="JYP6" s="2"/>
+      <c r="JYR6" s="2"/>
+      <c r="JYT6" s="2"/>
+      <c r="JYV6" s="2"/>
+      <c r="JYX6" s="2"/>
+      <c r="JYZ6" s="2"/>
+      <c r="JZB6" s="2"/>
+      <c r="JZD6" s="2"/>
+      <c r="JZF6" s="2"/>
+      <c r="JZH6" s="2"/>
+      <c r="JZJ6" s="2"/>
+      <c r="JZL6" s="2"/>
+      <c r="JZN6" s="2"/>
+      <c r="JZP6" s="2"/>
+      <c r="JZR6" s="2"/>
+      <c r="JZT6" s="2"/>
+      <c r="JZV6" s="2"/>
+      <c r="JZX6" s="2"/>
+      <c r="JZZ6" s="2"/>
+      <c r="KAB6" s="2"/>
+      <c r="KAD6" s="2"/>
+      <c r="KAF6" s="2"/>
+      <c r="KAH6" s="2"/>
+      <c r="KAJ6" s="2"/>
+      <c r="KAL6" s="2"/>
+      <c r="KAN6" s="2"/>
+      <c r="KAP6" s="2"/>
+      <c r="KAR6" s="2"/>
+      <c r="KAT6" s="2"/>
+      <c r="KAV6" s="2"/>
+      <c r="KAX6" s="2"/>
+      <c r="KAZ6" s="2"/>
+      <c r="KBB6" s="2"/>
+      <c r="KBD6" s="2"/>
+      <c r="KBF6" s="2"/>
+      <c r="KBH6" s="2"/>
+      <c r="KBJ6" s="2"/>
+      <c r="KBL6" s="2"/>
+      <c r="KBN6" s="2"/>
+      <c r="KBP6" s="2"/>
+      <c r="KBR6" s="2"/>
+      <c r="KBT6" s="2"/>
+      <c r="KBV6" s="2"/>
+      <c r="KBX6" s="2"/>
+      <c r="KBZ6" s="2"/>
+      <c r="KCB6" s="2"/>
+      <c r="KCD6" s="2"/>
+      <c r="KCF6" s="2"/>
+      <c r="KCH6" s="2"/>
+      <c r="KCJ6" s="2"/>
+      <c r="KCL6" s="2"/>
+      <c r="KCN6" s="2"/>
+      <c r="KCP6" s="2"/>
+      <c r="KCR6" s="2"/>
+      <c r="KCT6" s="2"/>
+      <c r="KCV6" s="2"/>
+      <c r="KCX6" s="2"/>
+      <c r="KCZ6" s="2"/>
+      <c r="KDB6" s="2"/>
+      <c r="KDD6" s="2"/>
+      <c r="KDF6" s="2"/>
+      <c r="KDH6" s="2"/>
+      <c r="KDJ6" s="2"/>
+      <c r="KDL6" s="2"/>
+      <c r="KDN6" s="2"/>
+      <c r="KDP6" s="2"/>
+      <c r="KDR6" s="2"/>
+      <c r="KDT6" s="2"/>
+      <c r="KDV6" s="2"/>
+      <c r="KDX6" s="2"/>
+      <c r="KDZ6" s="2"/>
+      <c r="KEB6" s="2"/>
+      <c r="KED6" s="2"/>
+      <c r="KEF6" s="2"/>
+      <c r="KEH6" s="2"/>
+      <c r="KEJ6" s="2"/>
+      <c r="KEL6" s="2"/>
+      <c r="KEN6" s="2"/>
+      <c r="KEP6" s="2"/>
+      <c r="KER6" s="2"/>
+      <c r="KET6" s="2"/>
+      <c r="KEV6" s="2"/>
+      <c r="KEX6" s="2"/>
+      <c r="KEZ6" s="2"/>
+      <c r="KFB6" s="2"/>
+      <c r="KFD6" s="2"/>
+      <c r="KFF6" s="2"/>
+      <c r="KFH6" s="2"/>
+      <c r="KFJ6" s="2"/>
+      <c r="KFL6" s="2"/>
+      <c r="KFN6" s="2"/>
+      <c r="KFP6" s="2"/>
+      <c r="KFR6" s="2"/>
+      <c r="KFT6" s="2"/>
+      <c r="KFV6" s="2"/>
+      <c r="KFX6" s="2"/>
+      <c r="KFZ6" s="2"/>
+      <c r="KGB6" s="2"/>
+      <c r="KGD6" s="2"/>
+      <c r="KGF6" s="2"/>
+      <c r="KGH6" s="2"/>
+      <c r="KGJ6" s="2"/>
+      <c r="KGL6" s="2"/>
+      <c r="KGN6" s="2"/>
+      <c r="KGP6" s="2"/>
+      <c r="KGR6" s="2"/>
+      <c r="KGT6" s="2"/>
+      <c r="KGV6" s="2"/>
+      <c r="KGX6" s="2"/>
+      <c r="KGZ6" s="2"/>
+      <c r="KHB6" s="2"/>
+      <c r="KHD6" s="2"/>
+      <c r="KHF6" s="2"/>
+      <c r="KHH6" s="2"/>
+      <c r="KHJ6" s="2"/>
+      <c r="KHL6" s="2"/>
+      <c r="KHN6" s="2"/>
+      <c r="KHP6" s="2"/>
+      <c r="KHR6" s="2"/>
+      <c r="KHT6" s="2"/>
+      <c r="KHV6" s="2"/>
+      <c r="KHX6" s="2"/>
+      <c r="KHZ6" s="2"/>
+      <c r="KIB6" s="2"/>
+      <c r="KID6" s="2"/>
+      <c r="KIF6" s="2"/>
+      <c r="KIH6" s="2"/>
+      <c r="KIJ6" s="2"/>
+      <c r="KIL6" s="2"/>
+      <c r="KIN6" s="2"/>
+      <c r="KIP6" s="2"/>
+      <c r="KIR6" s="2"/>
+      <c r="KIT6" s="2"/>
+      <c r="KIV6" s="2"/>
+      <c r="KIX6" s="2"/>
+      <c r="KIZ6" s="2"/>
+      <c r="KJB6" s="2"/>
+      <c r="KJD6" s="2"/>
+      <c r="KJF6" s="2"/>
+      <c r="KJH6" s="2"/>
+      <c r="KJJ6" s="2"/>
+      <c r="KJL6" s="2"/>
+      <c r="KJN6" s="2"/>
+      <c r="KJP6" s="2"/>
+      <c r="KJR6" s="2"/>
+      <c r="KJT6" s="2"/>
+      <c r="KJV6" s="2"/>
+      <c r="KJX6" s="2"/>
+      <c r="KJZ6" s="2"/>
+      <c r="KKB6" s="2"/>
+      <c r="KKD6" s="2"/>
+      <c r="KKF6" s="2"/>
+      <c r="KKH6" s="2"/>
+      <c r="KKJ6" s="2"/>
+      <c r="KKL6" s="2"/>
+      <c r="KKN6" s="2"/>
+      <c r="KKP6" s="2"/>
+      <c r="KKR6" s="2"/>
+      <c r="KKT6" s="2"/>
+      <c r="KKV6" s="2"/>
+      <c r="KKX6" s="2"/>
+      <c r="KKZ6" s="2"/>
+      <c r="KLB6" s="2"/>
+      <c r="KLD6" s="2"/>
+      <c r="KLF6" s="2"/>
+      <c r="KLH6" s="2"/>
+      <c r="KLJ6" s="2"/>
+      <c r="KLL6" s="2"/>
+      <c r="KLN6" s="2"/>
+      <c r="KLP6" s="2"/>
+      <c r="KLR6" s="2"/>
+      <c r="KLT6" s="2"/>
+      <c r="KLV6" s="2"/>
+      <c r="KLX6" s="2"/>
+      <c r="KLZ6" s="2"/>
+      <c r="KMB6" s="2"/>
+      <c r="KMD6" s="2"/>
+      <c r="KMF6" s="2"/>
+      <c r="KMH6" s="2"/>
+      <c r="KMJ6" s="2"/>
+      <c r="KML6" s="2"/>
+      <c r="KMN6" s="2"/>
+      <c r="KMP6" s="2"/>
+      <c r="KMR6" s="2"/>
+      <c r="KMT6" s="2"/>
+      <c r="KMV6" s="2"/>
+      <c r="KMX6" s="2"/>
+      <c r="KMZ6" s="2"/>
+      <c r="KNB6" s="2"/>
+      <c r="KND6" s="2"/>
+      <c r="KNF6" s="2"/>
+      <c r="KNH6" s="2"/>
+      <c r="KNJ6" s="2"/>
+      <c r="KNL6" s="2"/>
+      <c r="KNN6" s="2"/>
+      <c r="KNP6" s="2"/>
+      <c r="KNR6" s="2"/>
+      <c r="KNT6" s="2"/>
+      <c r="KNV6" s="2"/>
+      <c r="KNX6" s="2"/>
+      <c r="KNZ6" s="2"/>
+      <c r="KOB6" s="2"/>
+      <c r="KOD6" s="2"/>
+      <c r="KOF6" s="2"/>
+      <c r="KOH6" s="2"/>
+      <c r="KOJ6" s="2"/>
+      <c r="KOL6" s="2"/>
+      <c r="KON6" s="2"/>
+      <c r="KOP6" s="2"/>
+      <c r="KOR6" s="2"/>
+      <c r="KOT6" s="2"/>
+      <c r="KOV6" s="2"/>
+      <c r="KOX6" s="2"/>
+      <c r="KOZ6" s="2"/>
+      <c r="KPB6" s="2"/>
+      <c r="KPD6" s="2"/>
+      <c r="KPF6" s="2"/>
+      <c r="KPH6" s="2"/>
+      <c r="KPJ6" s="2"/>
+      <c r="KPL6" s="2"/>
+      <c r="KPN6" s="2"/>
+      <c r="KPP6" s="2"/>
+      <c r="KPR6" s="2"/>
+      <c r="KPT6" s="2"/>
+      <c r="KPV6" s="2"/>
+      <c r="KPX6" s="2"/>
+      <c r="KPZ6" s="2"/>
+      <c r="KQB6" s="2"/>
+      <c r="KQD6" s="2"/>
+      <c r="KQF6" s="2"/>
+      <c r="KQH6" s="2"/>
+      <c r="KQJ6" s="2"/>
+      <c r="KQL6" s="2"/>
+      <c r="KQN6" s="2"/>
+      <c r="KQP6" s="2"/>
+      <c r="KQR6" s="2"/>
+      <c r="KQT6" s="2"/>
+      <c r="KQV6" s="2"/>
+      <c r="KQX6" s="2"/>
+      <c r="KQZ6" s="2"/>
+      <c r="KRB6" s="2"/>
+      <c r="KRD6" s="2"/>
+      <c r="KRF6" s="2"/>
+      <c r="KRH6" s="2"/>
+      <c r="KRJ6" s="2"/>
+      <c r="KRL6" s="2"/>
+      <c r="KRN6" s="2"/>
+      <c r="KRP6" s="2"/>
+      <c r="KRR6" s="2"/>
+      <c r="KRT6" s="2"/>
+      <c r="KRV6" s="2"/>
+      <c r="KRX6" s="2"/>
+      <c r="KRZ6" s="2"/>
+      <c r="KSB6" s="2"/>
+      <c r="KSD6" s="2"/>
+      <c r="KSF6" s="2"/>
+      <c r="KSH6" s="2"/>
+      <c r="KSJ6" s="2"/>
+      <c r="KSL6" s="2"/>
+      <c r="KSN6" s="2"/>
+      <c r="KSP6" s="2"/>
+      <c r="KSR6" s="2"/>
+      <c r="KST6" s="2"/>
+      <c r="KSV6" s="2"/>
+      <c r="KSX6" s="2"/>
+      <c r="KSZ6" s="2"/>
+      <c r="KTB6" s="2"/>
+      <c r="KTD6" s="2"/>
+      <c r="KTF6" s="2"/>
+      <c r="KTH6" s="2"/>
+      <c r="KTJ6" s="2"/>
+      <c r="KTL6" s="2"/>
+      <c r="KTN6" s="2"/>
+      <c r="KTP6" s="2"/>
+      <c r="KTR6" s="2"/>
+      <c r="KTT6" s="2"/>
+      <c r="KTV6" s="2"/>
+      <c r="KTX6" s="2"/>
+      <c r="KTZ6" s="2"/>
+      <c r="KUB6" s="2"/>
+      <c r="KUD6" s="2"/>
+      <c r="KUF6" s="2"/>
+      <c r="KUH6" s="2"/>
+      <c r="KUJ6" s="2"/>
+      <c r="KUL6" s="2"/>
+      <c r="KUN6" s="2"/>
+      <c r="KUP6" s="2"/>
+      <c r="KUR6" s="2"/>
+      <c r="KUT6" s="2"/>
+      <c r="KUV6" s="2"/>
+      <c r="KUX6" s="2"/>
+      <c r="KUZ6" s="2"/>
+      <c r="KVB6" s="2"/>
+      <c r="KVD6" s="2"/>
+      <c r="KVF6" s="2"/>
+      <c r="KVH6" s="2"/>
+      <c r="KVJ6" s="2"/>
+      <c r="KVL6" s="2"/>
+      <c r="KVN6" s="2"/>
+      <c r="KVP6" s="2"/>
+      <c r="KVR6" s="2"/>
+      <c r="KVT6" s="2"/>
+      <c r="KVV6" s="2"/>
+      <c r="KVX6" s="2"/>
+      <c r="KVZ6" s="2"/>
+      <c r="KWB6" s="2"/>
+      <c r="KWD6" s="2"/>
+      <c r="KWF6" s="2"/>
+      <c r="KWH6" s="2"/>
+      <c r="KWJ6" s="2"/>
+      <c r="KWL6" s="2"/>
+      <c r="KWN6" s="2"/>
+      <c r="KWP6" s="2"/>
+      <c r="KWR6" s="2"/>
+      <c r="KWT6" s="2"/>
+      <c r="KWV6" s="2"/>
+      <c r="KWX6" s="2"/>
+      <c r="KWZ6" s="2"/>
+      <c r="KXB6" s="2"/>
+      <c r="KXD6" s="2"/>
+      <c r="KXF6" s="2"/>
+      <c r="KXH6" s="2"/>
+      <c r="KXJ6" s="2"/>
+      <c r="KXL6" s="2"/>
+      <c r="KXN6" s="2"/>
+      <c r="KXP6" s="2"/>
+      <c r="KXR6" s="2"/>
+      <c r="KXT6" s="2"/>
+      <c r="KXV6" s="2"/>
+      <c r="KXX6" s="2"/>
+      <c r="KXZ6" s="2"/>
+      <c r="KYB6" s="2"/>
+      <c r="KYD6" s="2"/>
+      <c r="KYF6" s="2"/>
+      <c r="KYH6" s="2"/>
+      <c r="KYJ6" s="2"/>
+      <c r="KYL6" s="2"/>
+      <c r="KYN6" s="2"/>
+      <c r="KYP6" s="2"/>
+      <c r="KYR6" s="2"/>
+      <c r="KYT6" s="2"/>
+      <c r="KYV6" s="2"/>
+      <c r="KYX6" s="2"/>
+      <c r="KYZ6" s="2"/>
+      <c r="KZB6" s="2"/>
+      <c r="KZD6" s="2"/>
+      <c r="KZF6" s="2"/>
+      <c r="KZH6" s="2"/>
+      <c r="KZJ6" s="2"/>
+      <c r="KZL6" s="2"/>
+      <c r="KZN6" s="2"/>
+      <c r="KZP6" s="2"/>
+      <c r="KZR6" s="2"/>
+      <c r="KZT6" s="2"/>
+      <c r="KZV6" s="2"/>
+      <c r="KZX6" s="2"/>
+      <c r="KZZ6" s="2"/>
+      <c r="LAB6" s="2"/>
+      <c r="LAD6" s="2"/>
+      <c r="LAF6" s="2"/>
+      <c r="LAH6" s="2"/>
+      <c r="LAJ6" s="2"/>
+      <c r="LAL6" s="2"/>
+      <c r="LAN6" s="2"/>
+      <c r="LAP6" s="2"/>
+      <c r="LAR6" s="2"/>
+      <c r="LAT6" s="2"/>
+      <c r="LAV6" s="2"/>
+      <c r="LAX6" s="2"/>
+      <c r="LAZ6" s="2"/>
+      <c r="LBB6" s="2"/>
+      <c r="LBD6" s="2"/>
+      <c r="LBF6" s="2"/>
+      <c r="LBH6" s="2"/>
+      <c r="LBJ6" s="2"/>
+      <c r="LBL6" s="2"/>
+      <c r="LBN6" s="2"/>
+      <c r="LBP6" s="2"/>
+      <c r="LBR6" s="2"/>
+      <c r="LBT6" s="2"/>
+      <c r="LBV6" s="2"/>
+      <c r="LBX6" s="2"/>
+      <c r="LBZ6" s="2"/>
+      <c r="LCB6" s="2"/>
+      <c r="LCD6" s="2"/>
+      <c r="LCF6" s="2"/>
+      <c r="LCH6" s="2"/>
+      <c r="LCJ6" s="2"/>
+      <c r="LCL6" s="2"/>
+      <c r="LCN6" s="2"/>
+      <c r="LCP6" s="2"/>
+      <c r="LCR6" s="2"/>
+      <c r="LCT6" s="2"/>
+      <c r="LCV6" s="2"/>
+      <c r="LCX6" s="2"/>
+      <c r="LCZ6" s="2"/>
+      <c r="LDB6" s="2"/>
+      <c r="LDD6" s="2"/>
+      <c r="LDF6" s="2"/>
+      <c r="LDH6" s="2"/>
+      <c r="LDJ6" s="2"/>
+      <c r="LDL6" s="2"/>
+      <c r="LDN6" s="2"/>
+      <c r="LDP6" s="2"/>
+      <c r="LDR6" s="2"/>
+      <c r="LDT6" s="2"/>
+      <c r="LDV6" s="2"/>
+      <c r="LDX6" s="2"/>
+      <c r="LDZ6" s="2"/>
+      <c r="LEB6" s="2"/>
+      <c r="LED6" s="2"/>
+      <c r="LEF6" s="2"/>
+      <c r="LEH6" s="2"/>
+      <c r="LEJ6" s="2"/>
+      <c r="LEL6" s="2"/>
+      <c r="LEN6" s="2"/>
+      <c r="LEP6" s="2"/>
+      <c r="LER6" s="2"/>
+      <c r="LET6" s="2"/>
+      <c r="LEV6" s="2"/>
+      <c r="LEX6" s="2"/>
+      <c r="LEZ6" s="2"/>
+      <c r="LFB6" s="2"/>
+      <c r="LFD6" s="2"/>
+      <c r="LFF6" s="2"/>
+      <c r="LFH6" s="2"/>
+      <c r="LFJ6" s="2"/>
+      <c r="LFL6" s="2"/>
+      <c r="LFN6" s="2"/>
+      <c r="LFP6" s="2"/>
+      <c r="LFR6" s="2"/>
+      <c r="LFT6" s="2"/>
+      <c r="LFV6" s="2"/>
+      <c r="LFX6" s="2"/>
+      <c r="LFZ6" s="2"/>
+      <c r="LGB6" s="2"/>
+      <c r="LGD6" s="2"/>
+      <c r="LGF6" s="2"/>
+      <c r="LGH6" s="2"/>
+      <c r="LGJ6" s="2"/>
+      <c r="LGL6" s="2"/>
+      <c r="LGN6" s="2"/>
+      <c r="LGP6" s="2"/>
+      <c r="LGR6" s="2"/>
+      <c r="LGT6" s="2"/>
+      <c r="LGV6" s="2"/>
+      <c r="LGX6" s="2"/>
+      <c r="LGZ6" s="2"/>
+      <c r="LHB6" s="2"/>
+      <c r="LHD6" s="2"/>
+      <c r="LHF6" s="2"/>
+      <c r="LHH6" s="2"/>
+      <c r="LHJ6" s="2"/>
+      <c r="LHL6" s="2"/>
+      <c r="LHN6" s="2"/>
+      <c r="LHP6" s="2"/>
+      <c r="LHR6" s="2"/>
+      <c r="LHT6" s="2"/>
+      <c r="LHV6" s="2"/>
+      <c r="LHX6" s="2"/>
+      <c r="LHZ6" s="2"/>
+      <c r="LIB6" s="2"/>
+      <c r="LID6" s="2"/>
+      <c r="LIF6" s="2"/>
+      <c r="LIH6" s="2"/>
+      <c r="LIJ6" s="2"/>
+      <c r="LIL6" s="2"/>
+      <c r="LIN6" s="2"/>
+      <c r="LIP6" s="2"/>
+      <c r="LIR6" s="2"/>
+      <c r="LIT6" s="2"/>
+      <c r="LIV6" s="2"/>
+      <c r="LIX6" s="2"/>
+      <c r="LIZ6" s="2"/>
+      <c r="LJB6" s="2"/>
+      <c r="LJD6" s="2"/>
+      <c r="LJF6" s="2"/>
+      <c r="LJH6" s="2"/>
+      <c r="LJJ6" s="2"/>
+      <c r="LJL6" s="2"/>
+      <c r="LJN6" s="2"/>
+      <c r="LJP6" s="2"/>
+      <c r="LJR6" s="2"/>
+      <c r="LJT6" s="2"/>
+      <c r="LJV6" s="2"/>
+      <c r="LJX6" s="2"/>
+      <c r="LJZ6" s="2"/>
+      <c r="LKB6" s="2"/>
+      <c r="LKD6" s="2"/>
+      <c r="LKF6" s="2"/>
+      <c r="LKH6" s="2"/>
+      <c r="LKJ6" s="2"/>
+      <c r="LKL6" s="2"/>
+      <c r="LKN6" s="2"/>
+      <c r="LKP6" s="2"/>
+      <c r="LKR6" s="2"/>
+      <c r="LKT6" s="2"/>
+      <c r="LKV6" s="2"/>
+      <c r="LKX6" s="2"/>
+      <c r="LKZ6" s="2"/>
+      <c r="LLB6" s="2"/>
+      <c r="LLD6" s="2"/>
+      <c r="LLF6" s="2"/>
+      <c r="LLH6" s="2"/>
+      <c r="LLJ6" s="2"/>
+      <c r="LLL6" s="2"/>
+      <c r="LLN6" s="2"/>
+      <c r="LLP6" s="2"/>
+      <c r="LLR6" s="2"/>
+      <c r="LLT6" s="2"/>
+      <c r="LLV6" s="2"/>
+      <c r="LLX6" s="2"/>
+      <c r="LLZ6" s="2"/>
+      <c r="LMB6" s="2"/>
+      <c r="LMD6" s="2"/>
+      <c r="LMF6" s="2"/>
+      <c r="LMH6" s="2"/>
+      <c r="LMJ6" s="2"/>
+      <c r="LML6" s="2"/>
+      <c r="LMN6" s="2"/>
+      <c r="LMP6" s="2"/>
+      <c r="LMR6" s="2"/>
+      <c r="LMT6" s="2"/>
+      <c r="LMV6" s="2"/>
+      <c r="LMX6" s="2"/>
+      <c r="LMZ6" s="2"/>
+      <c r="LNB6" s="2"/>
+      <c r="LND6" s="2"/>
+      <c r="LNF6" s="2"/>
+      <c r="LNH6" s="2"/>
+      <c r="LNJ6" s="2"/>
+      <c r="LNL6" s="2"/>
+      <c r="LNN6" s="2"/>
+      <c r="LNP6" s="2"/>
+      <c r="LNR6" s="2"/>
+      <c r="LNT6" s="2"/>
+      <c r="LNV6" s="2"/>
+      <c r="LNX6" s="2"/>
+      <c r="LNZ6" s="2"/>
+      <c r="LOB6" s="2"/>
+      <c r="LOD6" s="2"/>
+      <c r="LOF6" s="2"/>
+      <c r="LOH6" s="2"/>
+      <c r="LOJ6" s="2"/>
+      <c r="LOL6" s="2"/>
+      <c r="LON6" s="2"/>
+      <c r="LOP6" s="2"/>
+      <c r="LOR6" s="2"/>
+      <c r="LOT6" s="2"/>
+      <c r="LOV6" s="2"/>
+      <c r="LOX6" s="2"/>
+      <c r="LOZ6" s="2"/>
+      <c r="LPB6" s="2"/>
+      <c r="LPD6" s="2"/>
+      <c r="LPF6" s="2"/>
+      <c r="LPH6" s="2"/>
+      <c r="LPJ6" s="2"/>
+      <c r="LPL6" s="2"/>
+      <c r="LPN6" s="2"/>
+      <c r="LPP6" s="2"/>
+      <c r="LPR6" s="2"/>
+      <c r="LPT6" s="2"/>
+      <c r="LPV6" s="2"/>
+      <c r="LPX6" s="2"/>
+      <c r="LPZ6" s="2"/>
+      <c r="LQB6" s="2"/>
+      <c r="LQD6" s="2"/>
+      <c r="LQF6" s="2"/>
+      <c r="LQH6" s="2"/>
+      <c r="LQJ6" s="2"/>
+      <c r="LQL6" s="2"/>
+      <c r="LQN6" s="2"/>
+      <c r="LQP6" s="2"/>
+      <c r="LQR6" s="2"/>
+      <c r="LQT6" s="2"/>
+      <c r="LQV6" s="2"/>
+      <c r="LQX6" s="2"/>
+      <c r="LQZ6" s="2"/>
+      <c r="LRB6" s="2"/>
+      <c r="LRD6" s="2"/>
+      <c r="LRF6" s="2"/>
+      <c r="LRH6" s="2"/>
+      <c r="LRJ6" s="2"/>
+      <c r="LRL6" s="2"/>
+      <c r="LRN6" s="2"/>
+      <c r="LRP6" s="2"/>
+      <c r="LRR6" s="2"/>
+      <c r="LRT6" s="2"/>
+      <c r="LRV6" s="2"/>
+      <c r="LRX6" s="2"/>
+      <c r="LRZ6" s="2"/>
+      <c r="LSB6" s="2"/>
+      <c r="LSD6" s="2"/>
+      <c r="LSF6" s="2"/>
+      <c r="LSH6" s="2"/>
+      <c r="LSJ6" s="2"/>
+      <c r="LSL6" s="2"/>
+      <c r="LSN6" s="2"/>
+      <c r="LSP6" s="2"/>
+      <c r="LSR6" s="2"/>
+      <c r="LST6" s="2"/>
+      <c r="LSV6" s="2"/>
+      <c r="LSX6" s="2"/>
+      <c r="LSZ6" s="2"/>
+      <c r="LTB6" s="2"/>
+      <c r="LTD6" s="2"/>
+      <c r="LTF6" s="2"/>
+      <c r="LTH6" s="2"/>
+      <c r="LTJ6" s="2"/>
+      <c r="LTL6" s="2"/>
+      <c r="LTN6" s="2"/>
+      <c r="LTP6" s="2"/>
+      <c r="LTR6" s="2"/>
+      <c r="LTT6" s="2"/>
+      <c r="LTV6" s="2"/>
+      <c r="LTX6" s="2"/>
+      <c r="LTZ6" s="2"/>
+      <c r="LUB6" s="2"/>
+      <c r="LUD6" s="2"/>
+      <c r="LUF6" s="2"/>
+      <c r="LUH6" s="2"/>
+      <c r="LUJ6" s="2"/>
+      <c r="LUL6" s="2"/>
+      <c r="LUN6" s="2"/>
+      <c r="LUP6" s="2"/>
+      <c r="LUR6" s="2"/>
+      <c r="LUT6" s="2"/>
+      <c r="LUV6" s="2"/>
+      <c r="LUX6" s="2"/>
+      <c r="LUZ6" s="2"/>
+      <c r="LVB6" s="2"/>
+      <c r="LVD6" s="2"/>
+      <c r="LVF6" s="2"/>
+      <c r="LVH6" s="2"/>
+      <c r="LVJ6" s="2"/>
+      <c r="LVL6" s="2"/>
+      <c r="LVN6" s="2"/>
+      <c r="LVP6" s="2"/>
+      <c r="LVR6" s="2"/>
+      <c r="LVT6" s="2"/>
+      <c r="LVV6" s="2"/>
+      <c r="LVX6" s="2"/>
+      <c r="LVZ6" s="2"/>
+      <c r="LWB6" s="2"/>
+      <c r="LWD6" s="2"/>
+      <c r="LWF6" s="2"/>
+      <c r="LWH6" s="2"/>
+      <c r="LWJ6" s="2"/>
+      <c r="LWL6" s="2"/>
+      <c r="LWN6" s="2"/>
+      <c r="LWP6" s="2"/>
+      <c r="LWR6" s="2"/>
+      <c r="LWT6" s="2"/>
+      <c r="LWV6" s="2"/>
+      <c r="LWX6" s="2"/>
+      <c r="LWZ6" s="2"/>
+      <c r="LXB6" s="2"/>
+      <c r="LXD6" s="2"/>
+      <c r="LXF6" s="2"/>
+      <c r="LXH6" s="2"/>
+      <c r="LXJ6" s="2"/>
+      <c r="LXL6" s="2"/>
+      <c r="LXN6" s="2"/>
+      <c r="LXP6" s="2"/>
+      <c r="LXR6" s="2"/>
+      <c r="LXT6" s="2"/>
+      <c r="LXV6" s="2"/>
+      <c r="LXX6" s="2"/>
+      <c r="LXZ6" s="2"/>
+      <c r="LYB6" s="2"/>
+      <c r="LYD6" s="2"/>
+      <c r="LYF6" s="2"/>
+      <c r="LYH6" s="2"/>
+      <c r="LYJ6" s="2"/>
+      <c r="LYL6" s="2"/>
+      <c r="LYN6" s="2"/>
+      <c r="LYP6" s="2"/>
+      <c r="LYR6" s="2"/>
+      <c r="LYT6" s="2"/>
+      <c r="LYV6" s="2"/>
+      <c r="LYX6" s="2"/>
+      <c r="LYZ6" s="2"/>
+      <c r="LZB6" s="2"/>
+      <c r="LZD6" s="2"/>
+      <c r="LZF6" s="2"/>
+      <c r="LZH6" s="2"/>
+      <c r="LZJ6" s="2"/>
+      <c r="LZL6" s="2"/>
+      <c r="LZN6" s="2"/>
+      <c r="LZP6" s="2"/>
+      <c r="LZR6" s="2"/>
+      <c r="LZT6" s="2"/>
+      <c r="LZV6" s="2"/>
+      <c r="LZX6" s="2"/>
+      <c r="LZZ6" s="2"/>
+      <c r="MAB6" s="2"/>
+      <c r="MAD6" s="2"/>
+      <c r="MAF6" s="2"/>
+      <c r="MAH6" s="2"/>
+      <c r="MAJ6" s="2"/>
+      <c r="MAL6" s="2"/>
+      <c r="MAN6" s="2"/>
+      <c r="MAP6" s="2"/>
+      <c r="MAR6" s="2"/>
+      <c r="MAT6" s="2"/>
+      <c r="MAV6" s="2"/>
+      <c r="MAX6" s="2"/>
+      <c r="MAZ6" s="2"/>
+      <c r="MBB6" s="2"/>
+      <c r="MBD6" s="2"/>
+      <c r="MBF6" s="2"/>
+      <c r="MBH6" s="2"/>
+      <c r="MBJ6" s="2"/>
+      <c r="MBL6" s="2"/>
+      <c r="MBN6" s="2"/>
+      <c r="MBP6" s="2"/>
+      <c r="MBR6" s="2"/>
+      <c r="MBT6" s="2"/>
+      <c r="MBV6" s="2"/>
+      <c r="MBX6" s="2"/>
+      <c r="MBZ6" s="2"/>
+      <c r="MCB6" s="2"/>
+      <c r="MCD6" s="2"/>
+      <c r="MCF6" s="2"/>
+      <c r="MCH6" s="2"/>
+      <c r="MCJ6" s="2"/>
+      <c r="MCL6" s="2"/>
+      <c r="MCN6" s="2"/>
+      <c r="MCP6" s="2"/>
+      <c r="MCR6" s="2"/>
+      <c r="MCT6" s="2"/>
+      <c r="MCV6" s="2"/>
+      <c r="MCX6" s="2"/>
+      <c r="MCZ6" s="2"/>
+      <c r="MDB6" s="2"/>
+      <c r="MDD6" s="2"/>
+      <c r="MDF6" s="2"/>
+      <c r="MDH6" s="2"/>
+      <c r="MDJ6" s="2"/>
+      <c r="MDL6" s="2"/>
+      <c r="MDN6" s="2"/>
+      <c r="MDP6" s="2"/>
+      <c r="MDR6" s="2"/>
+      <c r="MDT6" s="2"/>
+      <c r="MDV6" s="2"/>
+      <c r="MDX6" s="2"/>
+      <c r="MDZ6" s="2"/>
+      <c r="MEB6" s="2"/>
+      <c r="MED6" s="2"/>
+      <c r="MEF6" s="2"/>
+      <c r="MEH6" s="2"/>
+      <c r="MEJ6" s="2"/>
+      <c r="MEL6" s="2"/>
+      <c r="MEN6" s="2"/>
+      <c r="MEP6" s="2"/>
+      <c r="MER6" s="2"/>
+      <c r="MET6" s="2"/>
+      <c r="MEV6" s="2"/>
+      <c r="MEX6" s="2"/>
+      <c r="MEZ6" s="2"/>
+      <c r="MFB6" s="2"/>
+      <c r="MFD6" s="2"/>
+      <c r="MFF6" s="2"/>
+      <c r="MFH6" s="2"/>
+      <c r="MFJ6" s="2"/>
+      <c r="MFL6" s="2"/>
+      <c r="MFN6" s="2"/>
+      <c r="MFP6" s="2"/>
+      <c r="MFR6" s="2"/>
+      <c r="MFT6" s="2"/>
+      <c r="MFV6" s="2"/>
+      <c r="MFX6" s="2"/>
+      <c r="MFZ6" s="2"/>
+      <c r="MGB6" s="2"/>
+      <c r="MGD6" s="2"/>
+      <c r="MGF6" s="2"/>
+      <c r="MGH6" s="2"/>
+      <c r="MGJ6" s="2"/>
+      <c r="MGL6" s="2"/>
+      <c r="MGN6" s="2"/>
+      <c r="MGP6" s="2"/>
+      <c r="MGR6" s="2"/>
+      <c r="MGT6" s="2"/>
+      <c r="MGV6" s="2"/>
+      <c r="MGX6" s="2"/>
+      <c r="MGZ6" s="2"/>
+      <c r="MHB6" s="2"/>
+      <c r="MHD6" s="2"/>
+      <c r="MHF6" s="2"/>
+      <c r="MHH6" s="2"/>
+      <c r="MHJ6" s="2"/>
+      <c r="MHL6" s="2"/>
+      <c r="MHN6" s="2"/>
+      <c r="MHP6" s="2"/>
+      <c r="MHR6" s="2"/>
+      <c r="MHT6" s="2"/>
+      <c r="MHV6" s="2"/>
+      <c r="MHX6" s="2"/>
+      <c r="MHZ6" s="2"/>
+      <c r="MIB6" s="2"/>
+      <c r="MID6" s="2"/>
+      <c r="MIF6" s="2"/>
+      <c r="MIH6" s="2"/>
+      <c r="MIJ6" s="2"/>
+      <c r="MIL6" s="2"/>
+      <c r="MIN6" s="2"/>
+      <c r="MIP6" s="2"/>
+      <c r="MIR6" s="2"/>
+      <c r="MIT6" s="2"/>
+      <c r="MIV6" s="2"/>
+      <c r="MIX6" s="2"/>
+      <c r="MIZ6" s="2"/>
+      <c r="MJB6" s="2"/>
+      <c r="MJD6" s="2"/>
+      <c r="MJF6" s="2"/>
+      <c r="MJH6" s="2"/>
+      <c r="MJJ6" s="2"/>
+      <c r="MJL6" s="2"/>
+      <c r="MJN6" s="2"/>
+      <c r="MJP6" s="2"/>
+      <c r="MJR6" s="2"/>
+      <c r="MJT6" s="2"/>
+      <c r="MJV6" s="2"/>
+      <c r="MJX6" s="2"/>
+      <c r="MJZ6" s="2"/>
+      <c r="MKB6" s="2"/>
+      <c r="MKD6" s="2"/>
+      <c r="MKF6" s="2"/>
+      <c r="MKH6" s="2"/>
+      <c r="MKJ6" s="2"/>
+      <c r="MKL6" s="2"/>
+      <c r="MKN6" s="2"/>
+      <c r="MKP6" s="2"/>
+      <c r="MKR6" s="2"/>
+      <c r="MKT6" s="2"/>
+      <c r="MKV6" s="2"/>
+      <c r="MKX6" s="2"/>
+      <c r="MKZ6" s="2"/>
+      <c r="MLB6" s="2"/>
+      <c r="MLD6" s="2"/>
+      <c r="MLF6" s="2"/>
+      <c r="MLH6" s="2"/>
+      <c r="MLJ6" s="2"/>
+      <c r="MLL6" s="2"/>
+      <c r="MLN6" s="2"/>
+      <c r="MLP6" s="2"/>
+      <c r="MLR6" s="2"/>
+      <c r="MLT6" s="2"/>
+      <c r="MLV6" s="2"/>
+      <c r="MLX6" s="2"/>
+      <c r="MLZ6" s="2"/>
+      <c r="MMB6" s="2"/>
+      <c r="MMD6" s="2"/>
+      <c r="MMF6" s="2"/>
+      <c r="MMH6" s="2"/>
+      <c r="MMJ6" s="2"/>
+      <c r="MML6" s="2"/>
+      <c r="MMN6" s="2"/>
+      <c r="MMP6" s="2"/>
+      <c r="MMR6" s="2"/>
+      <c r="MMT6" s="2"/>
+      <c r="MMV6" s="2"/>
+      <c r="MMX6" s="2"/>
+      <c r="MMZ6" s="2"/>
+      <c r="MNB6" s="2"/>
+      <c r="MND6" s="2"/>
+      <c r="MNF6" s="2"/>
+      <c r="MNH6" s="2"/>
+      <c r="MNJ6" s="2"/>
+      <c r="MNL6" s="2"/>
+      <c r="MNN6" s="2"/>
+      <c r="MNP6" s="2"/>
+      <c r="MNR6" s="2"/>
+      <c r="MNT6" s="2"/>
+      <c r="MNV6" s="2"/>
+      <c r="MNX6" s="2"/>
+      <c r="MNZ6" s="2"/>
+      <c r="MOB6" s="2"/>
+      <c r="MOD6" s="2"/>
+      <c r="MOF6" s="2"/>
+      <c r="MOH6" s="2"/>
+      <c r="MOJ6" s="2"/>
+      <c r="MOL6" s="2"/>
+      <c r="MON6" s="2"/>
+      <c r="MOP6" s="2"/>
+      <c r="MOR6" s="2"/>
+      <c r="MOT6" s="2"/>
+      <c r="MOV6" s="2"/>
+      <c r="MOX6" s="2"/>
+      <c r="MOZ6" s="2"/>
+      <c r="MPB6" s="2"/>
+      <c r="MPD6" s="2"/>
+      <c r="MPF6" s="2"/>
+      <c r="MPH6" s="2"/>
+      <c r="MPJ6" s="2"/>
+      <c r="MPL6" s="2"/>
+      <c r="MPN6" s="2"/>
+      <c r="MPP6" s="2"/>
+      <c r="MPR6" s="2"/>
+      <c r="MPT6" s="2"/>
+      <c r="MPV6" s="2"/>
+      <c r="MPX6" s="2"/>
+      <c r="MPZ6" s="2"/>
+      <c r="MQB6" s="2"/>
+      <c r="MQD6" s="2"/>
+      <c r="MQF6" s="2"/>
+      <c r="MQH6" s="2"/>
+      <c r="MQJ6" s="2"/>
+      <c r="MQL6" s="2"/>
+      <c r="MQN6" s="2"/>
+      <c r="MQP6" s="2"/>
+      <c r="MQR6" s="2"/>
+      <c r="MQT6" s="2"/>
+      <c r="MQV6" s="2"/>
+      <c r="MQX6" s="2"/>
+      <c r="MQZ6" s="2"/>
+      <c r="MRB6" s="2"/>
+      <c r="MRD6" s="2"/>
+      <c r="MRF6" s="2"/>
+      <c r="MRH6" s="2"/>
+      <c r="MRJ6" s="2"/>
+      <c r="MRL6" s="2"/>
+      <c r="MRN6" s="2"/>
+      <c r="MRP6" s="2"/>
+      <c r="MRR6" s="2"/>
+      <c r="MRT6" s="2"/>
+      <c r="MRV6" s="2"/>
+      <c r="MRX6" s="2"/>
+      <c r="MRZ6" s="2"/>
+      <c r="MSB6" s="2"/>
+      <c r="MSD6" s="2"/>
+      <c r="MSF6" s="2"/>
+      <c r="MSH6" s="2"/>
+      <c r="MSJ6" s="2"/>
+      <c r="MSL6" s="2"/>
+      <c r="MSN6" s="2"/>
+      <c r="MSP6" s="2"/>
+      <c r="MSR6" s="2"/>
+      <c r="MST6" s="2"/>
+      <c r="MSV6" s="2"/>
+      <c r="MSX6" s="2"/>
+      <c r="MSZ6" s="2"/>
+      <c r="MTB6" s="2"/>
+      <c r="MTD6" s="2"/>
+      <c r="MTF6" s="2"/>
+      <c r="MTH6" s="2"/>
+      <c r="MTJ6" s="2"/>
+      <c r="MTL6" s="2"/>
+      <c r="MTN6" s="2"/>
+      <c r="MTP6" s="2"/>
+      <c r="MTR6" s="2"/>
+      <c r="MTT6" s="2"/>
+      <c r="MTV6" s="2"/>
+      <c r="MTX6" s="2"/>
+      <c r="MTZ6" s="2"/>
+      <c r="MUB6" s="2"/>
+      <c r="MUD6" s="2"/>
+      <c r="MUF6" s="2"/>
+      <c r="MUH6" s="2"/>
+      <c r="MUJ6" s="2"/>
+      <c r="MUL6" s="2"/>
+      <c r="MUN6" s="2"/>
+      <c r="MUP6" s="2"/>
+      <c r="MUR6" s="2"/>
+      <c r="MUT6" s="2"/>
+      <c r="MUV6" s="2"/>
+      <c r="MUX6" s="2"/>
+      <c r="MUZ6" s="2"/>
+      <c r="MVB6" s="2"/>
+      <c r="MVD6" s="2"/>
+      <c r="MVF6" s="2"/>
+      <c r="MVH6" s="2"/>
+      <c r="MVJ6" s="2"/>
+      <c r="MVL6" s="2"/>
+      <c r="MVN6" s="2"/>
+      <c r="MVP6" s="2"/>
+      <c r="MVR6" s="2"/>
+      <c r="MVT6" s="2"/>
+      <c r="MVV6" s="2"/>
+      <c r="MVX6" s="2"/>
+      <c r="MVZ6" s="2"/>
+      <c r="MWB6" s="2"/>
+      <c r="MWD6" s="2"/>
+      <c r="MWF6" s="2"/>
+      <c r="MWH6" s="2"/>
+      <c r="MWJ6" s="2"/>
+      <c r="MWL6" s="2"/>
+      <c r="MWN6" s="2"/>
+      <c r="MWP6" s="2"/>
+      <c r="MWR6" s="2"/>
+      <c r="MWT6" s="2"/>
+      <c r="MWV6" s="2"/>
+      <c r="MWX6" s="2"/>
+      <c r="MWZ6" s="2"/>
+      <c r="MXB6" s="2"/>
+      <c r="MXD6" s="2"/>
+      <c r="MXF6" s="2"/>
+      <c r="MXH6" s="2"/>
+      <c r="MXJ6" s="2"/>
+      <c r="MXL6" s="2"/>
+      <c r="MXN6" s="2"/>
+      <c r="MXP6" s="2"/>
+      <c r="MXR6" s="2"/>
+      <c r="MXT6" s="2"/>
+      <c r="MXV6" s="2"/>
+      <c r="MXX6" s="2"/>
+      <c r="MXZ6" s="2"/>
+      <c r="MYB6" s="2"/>
+      <c r="MYD6" s="2"/>
+      <c r="MYF6" s="2"/>
+      <c r="MYH6" s="2"/>
+      <c r="MYJ6" s="2"/>
+      <c r="MYL6" s="2"/>
+      <c r="MYN6" s="2"/>
+      <c r="MYP6" s="2"/>
+      <c r="MYR6" s="2"/>
+      <c r="MYT6" s="2"/>
+      <c r="MYV6" s="2"/>
+      <c r="MYX6" s="2"/>
+      <c r="MYZ6" s="2"/>
+      <c r="MZB6" s="2"/>
+      <c r="MZD6" s="2"/>
+      <c r="MZF6" s="2"/>
+      <c r="MZH6" s="2"/>
+      <c r="MZJ6" s="2"/>
+      <c r="MZL6" s="2"/>
+      <c r="MZN6" s="2"/>
+      <c r="MZP6" s="2"/>
+      <c r="MZR6" s="2"/>
+      <c r="MZT6" s="2"/>
+      <c r="MZV6" s="2"/>
+      <c r="MZX6" s="2"/>
+      <c r="MZZ6" s="2"/>
+      <c r="NAB6" s="2"/>
+      <c r="NAD6" s="2"/>
+      <c r="NAF6" s="2"/>
+      <c r="NAH6" s="2"/>
+      <c r="NAJ6" s="2"/>
+      <c r="NAL6" s="2"/>
+      <c r="NAN6" s="2"/>
+      <c r="NAP6" s="2"/>
+      <c r="NAR6" s="2"/>
+      <c r="NAT6" s="2"/>
+      <c r="NAV6" s="2"/>
+      <c r="NAX6" s="2"/>
+      <c r="NAZ6" s="2"/>
+      <c r="NBB6" s="2"/>
+      <c r="NBD6" s="2"/>
+      <c r="NBF6" s="2"/>
+      <c r="NBH6" s="2"/>
+      <c r="NBJ6" s="2"/>
+      <c r="NBL6" s="2"/>
+      <c r="NBN6" s="2"/>
+      <c r="NBP6" s="2"/>
+      <c r="NBR6" s="2"/>
+      <c r="NBT6" s="2"/>
+      <c r="NBV6" s="2"/>
+      <c r="NBX6" s="2"/>
+      <c r="NBZ6" s="2"/>
+      <c r="NCB6" s="2"/>
+      <c r="NCD6" s="2"/>
+      <c r="NCF6" s="2"/>
+      <c r="NCH6" s="2"/>
+      <c r="NCJ6" s="2"/>
+      <c r="NCL6" s="2"/>
+      <c r="NCN6" s="2"/>
+      <c r="NCP6" s="2"/>
+      <c r="NCR6" s="2"/>
+      <c r="NCT6" s="2"/>
+      <c r="NCV6" s="2"/>
+      <c r="NCX6" s="2"/>
+      <c r="NCZ6" s="2"/>
+      <c r="NDB6" s="2"/>
+      <c r="NDD6" s="2"/>
+      <c r="NDF6" s="2"/>
+      <c r="NDH6" s="2"/>
+      <c r="NDJ6" s="2"/>
+      <c r="NDL6" s="2"/>
+      <c r="NDN6" s="2"/>
+      <c r="NDP6" s="2"/>
+      <c r="NDR6" s="2"/>
+      <c r="NDT6" s="2"/>
+      <c r="NDV6" s="2"/>
+      <c r="NDX6" s="2"/>
+      <c r="NDZ6" s="2"/>
+      <c r="NEB6" s="2"/>
+      <c r="NED6" s="2"/>
+      <c r="NEF6" s="2"/>
+      <c r="NEH6" s="2"/>
+      <c r="NEJ6" s="2"/>
+      <c r="NEL6" s="2"/>
+      <c r="NEN6" s="2"/>
+      <c r="NEP6" s="2"/>
+      <c r="NER6" s="2"/>
+      <c r="NET6" s="2"/>
+      <c r="NEV6" s="2"/>
+      <c r="NEX6" s="2"/>
+      <c r="NEZ6" s="2"/>
+      <c r="NFB6" s="2"/>
+      <c r="NFD6" s="2"/>
+      <c r="NFF6" s="2"/>
+      <c r="NFH6" s="2"/>
+      <c r="NFJ6" s="2"/>
+      <c r="NFL6" s="2"/>
+      <c r="NFN6" s="2"/>
+      <c r="NFP6" s="2"/>
+      <c r="NFR6" s="2"/>
+      <c r="NFT6" s="2"/>
+      <c r="NFV6" s="2"/>
+      <c r="NFX6" s="2"/>
+      <c r="NFZ6" s="2"/>
+      <c r="NGB6" s="2"/>
+      <c r="NGD6" s="2"/>
+      <c r="NGF6" s="2"/>
+      <c r="NGH6" s="2"/>
+      <c r="NGJ6" s="2"/>
+      <c r="NGL6" s="2"/>
+      <c r="NGN6" s="2"/>
+      <c r="NGP6" s="2"/>
+      <c r="NGR6" s="2"/>
+      <c r="NGT6" s="2"/>
+      <c r="NGV6" s="2"/>
+      <c r="NGX6" s="2"/>
+      <c r="NGZ6" s="2"/>
+      <c r="NHB6" s="2"/>
+      <c r="NHD6" s="2"/>
+      <c r="NHF6" s="2"/>
+      <c r="NHH6" s="2"/>
+      <c r="NHJ6" s="2"/>
+      <c r="NHL6" s="2"/>
+      <c r="NHN6" s="2"/>
+      <c r="NHP6" s="2"/>
+      <c r="NHR6" s="2"/>
+      <c r="NHT6" s="2"/>
+      <c r="NHV6" s="2"/>
+      <c r="NHX6" s="2"/>
+      <c r="NHZ6" s="2"/>
+      <c r="NIB6" s="2"/>
+      <c r="NID6" s="2"/>
+      <c r="NIF6" s="2"/>
+      <c r="NIH6" s="2"/>
+      <c r="NIJ6" s="2"/>
+      <c r="NIL6" s="2"/>
+      <c r="NIN6" s="2"/>
+      <c r="NIP6" s="2"/>
+      <c r="NIR6" s="2"/>
+      <c r="NIT6" s="2"/>
+      <c r="NIV6" s="2"/>
+      <c r="NIX6" s="2"/>
+      <c r="NIZ6" s="2"/>
+      <c r="NJB6" s="2"/>
+      <c r="NJD6" s="2"/>
+      <c r="NJF6" s="2"/>
+      <c r="NJH6" s="2"/>
+      <c r="NJJ6" s="2"/>
+      <c r="NJL6" s="2"/>
+      <c r="NJN6" s="2"/>
+      <c r="NJP6" s="2"/>
+      <c r="NJR6" s="2"/>
+      <c r="NJT6" s="2"/>
+      <c r="NJV6" s="2"/>
+      <c r="NJX6" s="2"/>
+      <c r="NJZ6" s="2"/>
+      <c r="NKB6" s="2"/>
+      <c r="NKD6" s="2"/>
+      <c r="NKF6" s="2"/>
+      <c r="NKH6" s="2"/>
+      <c r="NKJ6" s="2"/>
+      <c r="NKL6" s="2"/>
+      <c r="NKN6" s="2"/>
+      <c r="NKP6" s="2"/>
+      <c r="NKR6" s="2"/>
+      <c r="NKT6" s="2"/>
+      <c r="NKV6" s="2"/>
+      <c r="NKX6" s="2"/>
+      <c r="NKZ6" s="2"/>
+      <c r="NLB6" s="2"/>
+      <c r="NLD6" s="2"/>
+      <c r="NLF6" s="2"/>
+      <c r="NLH6" s="2"/>
+      <c r="NLJ6" s="2"/>
+      <c r="NLL6" s="2"/>
+      <c r="NLN6" s="2"/>
+      <c r="NLP6" s="2"/>
+      <c r="NLR6" s="2"/>
+      <c r="NLT6" s="2"/>
+      <c r="NLV6" s="2"/>
+      <c r="NLX6" s="2"/>
+      <c r="NLZ6" s="2"/>
+      <c r="NMB6" s="2"/>
+      <c r="NMD6" s="2"/>
+      <c r="NMF6" s="2"/>
+      <c r="NMH6" s="2"/>
+      <c r="NMJ6" s="2"/>
+      <c r="NML6" s="2"/>
+      <c r="NMN6" s="2"/>
+      <c r="NMP6" s="2"/>
+      <c r="NMR6" s="2"/>
+      <c r="NMT6" s="2"/>
+      <c r="NMV6" s="2"/>
+      <c r="NMX6" s="2"/>
+      <c r="NMZ6" s="2"/>
+      <c r="NNB6" s="2"/>
+      <c r="NND6" s="2"/>
+      <c r="NNF6" s="2"/>
+      <c r="NNH6" s="2"/>
+      <c r="NNJ6" s="2"/>
+      <c r="NNL6" s="2"/>
+      <c r="NNN6" s="2"/>
+      <c r="NNP6" s="2"/>
+      <c r="NNR6" s="2"/>
+      <c r="NNT6" s="2"/>
+      <c r="NNV6" s="2"/>
+      <c r="NNX6" s="2"/>
+      <c r="NNZ6" s="2"/>
+      <c r="NOB6" s="2"/>
+      <c r="NOD6" s="2"/>
+      <c r="NOF6" s="2"/>
+      <c r="NOH6" s="2"/>
+      <c r="NOJ6" s="2"/>
+      <c r="NOL6" s="2"/>
+      <c r="NON6" s="2"/>
+      <c r="NOP6" s="2"/>
+      <c r="NOR6" s="2"/>
+      <c r="NOT6" s="2"/>
+      <c r="NOV6" s="2"/>
+      <c r="NOX6" s="2"/>
+      <c r="NOZ6" s="2"/>
+      <c r="NPB6" s="2"/>
+      <c r="NPD6" s="2"/>
+      <c r="NPF6" s="2"/>
+      <c r="NPH6" s="2"/>
+      <c r="NPJ6" s="2"/>
+      <c r="NPL6" s="2"/>
+      <c r="NPN6" s="2"/>
+      <c r="NPP6" s="2"/>
+      <c r="NPR6" s="2"/>
+      <c r="NPT6" s="2"/>
+      <c r="NPV6" s="2"/>
+      <c r="NPX6" s="2"/>
+      <c r="NPZ6" s="2"/>
+      <c r="NQB6" s="2"/>
+      <c r="NQD6" s="2"/>
+      <c r="NQF6" s="2"/>
+      <c r="NQH6" s="2"/>
+      <c r="NQJ6" s="2"/>
+      <c r="NQL6" s="2"/>
+      <c r="NQN6" s="2"/>
+      <c r="NQP6" s="2"/>
+      <c r="NQR6" s="2"/>
+      <c r="NQT6" s="2"/>
+      <c r="NQV6" s="2"/>
+      <c r="NQX6" s="2"/>
+      <c r="NQZ6" s="2"/>
+      <c r="NRB6" s="2"/>
+      <c r="NRD6" s="2"/>
+      <c r="NRF6" s="2"/>
+      <c r="NRH6" s="2"/>
+      <c r="NRJ6" s="2"/>
+      <c r="NRL6" s="2"/>
+      <c r="NRN6" s="2"/>
+      <c r="NRP6" s="2"/>
+      <c r="NRR6" s="2"/>
+      <c r="NRT6" s="2"/>
+      <c r="NRV6" s="2"/>
+      <c r="NRX6" s="2"/>
+      <c r="NRZ6" s="2"/>
+      <c r="NSB6" s="2"/>
+      <c r="NSD6" s="2"/>
+      <c r="NSF6" s="2"/>
+      <c r="NSH6" s="2"/>
+      <c r="NSJ6" s="2"/>
+      <c r="NSL6" s="2"/>
+      <c r="NSN6" s="2"/>
+      <c r="NSP6" s="2"/>
+      <c r="NSR6" s="2"/>
+      <c r="NST6" s="2"/>
+      <c r="NSV6" s="2"/>
+      <c r="NSX6" s="2"/>
+      <c r="NSZ6" s="2"/>
+      <c r="NTB6" s="2"/>
+      <c r="NTD6" s="2"/>
+      <c r="NTF6" s="2"/>
+      <c r="NTH6" s="2"/>
+      <c r="NTJ6" s="2"/>
+      <c r="NTL6" s="2"/>
+      <c r="NTN6" s="2"/>
+      <c r="NTP6" s="2"/>
+      <c r="NTR6" s="2"/>
+      <c r="NTT6" s="2"/>
+      <c r="NTV6" s="2"/>
+      <c r="NTX6" s="2"/>
+      <c r="NTZ6" s="2"/>
+      <c r="NUB6" s="2"/>
+      <c r="NUD6" s="2"/>
+      <c r="NUF6" s="2"/>
+      <c r="NUH6" s="2"/>
+      <c r="NUJ6" s="2"/>
+      <c r="NUL6" s="2"/>
+      <c r="NUN6" s="2"/>
+      <c r="NUP6" s="2"/>
+      <c r="NUR6" s="2"/>
+      <c r="NUT6" s="2"/>
+      <c r="NUV6" s="2"/>
+      <c r="NUX6" s="2"/>
+      <c r="NUZ6" s="2"/>
+      <c r="NVB6" s="2"/>
+      <c r="NVD6" s="2"/>
+      <c r="NVF6" s="2"/>
+      <c r="NVH6" s="2"/>
+      <c r="NVJ6" s="2"/>
+      <c r="NVL6" s="2"/>
+      <c r="NVN6" s="2"/>
+      <c r="NVP6" s="2"/>
+      <c r="NVR6" s="2"/>
+      <c r="NVT6" s="2"/>
+      <c r="NVV6" s="2"/>
+      <c r="NVX6" s="2"/>
+      <c r="NVZ6" s="2"/>
+      <c r="NWB6" s="2"/>
+      <c r="NWD6" s="2"/>
+      <c r="NWF6" s="2"/>
+      <c r="NWH6" s="2"/>
+      <c r="NWJ6" s="2"/>
+      <c r="NWL6" s="2"/>
+      <c r="NWN6" s="2"/>
+      <c r="NWP6" s="2"/>
+      <c r="NWR6" s="2"/>
+      <c r="NWT6" s="2"/>
+      <c r="NWV6" s="2"/>
+      <c r="NWX6" s="2"/>
+      <c r="NWZ6" s="2"/>
+      <c r="NXB6" s="2"/>
+      <c r="NXD6" s="2"/>
+      <c r="NXF6" s="2"/>
+      <c r="NXH6" s="2"/>
+      <c r="NXJ6" s="2"/>
+      <c r="NXL6" s="2"/>
+      <c r="NXN6" s="2"/>
+      <c r="NXP6" s="2"/>
+      <c r="NXR6" s="2"/>
+      <c r="NXT6" s="2"/>
+      <c r="NXV6" s="2"/>
+      <c r="NXX6" s="2"/>
+      <c r="NXZ6" s="2"/>
+      <c r="NYB6" s="2"/>
+      <c r="NYD6" s="2"/>
+      <c r="NYF6" s="2"/>
+      <c r="NYH6" s="2"/>
+      <c r="NYJ6" s="2"/>
+      <c r="NYL6" s="2"/>
+      <c r="NYN6" s="2"/>
+      <c r="NYP6" s="2"/>
+      <c r="NYR6" s="2"/>
+      <c r="NYT6" s="2"/>
+      <c r="NYV6" s="2"/>
+      <c r="NYX6" s="2"/>
+      <c r="NYZ6" s="2"/>
+      <c r="NZB6" s="2"/>
+      <c r="NZD6" s="2"/>
+      <c r="NZF6" s="2"/>
+      <c r="NZH6" s="2"/>
+      <c r="NZJ6" s="2"/>
+      <c r="NZL6" s="2"/>
+      <c r="NZN6" s="2"/>
+      <c r="NZP6" s="2"/>
+      <c r="NZR6" s="2"/>
+      <c r="NZT6" s="2"/>
+      <c r="NZV6" s="2"/>
+      <c r="NZX6" s="2"/>
+      <c r="NZZ6" s="2"/>
+      <c r="OAB6" s="2"/>
+      <c r="OAD6" s="2"/>
+      <c r="OAF6" s="2"/>
+      <c r="OAH6" s="2"/>
+      <c r="OAJ6" s="2"/>
+      <c r="OAL6" s="2"/>
+      <c r="OAN6" s="2"/>
+      <c r="OAP6" s="2"/>
+      <c r="OAR6" s="2"/>
+      <c r="OAT6" s="2"/>
+      <c r="OAV6" s="2"/>
+      <c r="OAX6" s="2"/>
+      <c r="OAZ6" s="2"/>
+      <c r="OBB6" s="2"/>
+      <c r="OBD6" s="2"/>
+      <c r="OBF6" s="2"/>
+      <c r="OBH6" s="2"/>
+      <c r="OBJ6" s="2"/>
+      <c r="OBL6" s="2"/>
+      <c r="OBN6" s="2"/>
+      <c r="OBP6" s="2"/>
+      <c r="OBR6" s="2"/>
+      <c r="OBT6" s="2"/>
+      <c r="OBV6" s="2"/>
+      <c r="OBX6" s="2"/>
+      <c r="OBZ6" s="2"/>
+      <c r="OCB6" s="2"/>
+      <c r="OCD6" s="2"/>
+      <c r="OCF6" s="2"/>
+      <c r="OCH6" s="2"/>
+      <c r="OCJ6" s="2"/>
+      <c r="OCL6" s="2"/>
+      <c r="OCN6" s="2"/>
+      <c r="OCP6" s="2"/>
+      <c r="OCR6" s="2"/>
+      <c r="OCT6" s="2"/>
+      <c r="OCV6" s="2"/>
+      <c r="OCX6" s="2"/>
+      <c r="OCZ6" s="2"/>
+      <c r="ODB6" s="2"/>
+      <c r="ODD6" s="2"/>
+      <c r="ODF6" s="2"/>
+      <c r="ODH6" s="2"/>
+      <c r="ODJ6" s="2"/>
+      <c r="ODL6" s="2"/>
+      <c r="ODN6" s="2"/>
+      <c r="ODP6" s="2"/>
+      <c r="ODR6" s="2"/>
+      <c r="ODT6" s="2"/>
+      <c r="ODV6" s="2"/>
+      <c r="ODX6" s="2"/>
+      <c r="ODZ6" s="2"/>
+      <c r="OEB6" s="2"/>
+      <c r="OED6" s="2"/>
+      <c r="OEF6" s="2"/>
+      <c r="OEH6" s="2"/>
+      <c r="OEJ6" s="2"/>
+      <c r="OEL6" s="2"/>
+      <c r="OEN6" s="2"/>
+      <c r="OEP6" s="2"/>
+      <c r="OER6" s="2"/>
+      <c r="OET6" s="2"/>
+      <c r="OEV6" s="2"/>
+      <c r="OEX6" s="2"/>
+      <c r="OEZ6" s="2"/>
+      <c r="OFB6" s="2"/>
+      <c r="OFD6" s="2"/>
+      <c r="OFF6" s="2"/>
+      <c r="OFH6" s="2"/>
+      <c r="OFJ6" s="2"/>
+      <c r="OFL6" s="2"/>
+      <c r="OFN6" s="2"/>
+      <c r="OFP6" s="2"/>
+      <c r="OFR6" s="2"/>
+      <c r="OFT6" s="2"/>
+      <c r="OFV6" s="2"/>
+      <c r="OFX6" s="2"/>
+      <c r="OFZ6" s="2"/>
+      <c r="OGB6" s="2"/>
+      <c r="OGD6" s="2"/>
+      <c r="OGF6" s="2"/>
+      <c r="OGH6" s="2"/>
+      <c r="OGJ6" s="2"/>
+      <c r="OGL6" s="2"/>
+      <c r="OGN6" s="2"/>
+      <c r="OGP6" s="2"/>
+      <c r="OGR6" s="2"/>
+      <c r="OGT6" s="2"/>
+      <c r="OGV6" s="2"/>
+      <c r="OGX6" s="2"/>
+      <c r="OGZ6" s="2"/>
+      <c r="OHB6" s="2"/>
+      <c r="OHD6" s="2"/>
+      <c r="OHF6" s="2"/>
+      <c r="OHH6" s="2"/>
+      <c r="OHJ6" s="2"/>
+      <c r="OHL6" s="2"/>
+      <c r="OHN6" s="2"/>
+      <c r="OHP6" s="2"/>
+      <c r="OHR6" s="2"/>
+      <c r="OHT6" s="2"/>
+      <c r="OHV6" s="2"/>
+      <c r="OHX6" s="2"/>
+      <c r="OHZ6" s="2"/>
+      <c r="OIB6" s="2"/>
+      <c r="OID6" s="2"/>
+      <c r="OIF6" s="2"/>
+      <c r="OIH6" s="2"/>
+      <c r="OIJ6" s="2"/>
+      <c r="OIL6" s="2"/>
+      <c r="OIN6" s="2"/>
+      <c r="OIP6" s="2"/>
+      <c r="OIR6" s="2"/>
+      <c r="OIT6" s="2"/>
+      <c r="OIV6" s="2"/>
+      <c r="OIX6" s="2"/>
+      <c r="OIZ6" s="2"/>
+      <c r="OJB6" s="2"/>
+      <c r="OJD6" s="2"/>
+      <c r="OJF6" s="2"/>
+      <c r="OJH6" s="2"/>
+      <c r="OJJ6" s="2"/>
+      <c r="OJL6" s="2"/>
+      <c r="OJN6" s="2"/>
+      <c r="OJP6" s="2"/>
+      <c r="OJR6" s="2"/>
+      <c r="OJT6" s="2"/>
+      <c r="OJV6" s="2"/>
+      <c r="OJX6" s="2"/>
+      <c r="OJZ6" s="2"/>
+      <c r="OKB6" s="2"/>
+      <c r="OKD6" s="2"/>
+      <c r="OKF6" s="2"/>
+      <c r="OKH6" s="2"/>
+      <c r="OKJ6" s="2"/>
+      <c r="OKL6" s="2"/>
+      <c r="OKN6" s="2"/>
+      <c r="OKP6" s="2"/>
+      <c r="OKR6" s="2"/>
+      <c r="OKT6" s="2"/>
+      <c r="OKV6" s="2"/>
+      <c r="OKX6" s="2"/>
+      <c r="OKZ6" s="2"/>
+      <c r="OLB6" s="2"/>
+      <c r="OLD6" s="2"/>
+      <c r="OLF6" s="2"/>
+      <c r="OLH6" s="2"/>
+      <c r="OLJ6" s="2"/>
+      <c r="OLL6" s="2"/>
+      <c r="OLN6" s="2"/>
+      <c r="OLP6" s="2"/>
+      <c r="OLR6" s="2"/>
+      <c r="OLT6" s="2"/>
+      <c r="OLV6" s="2"/>
+      <c r="OLX6" s="2"/>
+      <c r="OLZ6" s="2"/>
+      <c r="OMB6" s="2"/>
+      <c r="OMD6" s="2"/>
+      <c r="OMF6" s="2"/>
+      <c r="OMH6" s="2"/>
+      <c r="OMJ6" s="2"/>
+      <c r="OML6" s="2"/>
+      <c r="OMN6" s="2"/>
+      <c r="OMP6" s="2"/>
+      <c r="OMR6" s="2"/>
+      <c r="OMT6" s="2"/>
+      <c r="OMV6" s="2"/>
+      <c r="OMX6" s="2"/>
+      <c r="OMZ6" s="2"/>
+      <c r="ONB6" s="2"/>
+      <c r="OND6" s="2"/>
+      <c r="ONF6" s="2"/>
+      <c r="ONH6" s="2"/>
+      <c r="ONJ6" s="2"/>
+      <c r="ONL6" s="2"/>
+      <c r="ONN6" s="2"/>
+      <c r="ONP6" s="2"/>
+      <c r="ONR6" s="2"/>
+      <c r="ONT6" s="2"/>
+      <c r="ONV6" s="2"/>
+      <c r="ONX6" s="2"/>
+      <c r="ONZ6" s="2"/>
+      <c r="OOB6" s="2"/>
+      <c r="OOD6" s="2"/>
+      <c r="OOF6" s="2"/>
+      <c r="OOH6" s="2"/>
+      <c r="OOJ6" s="2"/>
+      <c r="OOL6" s="2"/>
+      <c r="OON6" s="2"/>
+      <c r="OOP6" s="2"/>
+      <c r="OOR6" s="2"/>
+      <c r="OOT6" s="2"/>
+      <c r="OOV6" s="2"/>
+      <c r="OOX6" s="2"/>
+      <c r="OOZ6" s="2"/>
+      <c r="OPB6" s="2"/>
+      <c r="OPD6" s="2"/>
+      <c r="OPF6" s="2"/>
+      <c r="OPH6" s="2"/>
+      <c r="OPJ6" s="2"/>
+      <c r="OPL6" s="2"/>
+      <c r="OPN6" s="2"/>
+      <c r="OPP6" s="2"/>
+      <c r="OPR6" s="2"/>
+      <c r="OPT6" s="2"/>
+      <c r="OPV6" s="2"/>
+      <c r="OPX6" s="2"/>
+      <c r="OPZ6" s="2"/>
+      <c r="OQB6" s="2"/>
+      <c r="OQD6" s="2"/>
+      <c r="OQF6" s="2"/>
+      <c r="OQH6" s="2"/>
+      <c r="OQJ6" s="2"/>
+      <c r="OQL6" s="2"/>
+      <c r="OQN6" s="2"/>
+      <c r="OQP6" s="2"/>
+      <c r="OQR6" s="2"/>
+      <c r="OQT6" s="2"/>
+      <c r="OQV6" s="2"/>
+      <c r="OQX6" s="2"/>
+      <c r="OQZ6" s="2"/>
+      <c r="ORB6" s="2"/>
+      <c r="ORD6" s="2"/>
+      <c r="ORF6" s="2"/>
+      <c r="ORH6" s="2"/>
+      <c r="ORJ6" s="2"/>
+      <c r="ORL6" s="2"/>
+      <c r="ORN6" s="2"/>
+      <c r="ORP6" s="2"/>
+      <c r="ORR6" s="2"/>
+      <c r="ORT6" s="2"/>
+      <c r="ORV6" s="2"/>
+      <c r="ORX6" s="2"/>
+      <c r="ORZ6" s="2"/>
+      <c r="OSB6" s="2"/>
+      <c r="OSD6" s="2"/>
+      <c r="OSF6" s="2"/>
+      <c r="OSH6" s="2"/>
+      <c r="OSJ6" s="2"/>
+      <c r="OSL6" s="2"/>
+      <c r="OSN6" s="2"/>
+      <c r="OSP6" s="2"/>
+      <c r="OSR6" s="2"/>
+      <c r="OST6" s="2"/>
+      <c r="OSV6" s="2"/>
+      <c r="OSX6" s="2"/>
+      <c r="OSZ6" s="2"/>
+      <c r="OTB6" s="2"/>
+      <c r="OTD6" s="2"/>
+      <c r="OTF6" s="2"/>
+      <c r="OTH6" s="2"/>
+      <c r="OTJ6" s="2"/>
+      <c r="OTL6" s="2"/>
+      <c r="OTN6" s="2"/>
+      <c r="OTP6" s="2"/>
+      <c r="OTR6" s="2"/>
+      <c r="OTT6" s="2"/>
+      <c r="OTV6" s="2"/>
+      <c r="OTX6" s="2"/>
+      <c r="OTZ6" s="2"/>
+      <c r="OUB6" s="2"/>
+      <c r="OUD6" s="2"/>
+      <c r="OUF6" s="2"/>
+      <c r="OUH6" s="2"/>
+      <c r="OUJ6" s="2"/>
+      <c r="OUL6" s="2"/>
+      <c r="OUN6" s="2"/>
+      <c r="OUP6" s="2"/>
+      <c r="OUR6" s="2"/>
+      <c r="OUT6" s="2"/>
+      <c r="OUV6" s="2"/>
+      <c r="OUX6" s="2"/>
+      <c r="OUZ6" s="2"/>
+      <c r="OVB6" s="2"/>
+      <c r="OVD6" s="2"/>
+      <c r="OVF6" s="2"/>
+      <c r="OVH6" s="2"/>
+      <c r="OVJ6" s="2"/>
+      <c r="OVL6" s="2"/>
+      <c r="OVN6" s="2"/>
+      <c r="OVP6" s="2"/>
+      <c r="OVR6" s="2"/>
+      <c r="OVT6" s="2"/>
+      <c r="OVV6" s="2"/>
+      <c r="OVX6" s="2"/>
+      <c r="OVZ6" s="2"/>
+      <c r="OWB6" s="2"/>
+      <c r="OWD6" s="2"/>
+      <c r="OWF6" s="2"/>
+      <c r="OWH6" s="2"/>
+      <c r="OWJ6" s="2"/>
+      <c r="OWL6" s="2"/>
+      <c r="OWN6" s="2"/>
+      <c r="OWP6" s="2"/>
+      <c r="OWR6" s="2"/>
+      <c r="OWT6" s="2"/>
+      <c r="OWV6" s="2"/>
+      <c r="OWX6" s="2"/>
+      <c r="OWZ6" s="2"/>
+      <c r="OXB6" s="2"/>
+      <c r="OXD6" s="2"/>
+      <c r="OXF6" s="2"/>
+      <c r="OXH6" s="2"/>
+      <c r="OXJ6" s="2"/>
+      <c r="OXL6" s="2"/>
+      <c r="OXN6" s="2"/>
+      <c r="OXP6" s="2"/>
+      <c r="OXR6" s="2"/>
+      <c r="OXT6" s="2"/>
+      <c r="OXV6" s="2"/>
+      <c r="OXX6" s="2"/>
+      <c r="OXZ6" s="2"/>
+      <c r="OYB6" s="2"/>
+      <c r="OYD6" s="2"/>
+      <c r="OYF6" s="2"/>
+      <c r="OYH6" s="2"/>
+      <c r="OYJ6" s="2"/>
+      <c r="OYL6" s="2"/>
+      <c r="OYN6" s="2"/>
+      <c r="OYP6" s="2"/>
+      <c r="OYR6" s="2"/>
+      <c r="OYT6" s="2"/>
+      <c r="OYV6" s="2"/>
+      <c r="OYX6" s="2"/>
+      <c r="OYZ6" s="2"/>
+      <c r="OZB6" s="2"/>
+      <c r="OZD6" s="2"/>
+      <c r="OZF6" s="2"/>
+      <c r="OZH6" s="2"/>
+      <c r="OZJ6" s="2"/>
+      <c r="OZL6" s="2"/>
+      <c r="OZN6" s="2"/>
+      <c r="OZP6" s="2"/>
+      <c r="OZR6" s="2"/>
+      <c r="OZT6" s="2"/>
+      <c r="OZV6" s="2"/>
+      <c r="OZX6" s="2"/>
+      <c r="OZZ6" s="2"/>
+      <c r="PAB6" s="2"/>
+      <c r="PAD6" s="2"/>
+      <c r="PAF6" s="2"/>
+      <c r="PAH6" s="2"/>
+      <c r="PAJ6" s="2"/>
+      <c r="PAL6" s="2"/>
+      <c r="PAN6" s="2"/>
+      <c r="PAP6" s="2"/>
+      <c r="PAR6" s="2"/>
+      <c r="PAT6" s="2"/>
+      <c r="PAV6" s="2"/>
+      <c r="PAX6" s="2"/>
+      <c r="PAZ6" s="2"/>
+      <c r="PBB6" s="2"/>
+      <c r="PBD6" s="2"/>
+      <c r="PBF6" s="2"/>
+      <c r="PBH6" s="2"/>
+      <c r="PBJ6" s="2"/>
+      <c r="PBL6" s="2"/>
+      <c r="PBN6" s="2"/>
+      <c r="PBP6" s="2"/>
+      <c r="PBR6" s="2"/>
+      <c r="PBT6" s="2"/>
+      <c r="PBV6" s="2"/>
+      <c r="PBX6" s="2"/>
+      <c r="PBZ6" s="2"/>
+      <c r="PCB6" s="2"/>
+      <c r="PCD6" s="2"/>
+      <c r="PCF6" s="2"/>
+      <c r="PCH6" s="2"/>
+      <c r="PCJ6" s="2"/>
+      <c r="PCL6" s="2"/>
+      <c r="PCN6" s="2"/>
+      <c r="PCP6" s="2"/>
+      <c r="PCR6" s="2"/>
+      <c r="PCT6" s="2"/>
+      <c r="PCV6" s="2"/>
+      <c r="PCX6" s="2"/>
+      <c r="PCZ6" s="2"/>
+      <c r="PDB6" s="2"/>
+      <c r="PDD6" s="2"/>
+      <c r="PDF6" s="2"/>
+      <c r="PDH6" s="2"/>
+      <c r="PDJ6" s="2"/>
+      <c r="PDL6" s="2"/>
+      <c r="PDN6" s="2"/>
+      <c r="PDP6" s="2"/>
+      <c r="PDR6" s="2"/>
+      <c r="PDT6" s="2"/>
+      <c r="PDV6" s="2"/>
+      <c r="PDX6" s="2"/>
+      <c r="PDZ6" s="2"/>
+      <c r="PEB6" s="2"/>
+      <c r="PED6" s="2"/>
+      <c r="PEF6" s="2"/>
+      <c r="PEH6" s="2"/>
+      <c r="PEJ6" s="2"/>
+      <c r="PEL6" s="2"/>
+      <c r="PEN6" s="2"/>
+      <c r="PEP6" s="2"/>
+      <c r="PER6" s="2"/>
+      <c r="PET6" s="2"/>
+      <c r="PEV6" s="2"/>
+      <c r="PEX6" s="2"/>
+      <c r="PEZ6" s="2"/>
+      <c r="PFB6" s="2"/>
+      <c r="PFD6" s="2"/>
+      <c r="PFF6" s="2"/>
+      <c r="PFH6" s="2"/>
+      <c r="PFJ6" s="2"/>
+      <c r="PFL6" s="2"/>
+      <c r="PFN6" s="2"/>
+      <c r="PFP6" s="2"/>
+      <c r="PFR6" s="2"/>
+      <c r="PFT6" s="2"/>
+      <c r="PFV6" s="2"/>
+      <c r="PFX6" s="2"/>
+      <c r="PFZ6" s="2"/>
+      <c r="PGB6" s="2"/>
+      <c r="PGD6" s="2"/>
+      <c r="PGF6" s="2"/>
+      <c r="PGH6" s="2"/>
+      <c r="PGJ6" s="2"/>
+      <c r="PGL6" s="2"/>
+      <c r="PGN6" s="2"/>
+      <c r="PGP6" s="2"/>
+      <c r="PGR6" s="2"/>
+      <c r="PGT6" s="2"/>
+      <c r="PGV6" s="2"/>
+      <c r="PGX6" s="2"/>
+      <c r="PGZ6" s="2"/>
+      <c r="PHB6" s="2"/>
+      <c r="PHD6" s="2"/>
+      <c r="PHF6" s="2"/>
+      <c r="PHH6" s="2"/>
+      <c r="PHJ6" s="2"/>
+      <c r="PHL6" s="2"/>
+      <c r="PHN6" s="2"/>
+      <c r="PHP6" s="2"/>
+      <c r="PHR6" s="2"/>
+      <c r="PHT6" s="2"/>
+      <c r="PHV6" s="2"/>
+      <c r="PHX6" s="2"/>
+      <c r="PHZ6" s="2"/>
+      <c r="PIB6" s="2"/>
+      <c r="PID6" s="2"/>
+      <c r="PIF6" s="2"/>
+      <c r="PIH6" s="2"/>
+      <c r="PIJ6" s="2"/>
+      <c r="PIL6" s="2"/>
+      <c r="PIN6" s="2"/>
+      <c r="PIP6" s="2"/>
+      <c r="PIR6" s="2"/>
+      <c r="PIT6" s="2"/>
+      <c r="PIV6" s="2"/>
+      <c r="PIX6" s="2"/>
+      <c r="PIZ6" s="2"/>
+      <c r="PJB6" s="2"/>
+      <c r="PJD6" s="2"/>
+      <c r="PJF6" s="2"/>
+      <c r="PJH6" s="2"/>
+      <c r="PJJ6" s="2"/>
+      <c r="PJL6" s="2"/>
+      <c r="PJN6" s="2"/>
+      <c r="PJP6" s="2"/>
+      <c r="PJR6" s="2"/>
+      <c r="PJT6" s="2"/>
+      <c r="PJV6" s="2"/>
+      <c r="PJX6" s="2"/>
+      <c r="PJZ6" s="2"/>
+      <c r="PKB6" s="2"/>
+      <c r="PKD6" s="2"/>
+      <c r="PKF6" s="2"/>
+      <c r="PKH6" s="2"/>
+      <c r="PKJ6" s="2"/>
+      <c r="PKL6" s="2"/>
+      <c r="PKN6" s="2"/>
+      <c r="PKP6" s="2"/>
+      <c r="PKR6" s="2"/>
+      <c r="PKT6" s="2"/>
+      <c r="PKV6" s="2"/>
+      <c r="PKX6" s="2"/>
+      <c r="PKZ6" s="2"/>
+      <c r="PLB6" s="2"/>
+      <c r="PLD6" s="2"/>
+      <c r="PLF6" s="2"/>
+      <c r="PLH6" s="2"/>
+      <c r="PLJ6" s="2"/>
+      <c r="PLL6" s="2"/>
+      <c r="PLN6" s="2"/>
+      <c r="PLP6" s="2"/>
+      <c r="PLR6" s="2"/>
+      <c r="PLT6" s="2"/>
+      <c r="PLV6" s="2"/>
+      <c r="PLX6" s="2"/>
+      <c r="PLZ6" s="2"/>
+      <c r="PMB6" s="2"/>
+      <c r="PMD6" s="2"/>
+      <c r="PMF6" s="2"/>
+      <c r="PMH6" s="2"/>
+      <c r="PMJ6" s="2"/>
+      <c r="PML6" s="2"/>
+      <c r="PMN6" s="2"/>
+      <c r="PMP6" s="2"/>
+      <c r="PMR6" s="2"/>
+      <c r="PMT6" s="2"/>
+      <c r="PMV6" s="2"/>
+      <c r="PMX6" s="2"/>
+      <c r="PMZ6" s="2"/>
+      <c r="PNB6" s="2"/>
+      <c r="PND6" s="2"/>
+      <c r="PNF6" s="2"/>
+      <c r="PNH6" s="2"/>
+      <c r="PNJ6" s="2"/>
+      <c r="PNL6" s="2"/>
+      <c r="PNN6" s="2"/>
+      <c r="PNP6" s="2"/>
+      <c r="PNR6" s="2"/>
+      <c r="PNT6" s="2"/>
+      <c r="PNV6" s="2"/>
+      <c r="PNX6" s="2"/>
+      <c r="PNZ6" s="2"/>
+      <c r="POB6" s="2"/>
+      <c r="POD6" s="2"/>
+      <c r="POF6" s="2"/>
+      <c r="POH6" s="2"/>
+      <c r="POJ6" s="2"/>
+      <c r="POL6" s="2"/>
+      <c r="PON6" s="2"/>
+      <c r="POP6" s="2"/>
+      <c r="POR6" s="2"/>
+      <c r="POT6" s="2"/>
+      <c r="POV6" s="2"/>
+      <c r="POX6" s="2"/>
+      <c r="POZ6" s="2"/>
+      <c r="PPB6" s="2"/>
+      <c r="PPD6" s="2"/>
+      <c r="PPF6" s="2"/>
+      <c r="PPH6" s="2"/>
+      <c r="PPJ6" s="2"/>
+      <c r="PPL6" s="2"/>
+      <c r="PPN6" s="2"/>
+      <c r="PPP6" s="2"/>
+      <c r="PPR6" s="2"/>
+      <c r="PPT6" s="2"/>
+      <c r="PPV6" s="2"/>
+      <c r="PPX6" s="2"/>
+      <c r="PPZ6" s="2"/>
+      <c r="PQB6" s="2"/>
+      <c r="PQD6" s="2"/>
+      <c r="PQF6" s="2"/>
+      <c r="PQH6" s="2"/>
+      <c r="PQJ6" s="2"/>
+      <c r="PQL6" s="2"/>
+      <c r="PQN6" s="2"/>
+      <c r="PQP6" s="2"/>
+      <c r="PQR6" s="2"/>
+      <c r="PQT6" s="2"/>
+      <c r="PQV6" s="2"/>
+      <c r="PQX6" s="2"/>
+      <c r="PQZ6" s="2"/>
+      <c r="PRB6" s="2"/>
+      <c r="PRD6" s="2"/>
+      <c r="PRF6" s="2"/>
+      <c r="PRH6" s="2"/>
+      <c r="PRJ6" s="2"/>
+      <c r="PRL6" s="2"/>
+      <c r="PRN6" s="2"/>
+      <c r="PRP6" s="2"/>
+      <c r="PRR6" s="2"/>
+      <c r="PRT6" s="2"/>
+      <c r="PRV6" s="2"/>
+      <c r="PRX6" s="2"/>
+      <c r="PRZ6" s="2"/>
+      <c r="PSB6" s="2"/>
+      <c r="PSD6" s="2"/>
+      <c r="PSF6" s="2"/>
+      <c r="PSH6" s="2"/>
+      <c r="PSJ6" s="2"/>
+      <c r="PSL6" s="2"/>
+      <c r="PSN6" s="2"/>
+      <c r="PSP6" s="2"/>
+      <c r="PSR6" s="2"/>
+      <c r="PST6" s="2"/>
+      <c r="PSV6" s="2"/>
+      <c r="PSX6" s="2"/>
+      <c r="PSZ6" s="2"/>
+      <c r="PTB6" s="2"/>
+      <c r="PTD6" s="2"/>
+      <c r="PTF6" s="2"/>
+      <c r="PTH6" s="2"/>
+      <c r="PTJ6" s="2"/>
+      <c r="PTL6" s="2"/>
+      <c r="PTN6" s="2"/>
+      <c r="PTP6" s="2"/>
+      <c r="PTR6" s="2"/>
+      <c r="PTT6" s="2"/>
+      <c r="PTV6" s="2"/>
+      <c r="PTX6" s="2"/>
+      <c r="PTZ6" s="2"/>
+      <c r="PUB6" s="2"/>
+      <c r="PUD6" s="2"/>
+      <c r="PUF6" s="2"/>
+      <c r="PUH6" s="2"/>
+      <c r="PUJ6" s="2"/>
+      <c r="PUL6" s="2"/>
+      <c r="PUN6" s="2"/>
+      <c r="PUP6" s="2"/>
+      <c r="PUR6" s="2"/>
+      <c r="PUT6" s="2"/>
+      <c r="PUV6" s="2"/>
+      <c r="PUX6" s="2"/>
+      <c r="PUZ6" s="2"/>
+      <c r="PVB6" s="2"/>
+      <c r="PVD6" s="2"/>
+      <c r="PVF6" s="2"/>
+      <c r="PVH6" s="2"/>
+      <c r="PVJ6" s="2"/>
+      <c r="PVL6" s="2"/>
+      <c r="PVN6" s="2"/>
+      <c r="PVP6" s="2"/>
+      <c r="PVR6" s="2"/>
+      <c r="PVT6" s="2"/>
+      <c r="PVV6" s="2"/>
+      <c r="PVX6" s="2"/>
+      <c r="PVZ6" s="2"/>
+      <c r="PWB6" s="2"/>
+      <c r="PWD6" s="2"/>
+      <c r="PWF6" s="2"/>
+      <c r="PWH6" s="2"/>
+      <c r="PWJ6" s="2"/>
+      <c r="PWL6" s="2"/>
+      <c r="PWN6" s="2"/>
+      <c r="PWP6" s="2"/>
+      <c r="PWR6" s="2"/>
+      <c r="PWT6" s="2"/>
+      <c r="PWV6" s="2"/>
+      <c r="PWX6" s="2"/>
+      <c r="PWZ6" s="2"/>
+      <c r="PXB6" s="2"/>
+      <c r="PXD6" s="2"/>
+      <c r="PXF6" s="2"/>
+      <c r="PXH6" s="2"/>
+      <c r="PXJ6" s="2"/>
+      <c r="PXL6" s="2"/>
+      <c r="PXN6" s="2"/>
+      <c r="PXP6" s="2"/>
+      <c r="PXR6" s="2"/>
+      <c r="PXT6" s="2"/>
+      <c r="PXV6" s="2"/>
+      <c r="PXX6" s="2"/>
+      <c r="PXZ6" s="2"/>
+      <c r="PYB6" s="2"/>
+      <c r="PYD6" s="2"/>
+      <c r="PYF6" s="2"/>
+      <c r="PYH6" s="2"/>
+      <c r="PYJ6" s="2"/>
+      <c r="PYL6" s="2"/>
+      <c r="PYN6" s="2"/>
+      <c r="PYP6" s="2"/>
+      <c r="PYR6" s="2"/>
+      <c r="PYT6" s="2"/>
+      <c r="PYV6" s="2"/>
+      <c r="PYX6" s="2"/>
+      <c r="PYZ6" s="2"/>
+      <c r="PZB6" s="2"/>
+      <c r="PZD6" s="2"/>
+      <c r="PZF6" s="2"/>
+      <c r="PZH6" s="2"/>
+      <c r="PZJ6" s="2"/>
+      <c r="PZL6" s="2"/>
+      <c r="PZN6" s="2"/>
+      <c r="PZP6" s="2"/>
+      <c r="PZR6" s="2"/>
+      <c r="PZT6" s="2"/>
+      <c r="PZV6" s="2"/>
+      <c r="PZX6" s="2"/>
+      <c r="PZZ6" s="2"/>
+      <c r="QAB6" s="2"/>
+      <c r="QAD6" s="2"/>
+      <c r="QAF6" s="2"/>
+      <c r="QAH6" s="2"/>
+      <c r="QAJ6" s="2"/>
+      <c r="QAL6" s="2"/>
+      <c r="QAN6" s="2"/>
+      <c r="QAP6" s="2"/>
+      <c r="QAR6" s="2"/>
+      <c r="QAT6" s="2"/>
+      <c r="QAV6" s="2"/>
+      <c r="QAX6" s="2"/>
+      <c r="QAZ6" s="2"/>
+      <c r="QBB6" s="2"/>
+      <c r="QBD6" s="2"/>
+      <c r="QBF6" s="2"/>
+      <c r="QBH6" s="2"/>
+      <c r="QBJ6" s="2"/>
+      <c r="QBL6" s="2"/>
+      <c r="QBN6" s="2"/>
+      <c r="QBP6" s="2"/>
+      <c r="QBR6" s="2"/>
+      <c r="QBT6" s="2"/>
+      <c r="QBV6" s="2"/>
+      <c r="QBX6" s="2"/>
+      <c r="QBZ6" s="2"/>
+      <c r="QCB6" s="2"/>
+      <c r="QCD6" s="2"/>
+      <c r="QCF6" s="2"/>
+      <c r="QCH6" s="2"/>
+      <c r="QCJ6" s="2"/>
+      <c r="QCL6" s="2"/>
+      <c r="QCN6" s="2"/>
+      <c r="QCP6" s="2"/>
+      <c r="QCR6" s="2"/>
+      <c r="QCT6" s="2"/>
+      <c r="QCV6" s="2"/>
+      <c r="QCX6" s="2"/>
+      <c r="QCZ6" s="2"/>
+      <c r="QDB6" s="2"/>
+      <c r="QDD6" s="2"/>
+      <c r="QDF6" s="2"/>
+      <c r="QDH6" s="2"/>
+      <c r="QDJ6" s="2"/>
+      <c r="QDL6" s="2"/>
+      <c r="QDN6" s="2"/>
+      <c r="QDP6" s="2"/>
+      <c r="QDR6" s="2"/>
+      <c r="QDT6" s="2"/>
+      <c r="QDV6" s="2"/>
+      <c r="QDX6" s="2"/>
+      <c r="QDZ6" s="2"/>
+      <c r="QEB6" s="2"/>
+      <c r="QED6" s="2"/>
+      <c r="QEF6" s="2"/>
+      <c r="QEH6" s="2"/>
+      <c r="QEJ6" s="2"/>
+      <c r="QEL6" s="2"/>
+      <c r="QEN6" s="2"/>
+      <c r="QEP6" s="2"/>
+      <c r="QER6" s="2"/>
+      <c r="QET6" s="2"/>
+      <c r="QEV6" s="2"/>
+      <c r="QEX6" s="2"/>
+      <c r="QEZ6" s="2"/>
+      <c r="QFB6" s="2"/>
+      <c r="QFD6" s="2"/>
+      <c r="QFF6" s="2"/>
+      <c r="QFH6" s="2"/>
+      <c r="QFJ6" s="2"/>
+      <c r="QFL6" s="2"/>
+      <c r="QFN6" s="2"/>
+      <c r="QFP6" s="2"/>
+      <c r="QFR6" s="2"/>
+      <c r="QFT6" s="2"/>
+      <c r="QFV6" s="2"/>
+      <c r="QFX6" s="2"/>
+      <c r="QFZ6" s="2"/>
+      <c r="QGB6" s="2"/>
+      <c r="QGD6" s="2"/>
+      <c r="QGF6" s="2"/>
+      <c r="QGH6" s="2"/>
+      <c r="QGJ6" s="2"/>
+      <c r="QGL6" s="2"/>
+      <c r="QGN6" s="2"/>
+      <c r="QGP6" s="2"/>
+      <c r="QGR6" s="2"/>
+      <c r="QGT6" s="2"/>
+      <c r="QGV6" s="2"/>
+      <c r="QGX6" s="2"/>
+      <c r="QGZ6" s="2"/>
+      <c r="QHB6" s="2"/>
+      <c r="QHD6" s="2"/>
+      <c r="QHF6" s="2"/>
+      <c r="QHH6" s="2"/>
+      <c r="QHJ6" s="2"/>
+      <c r="QHL6" s="2"/>
+      <c r="QHN6" s="2"/>
+      <c r="QHP6" s="2"/>
+      <c r="QHR6" s="2"/>
+      <c r="QHT6" s="2"/>
+      <c r="QHV6" s="2"/>
+      <c r="QHX6" s="2"/>
+      <c r="QHZ6" s="2"/>
+      <c r="QIB6" s="2"/>
+      <c r="QID6" s="2"/>
+      <c r="QIF6" s="2"/>
+      <c r="QIH6" s="2"/>
+      <c r="QIJ6" s="2"/>
+      <c r="QIL6" s="2"/>
+      <c r="QIN6" s="2"/>
+      <c r="QIP6" s="2"/>
+      <c r="QIR6" s="2"/>
+      <c r="QIT6" s="2"/>
+      <c r="QIV6" s="2"/>
+      <c r="QIX6" s="2"/>
+      <c r="QIZ6" s="2"/>
+      <c r="QJB6" s="2"/>
+      <c r="QJD6" s="2"/>
+      <c r="QJF6" s="2"/>
+      <c r="QJH6" s="2"/>
+      <c r="QJJ6" s="2"/>
+      <c r="QJL6" s="2"/>
+      <c r="QJN6" s="2"/>
+      <c r="QJP6" s="2"/>
+      <c r="QJR6" s="2"/>
+      <c r="QJT6" s="2"/>
+      <c r="QJV6" s="2"/>
+      <c r="QJX6" s="2"/>
+      <c r="QJZ6" s="2"/>
+      <c r="QKB6" s="2"/>
+      <c r="QKD6" s="2"/>
+      <c r="QKF6" s="2"/>
+      <c r="QKH6" s="2"/>
+      <c r="QKJ6" s="2"/>
+      <c r="QKL6" s="2"/>
+      <c r="QKN6" s="2"/>
+      <c r="QKP6" s="2"/>
+      <c r="QKR6" s="2"/>
+      <c r="QKT6" s="2"/>
+      <c r="QKV6" s="2"/>
+      <c r="QKX6" s="2"/>
+      <c r="QKZ6" s="2"/>
+      <c r="QLB6" s="2"/>
+      <c r="QLD6" s="2"/>
+      <c r="QLF6" s="2"/>
+      <c r="QLH6" s="2"/>
+      <c r="QLJ6" s="2"/>
+      <c r="QLL6" s="2"/>
+      <c r="QLN6" s="2"/>
+      <c r="QLP6" s="2"/>
+      <c r="QLR6" s="2"/>
+      <c r="QLT6" s="2"/>
+      <c r="QLV6" s="2"/>
+      <c r="QLX6" s="2"/>
+      <c r="QLZ6" s="2"/>
+      <c r="QMB6" s="2"/>
+      <c r="QMD6" s="2"/>
+      <c r="QMF6" s="2"/>
+      <c r="QMH6" s="2"/>
+      <c r="QMJ6" s="2"/>
+      <c r="QML6" s="2"/>
+      <c r="QMN6" s="2"/>
+      <c r="QMP6" s="2"/>
+      <c r="QMR6" s="2"/>
+      <c r="QMT6" s="2"/>
+      <c r="QMV6" s="2"/>
+      <c r="QMX6" s="2"/>
+      <c r="QMZ6" s="2"/>
+      <c r="QNB6" s="2"/>
+      <c r="QND6" s="2"/>
+      <c r="QNF6" s="2"/>
+      <c r="QNH6" s="2"/>
+      <c r="QNJ6" s="2"/>
+      <c r="QNL6" s="2"/>
+      <c r="QNN6" s="2"/>
+      <c r="QNP6" s="2"/>
+      <c r="QNR6" s="2"/>
+      <c r="QNT6" s="2"/>
+      <c r="QNV6" s="2"/>
+      <c r="QNX6" s="2"/>
+      <c r="QNZ6" s="2"/>
+      <c r="QOB6" s="2"/>
+      <c r="QOD6" s="2"/>
+      <c r="QOF6" s="2"/>
+      <c r="QOH6" s="2"/>
+      <c r="QOJ6" s="2"/>
+      <c r="QOL6" s="2"/>
+      <c r="QON6" s="2"/>
+      <c r="QOP6" s="2"/>
+      <c r="QOR6" s="2"/>
+      <c r="QOT6" s="2"/>
+      <c r="QOV6" s="2"/>
+      <c r="QOX6" s="2"/>
+      <c r="QOZ6" s="2"/>
+      <c r="QPB6" s="2"/>
+      <c r="QPD6" s="2"/>
+      <c r="QPF6" s="2"/>
+      <c r="QPH6" s="2"/>
+      <c r="QPJ6" s="2"/>
+      <c r="QPL6" s="2"/>
+      <c r="QPN6" s="2"/>
+      <c r="QPP6" s="2"/>
+      <c r="QPR6" s="2"/>
+      <c r="QPT6" s="2"/>
+      <c r="QPV6" s="2"/>
+      <c r="QPX6" s="2"/>
+      <c r="QPZ6" s="2"/>
+      <c r="QQB6" s="2"/>
+      <c r="QQD6" s="2"/>
+      <c r="QQF6" s="2"/>
+      <c r="QQH6" s="2"/>
+      <c r="QQJ6" s="2"/>
+      <c r="QQL6" s="2"/>
+      <c r="QQN6" s="2"/>
+      <c r="QQP6" s="2"/>
+      <c r="QQR6" s="2"/>
+      <c r="QQT6" s="2"/>
+      <c r="QQV6" s="2"/>
+      <c r="QQX6" s="2"/>
+      <c r="QQZ6" s="2"/>
+      <c r="QRB6" s="2"/>
+      <c r="QRD6" s="2"/>
+      <c r="QRF6" s="2"/>
+      <c r="QRH6" s="2"/>
+      <c r="QRJ6" s="2"/>
+      <c r="QRL6" s="2"/>
+      <c r="QRN6" s="2"/>
+      <c r="QRP6" s="2"/>
+      <c r="QRR6" s="2"/>
+      <c r="QRT6" s="2"/>
+      <c r="QRV6" s="2"/>
+      <c r="QRX6" s="2"/>
+      <c r="QRZ6" s="2"/>
+      <c r="QSB6" s="2"/>
+      <c r="QSD6" s="2"/>
+      <c r="QSF6" s="2"/>
+      <c r="QSH6" s="2"/>
+      <c r="QSJ6" s="2"/>
+      <c r="QSL6" s="2"/>
+      <c r="QSN6" s="2"/>
+      <c r="QSP6" s="2"/>
+      <c r="QSR6" s="2"/>
+      <c r="QST6" s="2"/>
+      <c r="QSV6" s="2"/>
+      <c r="QSX6" s="2"/>
+      <c r="QSZ6" s="2"/>
+      <c r="QTB6" s="2"/>
+      <c r="QTD6" s="2"/>
+      <c r="QTF6" s="2"/>
+      <c r="QTH6" s="2"/>
+      <c r="QTJ6" s="2"/>
+      <c r="QTL6" s="2"/>
+      <c r="QTN6" s="2"/>
+      <c r="QTP6" s="2"/>
+      <c r="QTR6" s="2"/>
+      <c r="QTT6" s="2"/>
+      <c r="QTV6" s="2"/>
+      <c r="QTX6" s="2"/>
+      <c r="QTZ6" s="2"/>
+      <c r="QUB6" s="2"/>
+      <c r="QUD6" s="2"/>
+      <c r="QUF6" s="2"/>
+      <c r="QUH6" s="2"/>
+      <c r="QUJ6" s="2"/>
+      <c r="QUL6" s="2"/>
+      <c r="QUN6" s="2"/>
+      <c r="QUP6" s="2"/>
+      <c r="QUR6" s="2"/>
+      <c r="QUT6" s="2"/>
+      <c r="QUV6" s="2"/>
+      <c r="QUX6" s="2"/>
+      <c r="QUZ6" s="2"/>
+      <c r="QVB6" s="2"/>
+      <c r="QVD6" s="2"/>
+      <c r="QVF6" s="2"/>
+      <c r="QVH6" s="2"/>
+      <c r="QVJ6" s="2"/>
+      <c r="QVL6" s="2"/>
+      <c r="QVN6" s="2"/>
+      <c r="QVP6" s="2"/>
+      <c r="QVR6" s="2"/>
+      <c r="QVT6" s="2"/>
+      <c r="QVV6" s="2"/>
+      <c r="QVX6" s="2"/>
+      <c r="QVZ6" s="2"/>
+      <c r="QWB6" s="2"/>
+      <c r="QWD6" s="2"/>
+      <c r="QWF6" s="2"/>
+      <c r="QWH6" s="2"/>
+      <c r="QWJ6" s="2"/>
+      <c r="QWL6" s="2"/>
+      <c r="QWN6" s="2"/>
+      <c r="QWP6" s="2"/>
+      <c r="QWR6" s="2"/>
+      <c r="QWT6" s="2"/>
+      <c r="QWV6" s="2"/>
+      <c r="QWX6" s="2"/>
+      <c r="QWZ6" s="2"/>
+      <c r="QXB6" s="2"/>
+      <c r="QXD6" s="2"/>
+      <c r="QXF6" s="2"/>
+      <c r="QXH6" s="2"/>
+      <c r="QXJ6" s="2"/>
+      <c r="QXL6" s="2"/>
+      <c r="QXN6" s="2"/>
+      <c r="QXP6" s="2"/>
+      <c r="QXR6" s="2"/>
+      <c r="QXT6" s="2"/>
+      <c r="QXV6" s="2"/>
+      <c r="QXX6" s="2"/>
+      <c r="QXZ6" s="2"/>
+      <c r="QYB6" s="2"/>
+      <c r="QYD6" s="2"/>
+      <c r="QYF6" s="2"/>
+      <c r="QYH6" s="2"/>
+      <c r="QYJ6" s="2"/>
+      <c r="QYL6" s="2"/>
+      <c r="QYN6" s="2"/>
+      <c r="QYP6" s="2"/>
+      <c r="QYR6" s="2"/>
+      <c r="QYT6" s="2"/>
+      <c r="QYV6" s="2"/>
+      <c r="QYX6" s="2"/>
+      <c r="QYZ6" s="2"/>
+      <c r="QZB6" s="2"/>
+      <c r="QZD6" s="2"/>
+      <c r="QZF6" s="2"/>
+      <c r="QZH6" s="2"/>
+      <c r="QZJ6" s="2"/>
+      <c r="QZL6" s="2"/>
+      <c r="QZN6" s="2"/>
+      <c r="QZP6" s="2"/>
+      <c r="QZR6" s="2"/>
+      <c r="QZT6" s="2"/>
+      <c r="QZV6" s="2"/>
+      <c r="QZX6" s="2"/>
+      <c r="QZZ6" s="2"/>
+      <c r="RAB6" s="2"/>
+      <c r="RAD6" s="2"/>
+      <c r="RAF6" s="2"/>
+      <c r="RAH6" s="2"/>
+      <c r="RAJ6" s="2"/>
+      <c r="RAL6" s="2"/>
+      <c r="RAN6" s="2"/>
+      <c r="RAP6" s="2"/>
+      <c r="RAR6" s="2"/>
+      <c r="RAT6" s="2"/>
+      <c r="RAV6" s="2"/>
+      <c r="RAX6" s="2"/>
+      <c r="RAZ6" s="2"/>
+      <c r="RBB6" s="2"/>
+      <c r="RBD6" s="2"/>
+      <c r="RBF6" s="2"/>
+      <c r="RBH6" s="2"/>
+      <c r="RBJ6" s="2"/>
+      <c r="RBL6" s="2"/>
+      <c r="RBN6" s="2"/>
+      <c r="RBP6" s="2"/>
+      <c r="RBR6" s="2"/>
+      <c r="RBT6" s="2"/>
+      <c r="RBV6" s="2"/>
+      <c r="RBX6" s="2"/>
+      <c r="RBZ6" s="2"/>
+      <c r="RCB6" s="2"/>
+      <c r="RCD6" s="2"/>
+      <c r="RCF6" s="2"/>
+      <c r="RCH6" s="2"/>
+      <c r="RCJ6" s="2"/>
+      <c r="RCL6" s="2"/>
+      <c r="RCN6" s="2"/>
+      <c r="RCP6" s="2"/>
+      <c r="RCR6" s="2"/>
+      <c r="RCT6" s="2"/>
+      <c r="RCV6" s="2"/>
+      <c r="RCX6" s="2"/>
+      <c r="RCZ6" s="2"/>
+      <c r="RDB6" s="2"/>
+      <c r="RDD6" s="2"/>
+      <c r="RDF6" s="2"/>
+      <c r="RDH6" s="2"/>
+      <c r="RDJ6" s="2"/>
+      <c r="RDL6" s="2"/>
+      <c r="RDN6" s="2"/>
+      <c r="RDP6" s="2"/>
+      <c r="RDR6" s="2"/>
+      <c r="RDT6" s="2"/>
+      <c r="RDV6" s="2"/>
+      <c r="RDX6" s="2"/>
+      <c r="RDZ6" s="2"/>
+      <c r="REB6" s="2"/>
+      <c r="RED6" s="2"/>
+      <c r="REF6" s="2"/>
+      <c r="REH6" s="2"/>
+      <c r="REJ6" s="2"/>
+      <c r="REL6" s="2"/>
+      <c r="REN6" s="2"/>
+      <c r="REP6" s="2"/>
+      <c r="RER6" s="2"/>
+      <c r="RET6" s="2"/>
+      <c r="REV6" s="2"/>
+      <c r="REX6" s="2"/>
+      <c r="REZ6" s="2"/>
+      <c r="RFB6" s="2"/>
+      <c r="RFD6" s="2"/>
+      <c r="RFF6" s="2"/>
+      <c r="RFH6" s="2"/>
+      <c r="RFJ6" s="2"/>
+      <c r="RFL6" s="2"/>
+      <c r="RFN6" s="2"/>
+      <c r="RFP6" s="2"/>
+      <c r="RFR6" s="2"/>
+      <c r="RFT6" s="2"/>
+      <c r="RFV6" s="2"/>
+      <c r="RFX6" s="2"/>
+      <c r="RFZ6" s="2"/>
+      <c r="RGB6" s="2"/>
+      <c r="RGD6" s="2"/>
+      <c r="RGF6" s="2"/>
+      <c r="RGH6" s="2"/>
+      <c r="RGJ6" s="2"/>
+      <c r="RGL6" s="2"/>
+      <c r="RGN6" s="2"/>
+      <c r="RGP6" s="2"/>
+      <c r="RGR6" s="2"/>
+      <c r="RGT6" s="2"/>
+      <c r="RGV6" s="2"/>
+      <c r="RGX6" s="2"/>
+      <c r="RGZ6" s="2"/>
+      <c r="RHB6" s="2"/>
+      <c r="RHD6" s="2"/>
+      <c r="RHF6" s="2"/>
+      <c r="RHH6" s="2"/>
+      <c r="RHJ6" s="2"/>
+      <c r="RHL6" s="2"/>
+      <c r="RHN6" s="2"/>
+      <c r="RHP6" s="2"/>
+      <c r="RHR6" s="2"/>
+      <c r="RHT6" s="2"/>
+      <c r="RHV6" s="2"/>
+      <c r="RHX6" s="2"/>
+      <c r="RHZ6" s="2"/>
+      <c r="RIB6" s="2"/>
+      <c r="RID6" s="2"/>
+      <c r="RIF6" s="2"/>
+      <c r="RIH6" s="2"/>
+      <c r="RIJ6" s="2"/>
+      <c r="RIL6" s="2"/>
+      <c r="RIN6" s="2"/>
+      <c r="RIP6" s="2"/>
+      <c r="RIR6" s="2"/>
+      <c r="RIT6" s="2"/>
+      <c r="RIV6" s="2"/>
+      <c r="RIX6" s="2"/>
+      <c r="RIZ6" s="2"/>
+      <c r="RJB6" s="2"/>
+      <c r="RJD6" s="2"/>
+      <c r="RJF6" s="2"/>
+      <c r="RJH6" s="2"/>
+      <c r="RJJ6" s="2"/>
+      <c r="RJL6" s="2"/>
+      <c r="RJN6" s="2"/>
+      <c r="RJP6" s="2"/>
+      <c r="RJR6" s="2"/>
+      <c r="RJT6" s="2"/>
+      <c r="RJV6" s="2"/>
+      <c r="RJX6" s="2"/>
+      <c r="RJZ6" s="2"/>
+      <c r="RKB6" s="2"/>
+      <c r="RKD6" s="2"/>
+      <c r="RKF6" s="2"/>
+      <c r="RKH6" s="2"/>
+      <c r="RKJ6" s="2"/>
+      <c r="RKL6" s="2"/>
+      <c r="RKN6" s="2"/>
+      <c r="RKP6" s="2"/>
+      <c r="RKR6" s="2"/>
+      <c r="RKT6" s="2"/>
+      <c r="RKV6" s="2"/>
+      <c r="RKX6" s="2"/>
+      <c r="RKZ6" s="2"/>
+      <c r="RLB6" s="2"/>
+      <c r="RLD6" s="2"/>
+      <c r="RLF6" s="2"/>
+      <c r="RLH6" s="2"/>
+      <c r="RLJ6" s="2"/>
+      <c r="RLL6" s="2"/>
+      <c r="RLN6" s="2"/>
+      <c r="RLP6" s="2"/>
+      <c r="RLR6" s="2"/>
+      <c r="RLT6" s="2"/>
+      <c r="RLV6" s="2"/>
+      <c r="RLX6" s="2"/>
+      <c r="RLZ6" s="2"/>
+      <c r="RMB6" s="2"/>
+      <c r="RMD6" s="2"/>
+      <c r="RMF6" s="2"/>
+      <c r="RMH6" s="2"/>
+      <c r="RMJ6" s="2"/>
+      <c r="RML6" s="2"/>
+      <c r="RMN6" s="2"/>
+      <c r="RMP6" s="2"/>
+      <c r="RMR6" s="2"/>
+      <c r="RMT6" s="2"/>
+      <c r="RMV6" s="2"/>
+      <c r="RMX6" s="2"/>
+      <c r="RMZ6" s="2"/>
+      <c r="RNB6" s="2"/>
+      <c r="RND6" s="2"/>
+      <c r="RNF6" s="2"/>
+      <c r="RNH6" s="2"/>
+      <c r="RNJ6" s="2"/>
+      <c r="RNL6" s="2"/>
+      <c r="RNN6" s="2"/>
+      <c r="RNP6" s="2"/>
+      <c r="RNR6" s="2"/>
+      <c r="RNT6" s="2"/>
+      <c r="RNV6" s="2"/>
+      <c r="RNX6" s="2"/>
+      <c r="RNZ6" s="2"/>
+      <c r="ROB6" s="2"/>
+      <c r="ROD6" s="2"/>
+      <c r="ROF6" s="2"/>
+      <c r="ROH6" s="2"/>
+      <c r="ROJ6" s="2"/>
+      <c r="ROL6" s="2"/>
+      <c r="RON6" s="2"/>
+      <c r="ROP6" s="2"/>
+      <c r="ROR6" s="2"/>
+      <c r="ROT6" s="2"/>
+      <c r="ROV6" s="2"/>
+      <c r="ROX6" s="2"/>
+      <c r="ROZ6" s="2"/>
+      <c r="RPB6" s="2"/>
+      <c r="RPD6" s="2"/>
+      <c r="RPF6" s="2"/>
+      <c r="RPH6" s="2"/>
+      <c r="RPJ6" s="2"/>
+      <c r="RPL6" s="2"/>
+      <c r="RPN6" s="2"/>
+      <c r="RPP6" s="2"/>
+      <c r="RPR6" s="2"/>
+      <c r="RPT6" s="2"/>
+      <c r="RPV6" s="2"/>
+      <c r="RPX6" s="2"/>
+      <c r="RPZ6" s="2"/>
+      <c r="RQB6" s="2"/>
+      <c r="RQD6" s="2"/>
+      <c r="RQF6" s="2"/>
+      <c r="RQH6" s="2"/>
+      <c r="RQJ6" s="2"/>
+      <c r="RQL6" s="2"/>
+      <c r="RQN6" s="2"/>
+      <c r="RQP6" s="2"/>
+      <c r="RQR6" s="2"/>
+      <c r="RQT6" s="2"/>
+      <c r="RQV6" s="2"/>
+      <c r="RQX6" s="2"/>
+      <c r="RQZ6" s="2"/>
+      <c r="RRB6" s="2"/>
+      <c r="RRD6" s="2"/>
+      <c r="RRF6" s="2"/>
+      <c r="RRH6" s="2"/>
+      <c r="RRJ6" s="2"/>
+      <c r="RRL6" s="2"/>
+      <c r="RRN6" s="2"/>
+      <c r="RRP6" s="2"/>
+      <c r="RRR6" s="2"/>
+      <c r="RRT6" s="2"/>
+      <c r="RRV6" s="2"/>
+      <c r="RRX6" s="2"/>
+      <c r="RRZ6" s="2"/>
+      <c r="RSB6" s="2"/>
+      <c r="RSD6" s="2"/>
+      <c r="RSF6" s="2"/>
+      <c r="RSH6" s="2"/>
+      <c r="RSJ6" s="2"/>
+      <c r="RSL6" s="2"/>
+      <c r="RSN6" s="2"/>
+      <c r="RSP6" s="2"/>
+      <c r="RSR6" s="2"/>
+      <c r="RST6" s="2"/>
+      <c r="RSV6" s="2"/>
+      <c r="RSX6" s="2"/>
+      <c r="RSZ6" s="2"/>
+      <c r="RTB6" s="2"/>
+      <c r="RTD6" s="2"/>
+      <c r="RTF6" s="2"/>
+      <c r="RTH6" s="2"/>
+      <c r="RTJ6" s="2"/>
+      <c r="RTL6" s="2"/>
+      <c r="RTN6" s="2"/>
+      <c r="RTP6" s="2"/>
+      <c r="RTR6" s="2"/>
+      <c r="RTT6" s="2"/>
+      <c r="RTV6" s="2"/>
+      <c r="RTX6" s="2"/>
+      <c r="RTZ6" s="2"/>
+      <c r="RUB6" s="2"/>
+      <c r="RUD6" s="2"/>
+      <c r="RUF6" s="2"/>
+      <c r="RUH6" s="2"/>
+      <c r="RUJ6" s="2"/>
+      <c r="RUL6" s="2"/>
+      <c r="RUN6" s="2"/>
+      <c r="RUP6" s="2"/>
+      <c r="RUR6" s="2"/>
+      <c r="RUT6" s="2"/>
+      <c r="RUV6" s="2"/>
+      <c r="RUX6" s="2"/>
+      <c r="RUZ6" s="2"/>
+      <c r="RVB6" s="2"/>
+      <c r="RVD6" s="2"/>
+      <c r="RVF6" s="2"/>
+      <c r="RVH6" s="2"/>
+      <c r="RVJ6" s="2"/>
+      <c r="RVL6" s="2"/>
+      <c r="RVN6" s="2"/>
+      <c r="RVP6" s="2"/>
+      <c r="RVR6" s="2"/>
+      <c r="RVT6" s="2"/>
+      <c r="RVV6" s="2"/>
+      <c r="RVX6" s="2"/>
+      <c r="RVZ6" s="2"/>
+      <c r="RWB6" s="2"/>
+      <c r="RWD6" s="2"/>
+      <c r="RWF6" s="2"/>
+      <c r="RWH6" s="2"/>
+      <c r="RWJ6" s="2"/>
+      <c r="RWL6" s="2"/>
+      <c r="RWN6" s="2"/>
+      <c r="RWP6" s="2"/>
+      <c r="RWR6" s="2"/>
+      <c r="RWT6" s="2"/>
+      <c r="RWV6" s="2"/>
+      <c r="RWX6" s="2"/>
+      <c r="RWZ6" s="2"/>
+      <c r="RXB6" s="2"/>
+      <c r="RXD6" s="2"/>
+      <c r="RXF6" s="2"/>
+      <c r="RXH6" s="2"/>
+      <c r="RXJ6" s="2"/>
+      <c r="RXL6" s="2"/>
+      <c r="RXN6" s="2"/>
+      <c r="RXP6" s="2"/>
+      <c r="RXR6" s="2"/>
+      <c r="RXT6" s="2"/>
+      <c r="RXV6" s="2"/>
+      <c r="RXX6" s="2"/>
+      <c r="RXZ6" s="2"/>
+      <c r="RYB6" s="2"/>
+      <c r="RYD6" s="2"/>
+      <c r="RYF6" s="2"/>
+      <c r="RYH6" s="2"/>
+      <c r="RYJ6" s="2"/>
+      <c r="RYL6" s="2"/>
+      <c r="RYN6" s="2"/>
+      <c r="RYP6" s="2"/>
+      <c r="RYR6" s="2"/>
+      <c r="RYT6" s="2"/>
+      <c r="RYV6" s="2"/>
+      <c r="RYX6" s="2"/>
+      <c r="RYZ6" s="2"/>
+      <c r="RZB6" s="2"/>
+      <c r="RZD6" s="2"/>
+      <c r="RZF6" s="2"/>
+      <c r="RZH6" s="2"/>
+      <c r="RZJ6" s="2"/>
+      <c r="RZL6" s="2"/>
+      <c r="RZN6" s="2"/>
+      <c r="RZP6" s="2"/>
+      <c r="RZR6" s="2"/>
+      <c r="RZT6" s="2"/>
+      <c r="RZV6" s="2"/>
+      <c r="RZX6" s="2"/>
+      <c r="RZZ6" s="2"/>
+      <c r="SAB6" s="2"/>
+      <c r="SAD6" s="2"/>
+      <c r="SAF6" s="2"/>
+      <c r="SAH6" s="2"/>
+      <c r="SAJ6" s="2"/>
+      <c r="SAL6" s="2"/>
+      <c r="SAN6" s="2"/>
+      <c r="SAP6" s="2"/>
+      <c r="SAR6" s="2"/>
+      <c r="SAT6" s="2"/>
+      <c r="SAV6" s="2"/>
+      <c r="SAX6" s="2"/>
+      <c r="SAZ6" s="2"/>
+      <c r="SBB6" s="2"/>
+      <c r="SBD6" s="2"/>
+      <c r="SBF6" s="2"/>
+      <c r="SBH6" s="2"/>
+      <c r="SBJ6" s="2"/>
+      <c r="SBL6" s="2"/>
+      <c r="SBN6" s="2"/>
+      <c r="SBP6" s="2"/>
+      <c r="SBR6" s="2"/>
+      <c r="SBT6" s="2"/>
+      <c r="SBV6" s="2"/>
+      <c r="SBX6" s="2"/>
+      <c r="SBZ6" s="2"/>
+      <c r="SCB6" s="2"/>
+      <c r="SCD6" s="2"/>
+      <c r="SCF6" s="2"/>
+      <c r="SCH6" s="2"/>
+      <c r="SCJ6" s="2"/>
+      <c r="SCL6" s="2"/>
+      <c r="SCN6" s="2"/>
+      <c r="SCP6" s="2"/>
+      <c r="SCR6" s="2"/>
+      <c r="SCT6" s="2"/>
+      <c r="SCV6" s="2"/>
+      <c r="SCX6" s="2"/>
+      <c r="SCZ6" s="2"/>
+      <c r="SDB6" s="2"/>
+      <c r="SDD6" s="2"/>
+      <c r="SDF6" s="2"/>
+      <c r="SDH6" s="2"/>
+      <c r="SDJ6" s="2"/>
+      <c r="SDL6" s="2"/>
+      <c r="SDN6" s="2"/>
+      <c r="SDP6" s="2"/>
+      <c r="SDR6" s="2"/>
+      <c r="SDT6" s="2"/>
+      <c r="SDV6" s="2"/>
+      <c r="SDX6" s="2"/>
+      <c r="SDZ6" s="2"/>
+      <c r="SEB6" s="2"/>
+      <c r="SED6" s="2"/>
+      <c r="SEF6" s="2"/>
+      <c r="SEH6" s="2"/>
+      <c r="SEJ6" s="2"/>
+      <c r="SEL6" s="2"/>
+      <c r="SEN6" s="2"/>
+      <c r="SEP6" s="2"/>
+      <c r="SER6" s="2"/>
+      <c r="SET6" s="2"/>
+      <c r="SEV6" s="2"/>
+      <c r="SEX6" s="2"/>
+      <c r="SEZ6" s="2"/>
+      <c r="SFB6" s="2"/>
+      <c r="SFD6" s="2"/>
+      <c r="SFF6" s="2"/>
+      <c r="SFH6" s="2"/>
+      <c r="SFJ6" s="2"/>
+      <c r="SFL6" s="2"/>
+      <c r="SFN6" s="2"/>
+      <c r="SFP6" s="2"/>
+      <c r="SFR6" s="2"/>
+      <c r="SFT6" s="2"/>
+      <c r="SFV6" s="2"/>
+      <c r="SFX6" s="2"/>
+      <c r="SFZ6" s="2"/>
+      <c r="SGB6" s="2"/>
+      <c r="SGD6" s="2"/>
+      <c r="SGF6" s="2"/>
+      <c r="SGH6" s="2"/>
+      <c r="SGJ6" s="2"/>
+      <c r="SGL6" s="2"/>
+      <c r="SGN6" s="2"/>
+      <c r="SGP6" s="2"/>
+      <c r="SGR6" s="2"/>
+      <c r="SGT6" s="2"/>
+      <c r="SGV6" s="2"/>
+      <c r="SGX6" s="2"/>
+      <c r="SGZ6" s="2"/>
+      <c r="SHB6" s="2"/>
+      <c r="SHD6" s="2"/>
+      <c r="SHF6" s="2"/>
+      <c r="SHH6" s="2"/>
+      <c r="SHJ6" s="2"/>
+      <c r="SHL6" s="2"/>
+      <c r="SHN6" s="2"/>
+      <c r="SHP6" s="2"/>
+      <c r="SHR6" s="2"/>
+      <c r="SHT6" s="2"/>
+      <c r="SHV6" s="2"/>
+      <c r="SHX6" s="2"/>
+      <c r="SHZ6" s="2"/>
+      <c r="SIB6" s="2"/>
+      <c r="SID6" s="2"/>
+      <c r="SIF6" s="2"/>
+      <c r="SIH6" s="2"/>
+      <c r="SIJ6" s="2"/>
+      <c r="SIL6" s="2"/>
+      <c r="SIN6" s="2"/>
+      <c r="SIP6" s="2"/>
+      <c r="SIR6" s="2"/>
+      <c r="SIT6" s="2"/>
+      <c r="SIV6" s="2"/>
+      <c r="SIX6" s="2"/>
+      <c r="SIZ6" s="2"/>
+      <c r="SJB6" s="2"/>
+      <c r="SJD6" s="2"/>
+      <c r="SJF6" s="2"/>
+      <c r="SJH6" s="2"/>
+      <c r="SJJ6" s="2"/>
+      <c r="SJL6" s="2"/>
+      <c r="SJN6" s="2"/>
+      <c r="SJP6" s="2"/>
+      <c r="SJR6" s="2"/>
+      <c r="SJT6" s="2"/>
+      <c r="SJV6" s="2"/>
+      <c r="SJX6" s="2"/>
+      <c r="SJZ6" s="2"/>
+      <c r="SKB6" s="2"/>
+      <c r="SKD6" s="2"/>
+      <c r="SKF6" s="2"/>
+      <c r="SKH6" s="2"/>
+      <c r="SKJ6" s="2"/>
+      <c r="SKL6" s="2"/>
+      <c r="SKN6" s="2"/>
+      <c r="SKP6" s="2"/>
+      <c r="SKR6" s="2"/>
+      <c r="SKT6" s="2"/>
+      <c r="SKV6" s="2"/>
+      <c r="SKX6" s="2"/>
+      <c r="SKZ6" s="2"/>
+      <c r="SLB6" s="2"/>
+      <c r="SLD6" s="2"/>
+      <c r="SLF6" s="2"/>
+      <c r="SLH6" s="2"/>
+      <c r="SLJ6" s="2"/>
+      <c r="SLL6" s="2"/>
+      <c r="SLN6" s="2"/>
+      <c r="SLP6" s="2"/>
+      <c r="SLR6" s="2"/>
+      <c r="SLT6" s="2"/>
+      <c r="SLV6" s="2"/>
+      <c r="SLX6" s="2"/>
+      <c r="SLZ6" s="2"/>
+      <c r="SMB6" s="2"/>
+      <c r="SMD6" s="2"/>
+      <c r="SMF6" s="2"/>
+      <c r="SMH6" s="2"/>
+      <c r="SMJ6" s="2"/>
+      <c r="SML6" s="2"/>
+      <c r="SMN6" s="2"/>
+      <c r="SMP6" s="2"/>
+      <c r="SMR6" s="2"/>
+      <c r="SMT6" s="2"/>
+      <c r="SMV6" s="2"/>
+      <c r="SMX6" s="2"/>
+      <c r="SMZ6" s="2"/>
+      <c r="SNB6" s="2"/>
+      <c r="SND6" s="2"/>
+      <c r="SNF6" s="2"/>
+      <c r="SNH6" s="2"/>
+      <c r="SNJ6" s="2"/>
+      <c r="SNL6" s="2"/>
+      <c r="SNN6" s="2"/>
+      <c r="SNP6" s="2"/>
+      <c r="SNR6" s="2"/>
+      <c r="SNT6" s="2"/>
+      <c r="SNV6" s="2"/>
+      <c r="SNX6" s="2"/>
+      <c r="SNZ6" s="2"/>
+      <c r="SOB6" s="2"/>
+      <c r="SOD6" s="2"/>
+      <c r="SOF6" s="2"/>
+      <c r="SOH6" s="2"/>
+      <c r="SOJ6" s="2"/>
+      <c r="SOL6" s="2"/>
+      <c r="SON6" s="2"/>
+      <c r="SOP6" s="2"/>
+      <c r="SOR6" s="2"/>
+      <c r="SOT6" s="2"/>
+      <c r="SOV6" s="2"/>
+      <c r="SOX6" s="2"/>
+      <c r="SOZ6" s="2"/>
+      <c r="SPB6" s="2"/>
+      <c r="SPD6" s="2"/>
+      <c r="SPF6" s="2"/>
+      <c r="SPH6" s="2"/>
+      <c r="SPJ6" s="2"/>
+      <c r="SPL6" s="2"/>
+      <c r="SPN6" s="2"/>
+      <c r="SPP6" s="2"/>
+      <c r="SPR6" s="2"/>
+      <c r="SPT6" s="2"/>
+      <c r="SPV6" s="2"/>
+      <c r="SPX6" s="2"/>
+      <c r="SPZ6" s="2"/>
+      <c r="SQB6" s="2"/>
+      <c r="SQD6" s="2"/>
+      <c r="SQF6" s="2"/>
+      <c r="SQH6" s="2"/>
+      <c r="SQJ6" s="2"/>
+      <c r="SQL6" s="2"/>
+      <c r="SQN6" s="2"/>
+      <c r="SQP6" s="2"/>
+      <c r="SQR6" s="2"/>
+      <c r="SQT6" s="2"/>
+      <c r="SQV6" s="2"/>
+      <c r="SQX6" s="2"/>
+      <c r="SQZ6" s="2"/>
+      <c r="SRB6" s="2"/>
+      <c r="SRD6" s="2"/>
+      <c r="SRF6" s="2"/>
+      <c r="SRH6" s="2"/>
+      <c r="SRJ6" s="2"/>
+      <c r="SRL6" s="2"/>
+      <c r="SRN6" s="2"/>
+      <c r="SRP6" s="2"/>
+      <c r="SRR6" s="2"/>
+      <c r="SRT6" s="2"/>
+      <c r="SRV6" s="2"/>
+      <c r="SRX6" s="2"/>
+      <c r="SRZ6" s="2"/>
+      <c r="SSB6" s="2"/>
+      <c r="SSD6" s="2"/>
+      <c r="SSF6" s="2"/>
+      <c r="SSH6" s="2"/>
+      <c r="SSJ6" s="2"/>
+      <c r="SSL6" s="2"/>
+      <c r="SSN6" s="2"/>
+      <c r="SSP6" s="2"/>
+      <c r="SSR6" s="2"/>
+      <c r="SST6" s="2"/>
+      <c r="SSV6" s="2"/>
+      <c r="SSX6" s="2"/>
+      <c r="SSZ6" s="2"/>
+      <c r="STB6" s="2"/>
+      <c r="STD6" s="2"/>
+      <c r="STF6" s="2"/>
+      <c r="STH6" s="2"/>
+      <c r="STJ6" s="2"/>
+      <c r="STL6" s="2"/>
+      <c r="STN6" s="2"/>
+      <c r="STP6" s="2"/>
+      <c r="STR6" s="2"/>
+      <c r="STT6" s="2"/>
+      <c r="STV6" s="2"/>
+      <c r="STX6" s="2"/>
+      <c r="STZ6" s="2"/>
+      <c r="SUB6" s="2"/>
+      <c r="SUD6" s="2"/>
+      <c r="SUF6" s="2"/>
+      <c r="SUH6" s="2"/>
+      <c r="SUJ6" s="2"/>
+      <c r="SUL6" s="2"/>
+      <c r="SUN6" s="2"/>
+      <c r="SUP6" s="2"/>
+      <c r="SUR6" s="2"/>
+      <c r="SUT6" s="2"/>
+      <c r="SUV6" s="2"/>
+      <c r="SUX6" s="2"/>
+      <c r="SUZ6" s="2"/>
+      <c r="SVB6" s="2"/>
+      <c r="SVD6" s="2"/>
+      <c r="SVF6" s="2"/>
+      <c r="SVH6" s="2"/>
+      <c r="SVJ6" s="2"/>
+      <c r="SVL6" s="2"/>
+      <c r="SVN6" s="2"/>
+      <c r="SVP6" s="2"/>
+      <c r="SVR6" s="2"/>
+      <c r="SVT6" s="2"/>
+      <c r="SVV6" s="2"/>
+      <c r="SVX6" s="2"/>
+      <c r="SVZ6" s="2"/>
+      <c r="SWB6" s="2"/>
+      <c r="SWD6" s="2"/>
+      <c r="SWF6" s="2"/>
+      <c r="SWH6" s="2"/>
+      <c r="SWJ6" s="2"/>
+      <c r="SWL6" s="2"/>
+      <c r="SWN6" s="2"/>
+      <c r="SWP6" s="2"/>
+      <c r="SWR6" s="2"/>
+      <c r="SWT6" s="2"/>
+      <c r="SWV6" s="2"/>
+      <c r="SWX6" s="2"/>
+      <c r="SWZ6" s="2"/>
+      <c r="SXB6" s="2"/>
+      <c r="SXD6" s="2"/>
+      <c r="SXF6" s="2"/>
+      <c r="SXH6" s="2"/>
+      <c r="SXJ6" s="2"/>
+      <c r="SXL6" s="2"/>
+      <c r="SXN6" s="2"/>
+      <c r="SXP6" s="2"/>
+      <c r="SXR6" s="2"/>
+      <c r="SXT6" s="2"/>
+      <c r="SXV6" s="2"/>
+      <c r="SXX6" s="2"/>
+      <c r="SXZ6" s="2"/>
+      <c r="SYB6" s="2"/>
+      <c r="SYD6" s="2"/>
+      <c r="SYF6" s="2"/>
+      <c r="SYH6" s="2"/>
+      <c r="SYJ6" s="2"/>
+      <c r="SYL6" s="2"/>
+      <c r="SYN6" s="2"/>
+      <c r="SYP6" s="2"/>
+      <c r="SYR6" s="2"/>
+      <c r="SYT6" s="2"/>
+      <c r="SYV6" s="2"/>
+      <c r="SYX6" s="2"/>
+      <c r="SYZ6" s="2"/>
+      <c r="SZB6" s="2"/>
+      <c r="SZD6" s="2"/>
+      <c r="SZF6" s="2"/>
+      <c r="SZH6" s="2"/>
+      <c r="SZJ6" s="2"/>
+      <c r="SZL6" s="2"/>
+      <c r="SZN6" s="2"/>
+      <c r="SZP6" s="2"/>
+      <c r="SZR6" s="2"/>
+      <c r="SZT6" s="2"/>
+      <c r="SZV6" s="2"/>
+      <c r="SZX6" s="2"/>
+      <c r="SZZ6" s="2"/>
+      <c r="TAB6" s="2"/>
+      <c r="TAD6" s="2"/>
+      <c r="TAF6" s="2"/>
+      <c r="TAH6" s="2"/>
+      <c r="TAJ6" s="2"/>
+      <c r="TAL6" s="2"/>
+      <c r="TAN6" s="2"/>
+      <c r="TAP6" s="2"/>
+      <c r="TAR6" s="2"/>
+      <c r="TAT6" s="2"/>
+      <c r="TAV6" s="2"/>
+      <c r="TAX6" s="2"/>
+      <c r="TAZ6" s="2"/>
+      <c r="TBB6" s="2"/>
+      <c r="TBD6" s="2"/>
+      <c r="TBF6" s="2"/>
+      <c r="TBH6" s="2"/>
+      <c r="TBJ6" s="2"/>
+      <c r="TBL6" s="2"/>
+      <c r="TBN6" s="2"/>
+      <c r="TBP6" s="2"/>
+      <c r="TBR6" s="2"/>
+      <c r="TBT6" s="2"/>
+      <c r="TBV6" s="2"/>
+      <c r="TBX6" s="2"/>
+      <c r="TBZ6" s="2"/>
+      <c r="TCB6" s="2"/>
+      <c r="TCD6" s="2"/>
+      <c r="TCF6" s="2"/>
+      <c r="TCH6" s="2"/>
+      <c r="TCJ6" s="2"/>
+      <c r="TCL6" s="2"/>
+      <c r="TCN6" s="2"/>
+      <c r="TCP6" s="2"/>
+      <c r="TCR6" s="2"/>
+      <c r="TCT6" s="2"/>
+      <c r="TCV6" s="2"/>
+      <c r="TCX6" s="2"/>
+      <c r="TCZ6" s="2"/>
+      <c r="TDB6" s="2"/>
+      <c r="TDD6" s="2"/>
+      <c r="TDF6" s="2"/>
+      <c r="TDH6" s="2"/>
+      <c r="TDJ6" s="2"/>
+      <c r="TDL6" s="2"/>
+      <c r="TDN6" s="2"/>
+      <c r="TDP6" s="2"/>
+      <c r="TDR6" s="2"/>
+      <c r="TDT6" s="2"/>
+      <c r="TDV6" s="2"/>
+      <c r="TDX6" s="2"/>
+      <c r="TDZ6" s="2"/>
+      <c r="TEB6" s="2"/>
+      <c r="TED6" s="2"/>
+      <c r="TEF6" s="2"/>
+      <c r="TEH6" s="2"/>
+      <c r="TEJ6" s="2"/>
+      <c r="TEL6" s="2"/>
+      <c r="TEN6" s="2"/>
+      <c r="TEP6" s="2"/>
+      <c r="TER6" s="2"/>
+      <c r="TET6" s="2"/>
+      <c r="TEV6" s="2"/>
+      <c r="TEX6" s="2"/>
+      <c r="TEZ6" s="2"/>
+      <c r="TFB6" s="2"/>
+      <c r="TFD6" s="2"/>
+      <c r="TFF6" s="2"/>
+      <c r="TFH6" s="2"/>
+      <c r="TFJ6" s="2"/>
+      <c r="TFL6" s="2"/>
+      <c r="TFN6" s="2"/>
+      <c r="TFP6" s="2"/>
+      <c r="TFR6" s="2"/>
+      <c r="TFT6" s="2"/>
+      <c r="TFV6" s="2"/>
+      <c r="TFX6" s="2"/>
+      <c r="TFZ6" s="2"/>
+      <c r="TGB6" s="2"/>
+      <c r="TGD6" s="2"/>
+      <c r="TGF6" s="2"/>
+      <c r="TGH6" s="2"/>
+      <c r="TGJ6" s="2"/>
+      <c r="TGL6" s="2"/>
+      <c r="TGN6" s="2"/>
+      <c r="TGP6" s="2"/>
+      <c r="TGR6" s="2"/>
+      <c r="TGT6" s="2"/>
+      <c r="TGV6" s="2"/>
+      <c r="TGX6" s="2"/>
+      <c r="TGZ6" s="2"/>
+      <c r="THB6" s="2"/>
+      <c r="THD6" s="2"/>
+      <c r="THF6" s="2"/>
+      <c r="THH6" s="2"/>
+      <c r="THJ6" s="2"/>
+      <c r="THL6" s="2"/>
+      <c r="THN6" s="2"/>
+      <c r="THP6" s="2"/>
+      <c r="THR6" s="2"/>
+      <c r="THT6" s="2"/>
+      <c r="THV6" s="2"/>
+      <c r="THX6" s="2"/>
+      <c r="THZ6" s="2"/>
+      <c r="TIB6" s="2"/>
+      <c r="TID6" s="2"/>
+      <c r="TIF6" s="2"/>
+      <c r="TIH6" s="2"/>
+      <c r="TIJ6" s="2"/>
+      <c r="TIL6" s="2"/>
+      <c r="TIN6" s="2"/>
+      <c r="TIP6" s="2"/>
+      <c r="TIR6" s="2"/>
+      <c r="TIT6" s="2"/>
+      <c r="TIV6" s="2"/>
+      <c r="TIX6" s="2"/>
+      <c r="TIZ6" s="2"/>
+      <c r="TJB6" s="2"/>
+      <c r="TJD6" s="2"/>
+      <c r="TJF6" s="2"/>
+      <c r="TJH6" s="2"/>
+      <c r="TJJ6" s="2"/>
+      <c r="TJL6" s="2"/>
+      <c r="TJN6" s="2"/>
+      <c r="TJP6" s="2"/>
+      <c r="TJR6" s="2"/>
+      <c r="TJT6" s="2"/>
+      <c r="TJV6" s="2"/>
+      <c r="TJX6" s="2"/>
+      <c r="TJZ6" s="2"/>
+      <c r="TKB6" s="2"/>
+      <c r="TKD6" s="2"/>
+      <c r="TKF6" s="2"/>
+      <c r="TKH6" s="2"/>
+      <c r="TKJ6" s="2"/>
+      <c r="TKL6" s="2"/>
+      <c r="TKN6" s="2"/>
+      <c r="TKP6" s="2"/>
+      <c r="TKR6" s="2"/>
+      <c r="TKT6" s="2"/>
+      <c r="TKV6" s="2"/>
+      <c r="TKX6" s="2"/>
+      <c r="TKZ6" s="2"/>
+      <c r="TLB6" s="2"/>
+      <c r="TLD6" s="2"/>
+      <c r="TLF6" s="2"/>
+      <c r="TLH6" s="2"/>
+      <c r="TLJ6" s="2"/>
+      <c r="TLL6" s="2"/>
+      <c r="TLN6" s="2"/>
+      <c r="TLP6" s="2"/>
+      <c r="TLR6" s="2"/>
+      <c r="TLT6" s="2"/>
+      <c r="TLV6" s="2"/>
+      <c r="TLX6" s="2"/>
+      <c r="TLZ6" s="2"/>
+      <c r="TMB6" s="2"/>
+      <c r="TMD6" s="2"/>
+      <c r="TMF6" s="2"/>
+      <c r="TMH6" s="2"/>
+      <c r="TMJ6" s="2"/>
+      <c r="TML6" s="2"/>
+      <c r="TMN6" s="2"/>
+      <c r="TMP6" s="2"/>
+      <c r="TMR6" s="2"/>
+      <c r="TMT6" s="2"/>
+      <c r="TMV6" s="2"/>
+      <c r="TMX6" s="2"/>
+      <c r="TMZ6" s="2"/>
+      <c r="TNB6" s="2"/>
+      <c r="TND6" s="2"/>
+      <c r="TNF6" s="2"/>
+      <c r="TNH6" s="2"/>
+      <c r="TNJ6" s="2"/>
+      <c r="TNL6" s="2"/>
+      <c r="TNN6" s="2"/>
+      <c r="TNP6" s="2"/>
+      <c r="TNR6" s="2"/>
+      <c r="TNT6" s="2"/>
+      <c r="TNV6" s="2"/>
+      <c r="TNX6" s="2"/>
+      <c r="TNZ6" s="2"/>
+      <c r="TOB6" s="2"/>
+      <c r="TOD6" s="2"/>
+      <c r="TOF6" s="2"/>
+      <c r="TOH6" s="2"/>
+      <c r="TOJ6" s="2"/>
+      <c r="TOL6" s="2"/>
+      <c r="TON6" s="2"/>
+      <c r="TOP6" s="2"/>
+      <c r="TOR6" s="2"/>
+      <c r="TOT6" s="2"/>
+      <c r="TOV6" s="2"/>
+      <c r="TOX6" s="2"/>
+      <c r="TOZ6" s="2"/>
+      <c r="TPB6" s="2"/>
+      <c r="TPD6" s="2"/>
+      <c r="TPF6" s="2"/>
+      <c r="TPH6" s="2"/>
+      <c r="TPJ6" s="2"/>
+      <c r="TPL6" s="2"/>
+      <c r="TPN6" s="2"/>
+      <c r="TPP6" s="2"/>
+      <c r="TPR6" s="2"/>
+      <c r="TPT6" s="2"/>
+      <c r="TPV6" s="2"/>
+      <c r="TPX6" s="2"/>
+      <c r="TPZ6" s="2"/>
+      <c r="TQB6" s="2"/>
+      <c r="TQD6" s="2"/>
+      <c r="TQF6" s="2"/>
+      <c r="TQH6" s="2"/>
+      <c r="TQJ6" s="2"/>
+      <c r="TQL6" s="2"/>
+      <c r="TQN6" s="2"/>
+      <c r="TQP6" s="2"/>
+      <c r="TQR6" s="2"/>
+      <c r="TQT6" s="2"/>
+      <c r="TQV6" s="2"/>
+      <c r="TQX6" s="2"/>
+      <c r="TQZ6" s="2"/>
+      <c r="TRB6" s="2"/>
+      <c r="TRD6" s="2"/>
+      <c r="TRF6" s="2"/>
+      <c r="TRH6" s="2"/>
+      <c r="TRJ6" s="2"/>
+      <c r="TRL6" s="2"/>
+      <c r="TRN6" s="2"/>
+      <c r="TRP6" s="2"/>
+      <c r="TRR6" s="2"/>
+      <c r="TRT6" s="2"/>
+      <c r="TRV6" s="2"/>
+      <c r="TRX6" s="2"/>
+      <c r="TRZ6" s="2"/>
+      <c r="TSB6" s="2"/>
+      <c r="TSD6" s="2"/>
+      <c r="TSF6" s="2"/>
+      <c r="TSH6" s="2"/>
+      <c r="TSJ6" s="2"/>
+      <c r="TSL6" s="2"/>
+      <c r="TSN6" s="2"/>
+      <c r="TSP6" s="2"/>
+      <c r="TSR6" s="2"/>
+      <c r="TST6" s="2"/>
+      <c r="TSV6" s="2"/>
+      <c r="TSX6" s="2"/>
+      <c r="TSZ6" s="2"/>
+      <c r="TTB6" s="2"/>
+      <c r="TTD6" s="2"/>
+      <c r="TTF6" s="2"/>
+      <c r="TTH6" s="2"/>
+      <c r="TTJ6" s="2"/>
+      <c r="TTL6" s="2"/>
+      <c r="TTN6" s="2"/>
+      <c r="TTP6" s="2"/>
+      <c r="TTR6" s="2"/>
+      <c r="TTT6" s="2"/>
+      <c r="TTV6" s="2"/>
+      <c r="TTX6" s="2"/>
+      <c r="TTZ6" s="2"/>
+      <c r="TUB6" s="2"/>
+      <c r="TUD6" s="2"/>
+      <c r="TUF6" s="2"/>
+      <c r="TUH6" s="2"/>
+      <c r="TUJ6" s="2"/>
+      <c r="TUL6" s="2"/>
+      <c r="TUN6" s="2"/>
+      <c r="TUP6" s="2"/>
+      <c r="TUR6" s="2"/>
+      <c r="TUT6" s="2"/>
+      <c r="TUV6" s="2"/>
+      <c r="TUX6" s="2"/>
+      <c r="TUZ6" s="2"/>
+      <c r="TVB6" s="2"/>
+      <c r="TVD6" s="2"/>
+      <c r="TVF6" s="2"/>
+      <c r="TVH6" s="2"/>
+      <c r="TVJ6" s="2"/>
+      <c r="TVL6" s="2"/>
+      <c r="TVN6" s="2"/>
+      <c r="TVP6" s="2"/>
+      <c r="TVR6" s="2"/>
+      <c r="TVT6" s="2"/>
+      <c r="TVV6" s="2"/>
+      <c r="TVX6" s="2"/>
+      <c r="TVZ6" s="2"/>
+      <c r="TWB6" s="2"/>
+      <c r="TWD6" s="2"/>
+      <c r="TWF6" s="2"/>
+      <c r="TWH6" s="2"/>
+      <c r="TWJ6" s="2"/>
+      <c r="TWL6" s="2"/>
+      <c r="TWN6" s="2"/>
+      <c r="TWP6" s="2"/>
+      <c r="TWR6" s="2"/>
+      <c r="TWT6" s="2"/>
+      <c r="TWV6" s="2"/>
+      <c r="TWX6" s="2"/>
+      <c r="TWZ6" s="2"/>
+      <c r="TXB6" s="2"/>
+      <c r="TXD6" s="2"/>
+      <c r="TXF6" s="2"/>
+      <c r="TXH6" s="2"/>
+      <c r="TXJ6" s="2"/>
+      <c r="TXL6" s="2"/>
+      <c r="TXN6" s="2"/>
+      <c r="TXP6" s="2"/>
+      <c r="TXR6" s="2"/>
+      <c r="TXT6" s="2"/>
+      <c r="TXV6" s="2"/>
+      <c r="TXX6" s="2"/>
+      <c r="TXZ6" s="2"/>
+      <c r="TYB6" s="2"/>
+      <c r="TYD6" s="2"/>
+      <c r="TYF6" s="2"/>
+      <c r="TYH6" s="2"/>
+      <c r="TYJ6" s="2"/>
+      <c r="TYL6" s="2"/>
+      <c r="TYN6" s="2"/>
+      <c r="TYP6" s="2"/>
+      <c r="TYR6" s="2"/>
+      <c r="TYT6" s="2"/>
+      <c r="TYV6" s="2"/>
+      <c r="TYX6" s="2"/>
+      <c r="TYZ6" s="2"/>
+      <c r="TZB6" s="2"/>
+      <c r="TZD6" s="2"/>
+      <c r="TZF6" s="2"/>
+      <c r="TZH6" s="2"/>
+      <c r="TZJ6" s="2"/>
+      <c r="TZL6" s="2"/>
+      <c r="TZN6" s="2"/>
+      <c r="TZP6" s="2"/>
+      <c r="TZR6" s="2"/>
+      <c r="TZT6" s="2"/>
+      <c r="TZV6" s="2"/>
+      <c r="TZX6" s="2"/>
+      <c r="TZZ6" s="2"/>
+      <c r="UAB6" s="2"/>
+      <c r="UAD6" s="2"/>
+      <c r="UAF6" s="2"/>
+      <c r="UAH6" s="2"/>
+      <c r="UAJ6" s="2"/>
+      <c r="UAL6" s="2"/>
+      <c r="UAN6" s="2"/>
+      <c r="UAP6" s="2"/>
+      <c r="UAR6" s="2"/>
+      <c r="UAT6" s="2"/>
+      <c r="UAV6" s="2"/>
+      <c r="UAX6" s="2"/>
+      <c r="UAZ6" s="2"/>
+      <c r="UBB6" s="2"/>
+      <c r="UBD6" s="2"/>
+      <c r="UBF6" s="2"/>
+      <c r="UBH6" s="2"/>
+      <c r="UBJ6" s="2"/>
+      <c r="UBL6" s="2"/>
+      <c r="UBN6" s="2"/>
+      <c r="UBP6" s="2"/>
+      <c r="UBR6" s="2"/>
+      <c r="UBT6" s="2"/>
+      <c r="UBV6" s="2"/>
+      <c r="UBX6" s="2"/>
+      <c r="UBZ6" s="2"/>
+      <c r="UCB6" s="2"/>
+      <c r="UCD6" s="2"/>
+      <c r="UCF6" s="2"/>
+      <c r="UCH6" s="2"/>
+      <c r="UCJ6" s="2"/>
+      <c r="UCL6" s="2"/>
+      <c r="UCN6" s="2"/>
+      <c r="UCP6" s="2"/>
+      <c r="UCR6" s="2"/>
+      <c r="UCT6" s="2"/>
+      <c r="UCV6" s="2"/>
+      <c r="UCX6" s="2"/>
+      <c r="UCZ6" s="2"/>
+      <c r="UDB6" s="2"/>
+      <c r="UDD6" s="2"/>
+      <c r="UDF6" s="2"/>
+      <c r="UDH6" s="2"/>
+      <c r="UDJ6" s="2"/>
+      <c r="UDL6" s="2"/>
+      <c r="UDN6" s="2"/>
+      <c r="UDP6" s="2"/>
+      <c r="UDR6" s="2"/>
+      <c r="UDT6" s="2"/>
+      <c r="UDV6" s="2"/>
+      <c r="UDX6" s="2"/>
+      <c r="UDZ6" s="2"/>
+      <c r="UEB6" s="2"/>
+      <c r="UED6" s="2"/>
+      <c r="UEF6" s="2"/>
+      <c r="UEH6" s="2"/>
+      <c r="UEJ6" s="2"/>
+      <c r="UEL6" s="2"/>
+      <c r="UEN6" s="2"/>
+      <c r="UEP6" s="2"/>
+      <c r="UER6" s="2"/>
+      <c r="UET6" s="2"/>
+      <c r="UEV6" s="2"/>
+      <c r="UEX6" s="2"/>
+      <c r="UEZ6" s="2"/>
+      <c r="UFB6" s="2"/>
+      <c r="UFD6" s="2"/>
+      <c r="UFF6" s="2"/>
+      <c r="UFH6" s="2"/>
+      <c r="UFJ6" s="2"/>
+      <c r="UFL6" s="2"/>
+      <c r="UFN6" s="2"/>
+      <c r="UFP6" s="2"/>
+      <c r="UFR6" s="2"/>
+      <c r="UFT6" s="2"/>
+      <c r="UFV6" s="2"/>
+      <c r="UFX6" s="2"/>
+      <c r="UFZ6" s="2"/>
+      <c r="UGB6" s="2"/>
+      <c r="UGD6" s="2"/>
+      <c r="UGF6" s="2"/>
+      <c r="UGH6" s="2"/>
+      <c r="UGJ6" s="2"/>
+      <c r="UGL6" s="2"/>
+      <c r="UGN6" s="2"/>
+      <c r="UGP6" s="2"/>
+      <c r="UGR6" s="2"/>
+      <c r="UGT6" s="2"/>
+      <c r="UGV6" s="2"/>
+      <c r="UGX6" s="2"/>
+      <c r="UGZ6" s="2"/>
+      <c r="UHB6" s="2"/>
+      <c r="UHD6" s="2"/>
+      <c r="UHF6" s="2"/>
+      <c r="UHH6" s="2"/>
+      <c r="UHJ6" s="2"/>
+      <c r="UHL6" s="2"/>
+      <c r="UHN6" s="2"/>
+      <c r="UHP6" s="2"/>
+      <c r="UHR6" s="2"/>
+      <c r="UHT6" s="2"/>
+      <c r="UHV6" s="2"/>
+      <c r="UHX6" s="2"/>
+      <c r="UHZ6" s="2"/>
+      <c r="UIB6" s="2"/>
+      <c r="UID6" s="2"/>
+      <c r="UIF6" s="2"/>
+      <c r="UIH6" s="2"/>
+      <c r="UIJ6" s="2"/>
+      <c r="UIL6" s="2"/>
+      <c r="UIN6" s="2"/>
+      <c r="UIP6" s="2"/>
+      <c r="UIR6" s="2"/>
+      <c r="UIT6" s="2"/>
+      <c r="UIV6" s="2"/>
+      <c r="UIX6" s="2"/>
+      <c r="UIZ6" s="2"/>
+      <c r="UJB6" s="2"/>
+      <c r="UJD6" s="2"/>
+      <c r="UJF6" s="2"/>
+      <c r="UJH6" s="2"/>
+      <c r="UJJ6" s="2"/>
+      <c r="UJL6" s="2"/>
+      <c r="UJN6" s="2"/>
+      <c r="UJP6" s="2"/>
+      <c r="UJR6" s="2"/>
+      <c r="UJT6" s="2"/>
+      <c r="UJV6" s="2"/>
+      <c r="UJX6" s="2"/>
+      <c r="UJZ6" s="2"/>
+      <c r="UKB6" s="2"/>
+      <c r="UKD6" s="2"/>
+      <c r="UKF6" s="2"/>
+      <c r="UKH6" s="2"/>
+      <c r="UKJ6" s="2"/>
+      <c r="UKL6" s="2"/>
+      <c r="UKN6" s="2"/>
+      <c r="UKP6" s="2"/>
+      <c r="UKR6" s="2"/>
+      <c r="UKT6" s="2"/>
+      <c r="UKV6" s="2"/>
+      <c r="UKX6" s="2"/>
+      <c r="UKZ6" s="2"/>
+      <c r="ULB6" s="2"/>
+      <c r="ULD6" s="2"/>
+      <c r="ULF6" s="2"/>
+      <c r="ULH6" s="2"/>
+      <c r="ULJ6" s="2"/>
+      <c r="ULL6" s="2"/>
+      <c r="ULN6" s="2"/>
+      <c r="ULP6" s="2"/>
+      <c r="ULR6" s="2"/>
+      <c r="ULT6" s="2"/>
+      <c r="ULV6" s="2"/>
+      <c r="ULX6" s="2"/>
+      <c r="ULZ6" s="2"/>
+      <c r="UMB6" s="2"/>
+      <c r="UMD6" s="2"/>
+      <c r="UMF6" s="2"/>
+      <c r="UMH6" s="2"/>
+      <c r="UMJ6" s="2"/>
+      <c r="UML6" s="2"/>
+      <c r="UMN6" s="2"/>
+      <c r="UMP6" s="2"/>
+      <c r="UMR6" s="2"/>
+      <c r="UMT6" s="2"/>
+      <c r="UMV6" s="2"/>
+      <c r="UMX6" s="2"/>
+      <c r="UMZ6" s="2"/>
+      <c r="UNB6" s="2"/>
+      <c r="UND6" s="2"/>
+      <c r="UNF6" s="2"/>
+      <c r="UNH6" s="2"/>
+      <c r="UNJ6" s="2"/>
+      <c r="UNL6" s="2"/>
+      <c r="UNN6" s="2"/>
+      <c r="UNP6" s="2"/>
+      <c r="UNR6" s="2"/>
+      <c r="UNT6" s="2"/>
+      <c r="UNV6" s="2"/>
+      <c r="UNX6" s="2"/>
+      <c r="UNZ6" s="2"/>
+      <c r="UOB6" s="2"/>
+      <c r="UOD6" s="2"/>
+      <c r="UOF6" s="2"/>
+      <c r="UOH6" s="2"/>
+      <c r="UOJ6" s="2"/>
+      <c r="UOL6" s="2"/>
+      <c r="UON6" s="2"/>
+      <c r="UOP6" s="2"/>
+      <c r="UOR6" s="2"/>
+      <c r="UOT6" s="2"/>
+      <c r="UOV6" s="2"/>
+      <c r="UOX6" s="2"/>
+      <c r="UOZ6" s="2"/>
+      <c r="UPB6" s="2"/>
+      <c r="UPD6" s="2"/>
+      <c r="UPF6" s="2"/>
+      <c r="UPH6" s="2"/>
+      <c r="UPJ6" s="2"/>
+      <c r="UPL6" s="2"/>
+      <c r="UPN6" s="2"/>
+      <c r="UPP6" s="2"/>
+      <c r="UPR6" s="2"/>
+      <c r="UPT6" s="2"/>
+      <c r="UPV6" s="2"/>
+      <c r="UPX6" s="2"/>
+      <c r="UPZ6" s="2"/>
+      <c r="UQB6" s="2"/>
+      <c r="UQD6" s="2"/>
+      <c r="UQF6" s="2"/>
+      <c r="UQH6" s="2"/>
+      <c r="UQJ6" s="2"/>
+      <c r="UQL6" s="2"/>
+      <c r="UQN6" s="2"/>
+      <c r="UQP6" s="2"/>
+      <c r="UQR6" s="2"/>
+      <c r="UQT6" s="2"/>
+      <c r="UQV6" s="2"/>
+      <c r="UQX6" s="2"/>
+      <c r="UQZ6" s="2"/>
+      <c r="URB6" s="2"/>
+      <c r="URD6" s="2"/>
+      <c r="URF6" s="2"/>
+      <c r="URH6" s="2"/>
+      <c r="URJ6" s="2"/>
+      <c r="URL6" s="2"/>
+      <c r="URN6" s="2"/>
+      <c r="URP6" s="2"/>
+      <c r="URR6" s="2"/>
+      <c r="URT6" s="2"/>
+      <c r="URV6" s="2"/>
+      <c r="URX6" s="2"/>
+      <c r="URZ6" s="2"/>
+      <c r="USB6" s="2"/>
+      <c r="USD6" s="2"/>
+      <c r="USF6" s="2"/>
+      <c r="USH6" s="2"/>
+      <c r="USJ6" s="2"/>
+      <c r="USL6" s="2"/>
+      <c r="USN6" s="2"/>
+      <c r="USP6" s="2"/>
+      <c r="USR6" s="2"/>
+      <c r="UST6" s="2"/>
+      <c r="USV6" s="2"/>
+      <c r="USX6" s="2"/>
+      <c r="USZ6" s="2"/>
+      <c r="UTB6" s="2"/>
+      <c r="UTD6" s="2"/>
+      <c r="UTF6" s="2"/>
+      <c r="UTH6" s="2"/>
+      <c r="UTJ6" s="2"/>
+      <c r="UTL6" s="2"/>
+      <c r="UTN6" s="2"/>
+      <c r="UTP6" s="2"/>
+      <c r="UTR6" s="2"/>
+      <c r="UTT6" s="2"/>
+      <c r="UTV6" s="2"/>
+      <c r="UTX6" s="2"/>
+      <c r="UTZ6" s="2"/>
+      <c r="UUB6" s="2"/>
+      <c r="UUD6" s="2"/>
+      <c r="UUF6" s="2"/>
+      <c r="UUH6" s="2"/>
+      <c r="UUJ6" s="2"/>
+      <c r="UUL6" s="2"/>
+      <c r="UUN6" s="2"/>
+      <c r="UUP6" s="2"/>
+      <c r="UUR6" s="2"/>
+      <c r="UUT6" s="2"/>
+      <c r="UUV6" s="2"/>
+      <c r="UUX6" s="2"/>
+      <c r="UUZ6" s="2"/>
+      <c r="UVB6" s="2"/>
+      <c r="UVD6" s="2"/>
+      <c r="UVF6" s="2"/>
+      <c r="UVH6" s="2"/>
+      <c r="UVJ6" s="2"/>
+      <c r="UVL6" s="2"/>
+      <c r="UVN6" s="2"/>
+      <c r="UVP6" s="2"/>
+      <c r="UVR6" s="2"/>
+      <c r="UVT6" s="2"/>
+      <c r="UVV6" s="2"/>
+      <c r="UVX6" s="2"/>
+      <c r="UVZ6" s="2"/>
+      <c r="UWB6" s="2"/>
+      <c r="UWD6" s="2"/>
+      <c r="UWF6" s="2"/>
+      <c r="UWH6" s="2"/>
+      <c r="UWJ6" s="2"/>
+      <c r="UWL6" s="2"/>
+      <c r="UWN6" s="2"/>
+      <c r="UWP6" s="2"/>
+      <c r="UWR6" s="2"/>
+      <c r="UWT6" s="2"/>
+      <c r="UWV6" s="2"/>
+      <c r="UWX6" s="2"/>
+      <c r="UWZ6" s="2"/>
+      <c r="UXB6" s="2"/>
+      <c r="UXD6" s="2"/>
+      <c r="UXF6" s="2"/>
+      <c r="UXH6" s="2"/>
+      <c r="UXJ6" s="2"/>
+      <c r="UXL6" s="2"/>
+      <c r="UXN6" s="2"/>
+      <c r="UXP6" s="2"/>
+      <c r="UXR6" s="2"/>
+      <c r="UXT6" s="2"/>
+      <c r="UXV6" s="2"/>
+      <c r="UXX6" s="2"/>
+      <c r="UXZ6" s="2"/>
+      <c r="UYB6" s="2"/>
+      <c r="UYD6" s="2"/>
+      <c r="UYF6" s="2"/>
+      <c r="UYH6" s="2"/>
+      <c r="UYJ6" s="2"/>
+      <c r="UYL6" s="2"/>
+      <c r="UYN6" s="2"/>
+      <c r="UYP6" s="2"/>
+      <c r="UYR6" s="2"/>
+      <c r="UYT6" s="2"/>
+      <c r="UYV6" s="2"/>
+      <c r="UYX6" s="2"/>
+      <c r="UYZ6" s="2"/>
+      <c r="UZB6" s="2"/>
+      <c r="UZD6" s="2"/>
+      <c r="UZF6" s="2"/>
+      <c r="UZH6" s="2"/>
+      <c r="UZJ6" s="2"/>
+      <c r="UZL6" s="2"/>
+      <c r="UZN6" s="2"/>
+      <c r="UZP6" s="2"/>
+      <c r="UZR6" s="2"/>
+      <c r="UZT6" s="2"/>
+      <c r="UZV6" s="2"/>
+      <c r="UZX6" s="2"/>
+      <c r="UZZ6" s="2"/>
+      <c r="VAB6" s="2"/>
+      <c r="VAD6" s="2"/>
+      <c r="VAF6" s="2"/>
+      <c r="VAH6" s="2"/>
+      <c r="VAJ6" s="2"/>
+      <c r="VAL6" s="2"/>
+      <c r="VAN6" s="2"/>
+      <c r="VAP6" s="2"/>
+      <c r="VAR6" s="2"/>
+      <c r="VAT6" s="2"/>
+      <c r="VAV6" s="2"/>
+      <c r="VAX6" s="2"/>
+      <c r="VAZ6" s="2"/>
+      <c r="VBB6" s="2"/>
+      <c r="VBD6" s="2"/>
+      <c r="VBF6" s="2"/>
+      <c r="VBH6" s="2"/>
+      <c r="VBJ6" s="2"/>
+      <c r="VBL6" s="2"/>
+      <c r="VBN6" s="2"/>
+      <c r="VBP6" s="2"/>
+      <c r="VBR6" s="2"/>
+      <c r="VBT6" s="2"/>
+      <c r="VBV6" s="2"/>
+      <c r="VBX6" s="2"/>
+      <c r="VBZ6" s="2"/>
+      <c r="VCB6" s="2"/>
+      <c r="VCD6" s="2"/>
+      <c r="VCF6" s="2"/>
+      <c r="VCH6" s="2"/>
+      <c r="VCJ6" s="2"/>
+      <c r="VCL6" s="2"/>
+      <c r="VCN6" s="2"/>
+      <c r="VCP6" s="2"/>
+      <c r="VCR6" s="2"/>
+      <c r="VCT6" s="2"/>
+      <c r="VCV6" s="2"/>
+      <c r="VCX6" s="2"/>
+      <c r="VCZ6" s="2"/>
+      <c r="VDB6" s="2"/>
+      <c r="VDD6" s="2"/>
+      <c r="VDF6" s="2"/>
+      <c r="VDH6" s="2"/>
+      <c r="VDJ6" s="2"/>
+      <c r="VDL6" s="2"/>
+      <c r="VDN6" s="2"/>
+      <c r="VDP6" s="2"/>
+      <c r="VDR6" s="2"/>
+      <c r="VDT6" s="2"/>
+      <c r="VDV6" s="2"/>
+      <c r="VDX6" s="2"/>
+      <c r="VDZ6" s="2"/>
+      <c r="VEB6" s="2"/>
+      <c r="VED6" s="2"/>
+      <c r="VEF6" s="2"/>
+      <c r="VEH6" s="2"/>
+      <c r="VEJ6" s="2"/>
+      <c r="VEL6" s="2"/>
+      <c r="VEN6" s="2"/>
+      <c r="VEP6" s="2"/>
+      <c r="VER6" s="2"/>
+      <c r="VET6" s="2"/>
+      <c r="VEV6" s="2"/>
+      <c r="VEX6" s="2"/>
+      <c r="VEZ6" s="2"/>
+      <c r="VFB6" s="2"/>
+      <c r="VFD6" s="2"/>
+      <c r="VFF6" s="2"/>
+      <c r="VFH6" s="2"/>
+      <c r="VFJ6" s="2"/>
+      <c r="VFL6" s="2"/>
+      <c r="VFN6" s="2"/>
+      <c r="VFP6" s="2"/>
+      <c r="VFR6" s="2"/>
+      <c r="VFT6" s="2"/>
+      <c r="VFV6" s="2"/>
+      <c r="VFX6" s="2"/>
+      <c r="VFZ6" s="2"/>
+      <c r="VGB6" s="2"/>
+      <c r="VGD6" s="2"/>
+      <c r="VGF6" s="2"/>
+      <c r="VGH6" s="2"/>
+      <c r="VGJ6" s="2"/>
+      <c r="VGL6" s="2"/>
+      <c r="VGN6" s="2"/>
+      <c r="VGP6" s="2"/>
+      <c r="VGR6" s="2"/>
+      <c r="VGT6" s="2"/>
+      <c r="VGV6" s="2"/>
+      <c r="VGX6" s="2"/>
+      <c r="VGZ6" s="2"/>
+      <c r="VHB6" s="2"/>
+      <c r="VHD6" s="2"/>
+      <c r="VHF6" s="2"/>
+      <c r="VHH6" s="2"/>
+      <c r="VHJ6" s="2"/>
+      <c r="VHL6" s="2"/>
+      <c r="VHN6" s="2"/>
+      <c r="VHP6" s="2"/>
+      <c r="VHR6" s="2"/>
+      <c r="VHT6" s="2"/>
+      <c r="VHV6" s="2"/>
+      <c r="VHX6" s="2"/>
+      <c r="VHZ6" s="2"/>
+      <c r="VIB6" s="2"/>
+      <c r="VID6" s="2"/>
+      <c r="VIF6" s="2"/>
+      <c r="VIH6" s="2"/>
+      <c r="VIJ6" s="2"/>
+      <c r="VIL6" s="2"/>
+      <c r="VIN6" s="2"/>
+      <c r="VIP6" s="2"/>
+      <c r="VIR6" s="2"/>
+      <c r="VIT6" s="2"/>
+      <c r="VIV6" s="2"/>
+      <c r="VIX6" s="2"/>
+      <c r="VIZ6" s="2"/>
+      <c r="VJB6" s="2"/>
+      <c r="VJD6" s="2"/>
+      <c r="VJF6" s="2"/>
+      <c r="VJH6" s="2"/>
+      <c r="VJJ6" s="2"/>
+      <c r="VJL6" s="2"/>
+      <c r="VJN6" s="2"/>
+      <c r="VJP6" s="2"/>
+      <c r="VJR6" s="2"/>
+      <c r="VJT6" s="2"/>
+      <c r="VJV6" s="2"/>
+      <c r="VJX6" s="2"/>
+      <c r="VJZ6" s="2"/>
+      <c r="VKB6" s="2"/>
+      <c r="VKD6" s="2"/>
+      <c r="VKF6" s="2"/>
+      <c r="VKH6" s="2"/>
+      <c r="VKJ6" s="2"/>
+      <c r="VKL6" s="2"/>
+      <c r="VKN6" s="2"/>
+      <c r="VKP6" s="2"/>
+      <c r="VKR6" s="2"/>
+      <c r="VKT6" s="2"/>
+      <c r="VKV6" s="2"/>
+      <c r="VKX6" s="2"/>
+      <c r="VKZ6" s="2"/>
+      <c r="VLB6" s="2"/>
+      <c r="VLD6" s="2"/>
+      <c r="VLF6" s="2"/>
+      <c r="VLH6" s="2"/>
+      <c r="VLJ6" s="2"/>
+      <c r="VLL6" s="2"/>
+      <c r="VLN6" s="2"/>
+      <c r="VLP6" s="2"/>
+      <c r="VLR6" s="2"/>
+      <c r="VLT6" s="2"/>
+      <c r="VLV6" s="2"/>
+      <c r="VLX6" s="2"/>
+      <c r="VLZ6" s="2"/>
+      <c r="VMB6" s="2"/>
+      <c r="VMD6" s="2"/>
+      <c r="VMF6" s="2"/>
+      <c r="VMH6" s="2"/>
+      <c r="VMJ6" s="2"/>
+      <c r="VML6" s="2"/>
+      <c r="VMN6" s="2"/>
+      <c r="VMP6" s="2"/>
+      <c r="VMR6" s="2"/>
+      <c r="VMT6" s="2"/>
+      <c r="VMV6" s="2"/>
+      <c r="VMX6" s="2"/>
+      <c r="VMZ6" s="2"/>
+      <c r="VNB6" s="2"/>
+      <c r="VND6" s="2"/>
+      <c r="VNF6" s="2"/>
+      <c r="VNH6" s="2"/>
+      <c r="VNJ6" s="2"/>
+      <c r="VNL6" s="2"/>
+      <c r="VNN6" s="2"/>
+      <c r="VNP6" s="2"/>
+      <c r="VNR6" s="2"/>
+      <c r="VNT6" s="2"/>
+      <c r="VNV6" s="2"/>
+      <c r="VNX6" s="2"/>
+      <c r="VNZ6" s="2"/>
+      <c r="VOB6" s="2"/>
+      <c r="VOD6" s="2"/>
+      <c r="VOF6" s="2"/>
+      <c r="VOH6" s="2"/>
+      <c r="VOJ6" s="2"/>
+      <c r="VOL6" s="2"/>
+      <c r="VON6" s="2"/>
+      <c r="VOP6" s="2"/>
+      <c r="VOR6" s="2"/>
+      <c r="VOT6" s="2"/>
+      <c r="VOV6" s="2"/>
+      <c r="VOX6" s="2"/>
+      <c r="VOZ6" s="2"/>
+      <c r="VPB6" s="2"/>
+      <c r="VPD6" s="2"/>
+      <c r="VPF6" s="2"/>
+      <c r="VPH6" s="2"/>
+      <c r="VPJ6" s="2"/>
+      <c r="VPL6" s="2"/>
+      <c r="VPN6" s="2"/>
+      <c r="VPP6" s="2"/>
+      <c r="VPR6" s="2"/>
+      <c r="VPT6" s="2"/>
+      <c r="VPV6" s="2"/>
+      <c r="VPX6" s="2"/>
+      <c r="VPZ6" s="2"/>
+      <c r="VQB6" s="2"/>
+      <c r="VQD6" s="2"/>
+      <c r="VQF6" s="2"/>
+      <c r="VQH6" s="2"/>
+      <c r="VQJ6" s="2"/>
+      <c r="VQL6" s="2"/>
+      <c r="VQN6" s="2"/>
+      <c r="VQP6" s="2"/>
+      <c r="VQR6" s="2"/>
+      <c r="VQT6" s="2"/>
+      <c r="VQV6" s="2"/>
+      <c r="VQX6" s="2"/>
+      <c r="VQZ6" s="2"/>
+      <c r="VRB6" s="2"/>
+      <c r="VRD6" s="2"/>
+      <c r="VRF6" s="2"/>
+      <c r="VRH6" s="2"/>
+      <c r="VRJ6" s="2"/>
+      <c r="VRL6" s="2"/>
+      <c r="VRN6" s="2"/>
+      <c r="VRP6" s="2"/>
+      <c r="VRR6" s="2"/>
+      <c r="VRT6" s="2"/>
+      <c r="VRV6" s="2"/>
+      <c r="VRX6" s="2"/>
+      <c r="VRZ6" s="2"/>
+      <c r="VSB6" s="2"/>
+      <c r="VSD6" s="2"/>
+      <c r="VSF6" s="2"/>
+      <c r="VSH6" s="2"/>
+      <c r="VSJ6" s="2"/>
+      <c r="VSL6" s="2"/>
+      <c r="VSN6" s="2"/>
+      <c r="VSP6" s="2"/>
+      <c r="VSR6" s="2"/>
+      <c r="VST6" s="2"/>
+      <c r="VSV6" s="2"/>
+      <c r="VSX6" s="2"/>
+      <c r="VSZ6" s="2"/>
+      <c r="VTB6" s="2"/>
+      <c r="VTD6" s="2"/>
+      <c r="VTF6" s="2"/>
+      <c r="VTH6" s="2"/>
+      <c r="VTJ6" s="2"/>
+      <c r="VTL6" s="2"/>
+      <c r="VTN6" s="2"/>
+      <c r="VTP6" s="2"/>
+      <c r="VTR6" s="2"/>
+      <c r="VTT6" s="2"/>
+      <c r="VTV6" s="2"/>
+      <c r="VTX6" s="2"/>
+      <c r="VTZ6" s="2"/>
+      <c r="VUB6" s="2"/>
+      <c r="VUD6" s="2"/>
+      <c r="VUF6" s="2"/>
+      <c r="VUH6" s="2"/>
+      <c r="VUJ6" s="2"/>
+      <c r="VUL6" s="2"/>
+      <c r="VUN6" s="2"/>
+      <c r="VUP6" s="2"/>
+      <c r="VUR6" s="2"/>
+      <c r="VUT6" s="2"/>
+      <c r="VUV6" s="2"/>
+      <c r="VUX6" s="2"/>
+      <c r="VUZ6" s="2"/>
+      <c r="VVB6" s="2"/>
+      <c r="VVD6" s="2"/>
+      <c r="VVF6" s="2"/>
+      <c r="VVH6" s="2"/>
+      <c r="VVJ6" s="2"/>
+      <c r="VVL6" s="2"/>
+      <c r="VVN6" s="2"/>
+      <c r="VVP6" s="2"/>
+      <c r="VVR6" s="2"/>
+      <c r="VVT6" s="2"/>
+      <c r="VVV6" s="2"/>
+      <c r="VVX6" s="2"/>
+      <c r="VVZ6" s="2"/>
+      <c r="VWB6" s="2"/>
+      <c r="VWD6" s="2"/>
+      <c r="VWF6" s="2"/>
+      <c r="VWH6" s="2"/>
+      <c r="VWJ6" s="2"/>
+      <c r="VWL6" s="2"/>
+      <c r="VWN6" s="2"/>
+      <c r="VWP6" s="2"/>
+      <c r="VWR6" s="2"/>
+      <c r="VWT6" s="2"/>
+      <c r="VWV6" s="2"/>
+      <c r="VWX6" s="2"/>
+      <c r="VWZ6" s="2"/>
+      <c r="VXB6" s="2"/>
+      <c r="VXD6" s="2"/>
+      <c r="VXF6" s="2"/>
+      <c r="VXH6" s="2"/>
+      <c r="VXJ6" s="2"/>
+      <c r="VXL6" s="2"/>
+      <c r="VXN6" s="2"/>
+      <c r="VXP6" s="2"/>
+      <c r="VXR6" s="2"/>
+      <c r="VXT6" s="2"/>
+      <c r="VXV6" s="2"/>
+      <c r="VXX6" s="2"/>
+      <c r="VXZ6" s="2"/>
+      <c r="VYB6" s="2"/>
+      <c r="VYD6" s="2"/>
+      <c r="VYF6" s="2"/>
+      <c r="VYH6" s="2"/>
+      <c r="VYJ6" s="2"/>
+      <c r="VYL6" s="2"/>
+      <c r="VYN6" s="2"/>
+      <c r="VYP6" s="2"/>
+      <c r="VYR6" s="2"/>
+      <c r="VYT6" s="2"/>
+      <c r="VYV6" s="2"/>
+      <c r="VYX6" s="2"/>
+      <c r="VYZ6" s="2"/>
+      <c r="VZB6" s="2"/>
+      <c r="VZD6" s="2"/>
+      <c r="VZF6" s="2"/>
+      <c r="VZH6" s="2"/>
+      <c r="VZJ6" s="2"/>
+      <c r="VZL6" s="2"/>
+      <c r="VZN6" s="2"/>
+      <c r="VZP6" s="2"/>
+      <c r="VZR6" s="2"/>
+      <c r="VZT6" s="2"/>
+      <c r="VZV6" s="2"/>
+      <c r="VZX6" s="2"/>
+      <c r="VZZ6" s="2"/>
+      <c r="WAB6" s="2"/>
+      <c r="WAD6" s="2"/>
+      <c r="WAF6" s="2"/>
+      <c r="WAH6" s="2"/>
+      <c r="WAJ6" s="2"/>
+      <c r="WAL6" s="2"/>
+      <c r="WAN6" s="2"/>
+      <c r="WAP6" s="2"/>
+      <c r="WAR6" s="2"/>
+      <c r="WAT6" s="2"/>
+      <c r="WAV6" s="2"/>
+      <c r="WAX6" s="2"/>
+      <c r="WAZ6" s="2"/>
+      <c r="WBB6" s="2"/>
+      <c r="WBD6" s="2"/>
+      <c r="WBF6" s="2"/>
+      <c r="WBH6" s="2"/>
+      <c r="WBJ6" s="2"/>
+      <c r="WBL6" s="2"/>
+      <c r="WBN6" s="2"/>
+      <c r="WBP6" s="2"/>
+      <c r="WBR6" s="2"/>
+      <c r="WBT6" s="2"/>
+      <c r="WBV6" s="2"/>
+      <c r="WBX6" s="2"/>
+      <c r="WBZ6" s="2"/>
+      <c r="WCB6" s="2"/>
+      <c r="WCD6" s="2"/>
+      <c r="WCF6" s="2"/>
+      <c r="WCH6" s="2"/>
+      <c r="WCJ6" s="2"/>
+      <c r="WCL6" s="2"/>
+      <c r="WCN6" s="2"/>
+      <c r="WCP6" s="2"/>
+      <c r="WCR6" s="2"/>
+      <c r="WCT6" s="2"/>
+      <c r="WCV6" s="2"/>
+      <c r="WCX6" s="2"/>
+      <c r="WCZ6" s="2"/>
+      <c r="WDB6" s="2"/>
+      <c r="WDD6" s="2"/>
+      <c r="WDF6" s="2"/>
+      <c r="WDH6" s="2"/>
+      <c r="WDJ6" s="2"/>
+      <c r="WDL6" s="2"/>
+      <c r="WDN6" s="2"/>
+      <c r="WDP6" s="2"/>
+      <c r="WDR6" s="2"/>
+      <c r="WDT6" s="2"/>
+      <c r="WDV6" s="2"/>
+      <c r="WDX6" s="2"/>
+      <c r="WDZ6" s="2"/>
+      <c r="WEB6" s="2"/>
+      <c r="WED6" s="2"/>
+      <c r="WEF6" s="2"/>
+      <c r="WEH6" s="2"/>
+      <c r="WEJ6" s="2"/>
+      <c r="WEL6" s="2"/>
+      <c r="WEN6" s="2"/>
+      <c r="WEP6" s="2"/>
+      <c r="WER6" s="2"/>
+      <c r="WET6" s="2"/>
+      <c r="WEV6" s="2"/>
+      <c r="WEX6" s="2"/>
+      <c r="WEZ6" s="2"/>
+      <c r="WFB6" s="2"/>
+      <c r="WFD6" s="2"/>
+      <c r="WFF6" s="2"/>
+      <c r="WFH6" s="2"/>
+      <c r="WFJ6" s="2"/>
+      <c r="WFL6" s="2"/>
+      <c r="WFN6" s="2"/>
+      <c r="WFP6" s="2"/>
+      <c r="WFR6" s="2"/>
+      <c r="WFT6" s="2"/>
+      <c r="WFV6" s="2"/>
+      <c r="WFX6" s="2"/>
+      <c r="WFZ6" s="2"/>
+      <c r="WGB6" s="2"/>
+      <c r="WGD6" s="2"/>
+      <c r="WGF6" s="2"/>
+      <c r="WGH6" s="2"/>
+      <c r="WGJ6" s="2"/>
+      <c r="WGL6" s="2"/>
+      <c r="WGN6" s="2"/>
+      <c r="WGP6" s="2"/>
+      <c r="WGR6" s="2"/>
+      <c r="WGT6" s="2"/>
+      <c r="WGV6" s="2"/>
+      <c r="WGX6" s="2"/>
+      <c r="WGZ6" s="2"/>
+      <c r="WHB6" s="2"/>
+      <c r="WHD6" s="2"/>
+      <c r="WHF6" s="2"/>
+      <c r="WHH6" s="2"/>
+      <c r="WHJ6" s="2"/>
+      <c r="WHL6" s="2"/>
+      <c r="WHN6" s="2"/>
+      <c r="WHP6" s="2"/>
+      <c r="WHR6" s="2"/>
+      <c r="WHT6" s="2"/>
+      <c r="WHV6" s="2"/>
+      <c r="WHX6" s="2"/>
+      <c r="WHZ6" s="2"/>
+      <c r="WIB6" s="2"/>
+      <c r="WID6" s="2"/>
+      <c r="WIF6" s="2"/>
+      <c r="WIH6" s="2"/>
+      <c r="WIJ6" s="2"/>
+      <c r="WIL6" s="2"/>
+      <c r="WIN6" s="2"/>
+      <c r="WIP6" s="2"/>
+      <c r="WIR6" s="2"/>
+      <c r="WIT6" s="2"/>
+      <c r="WIV6" s="2"/>
+      <c r="WIX6" s="2"/>
+      <c r="WIZ6" s="2"/>
+      <c r="WJB6" s="2"/>
+      <c r="WJD6" s="2"/>
+      <c r="WJF6" s="2"/>
+      <c r="WJH6" s="2"/>
+      <c r="WJJ6" s="2"/>
+      <c r="WJL6" s="2"/>
+      <c r="WJN6" s="2"/>
+      <c r="WJP6" s="2"/>
+      <c r="WJR6" s="2"/>
+      <c r="WJT6" s="2"/>
+      <c r="WJV6" s="2"/>
+      <c r="WJX6" s="2"/>
+      <c r="WJZ6" s="2"/>
+      <c r="WKB6" s="2"/>
+      <c r="WKD6" s="2"/>
+      <c r="WKF6" s="2"/>
+      <c r="WKH6" s="2"/>
+      <c r="WKJ6" s="2"/>
+      <c r="WKL6" s="2"/>
+      <c r="WKN6" s="2"/>
+      <c r="WKP6" s="2"/>
+      <c r="WKR6" s="2"/>
+      <c r="WKT6" s="2"/>
+      <c r="WKV6" s="2"/>
+      <c r="WKX6" s="2"/>
+      <c r="WKZ6" s="2"/>
+      <c r="WLB6" s="2"/>
+      <c r="WLD6" s="2"/>
+      <c r="WLF6" s="2"/>
+      <c r="WLH6" s="2"/>
+      <c r="WLJ6" s="2"/>
+      <c r="WLL6" s="2"/>
+      <c r="WLN6" s="2"/>
+      <c r="WLP6" s="2"/>
+      <c r="WLR6" s="2"/>
+      <c r="WLT6" s="2"/>
+      <c r="WLV6" s="2"/>
+      <c r="WLX6" s="2"/>
+      <c r="WLZ6" s="2"/>
+      <c r="WMB6" s="2"/>
+      <c r="WMD6" s="2"/>
+      <c r="WMF6" s="2"/>
+      <c r="WMH6" s="2"/>
+      <c r="WMJ6" s="2"/>
+      <c r="WML6" s="2"/>
+      <c r="WMN6" s="2"/>
+      <c r="WMP6" s="2"/>
+      <c r="WMR6" s="2"/>
+      <c r="WMT6" s="2"/>
+      <c r="WMV6" s="2"/>
+      <c r="WMX6" s="2"/>
+      <c r="WMZ6" s="2"/>
+      <c r="WNB6" s="2"/>
+      <c r="WND6" s="2"/>
+      <c r="WNF6" s="2"/>
+      <c r="WNH6" s="2"/>
+      <c r="WNJ6" s="2"/>
+      <c r="WNL6" s="2"/>
+      <c r="WNN6" s="2"/>
+      <c r="WNP6" s="2"/>
+      <c r="WNR6" s="2"/>
+      <c r="WNT6" s="2"/>
+      <c r="WNV6" s="2"/>
+      <c r="WNX6" s="2"/>
+      <c r="WNZ6" s="2"/>
+      <c r="WOB6" s="2"/>
+      <c r="WOD6" s="2"/>
+      <c r="WOF6" s="2"/>
+      <c r="WOH6" s="2"/>
+      <c r="WOJ6" s="2"/>
+      <c r="WOL6" s="2"/>
+      <c r="WON6" s="2"/>
+      <c r="WOP6" s="2"/>
+      <c r="WOR6" s="2"/>
+      <c r="WOT6" s="2"/>
+      <c r="WOV6" s="2"/>
+      <c r="WOX6" s="2"/>
+      <c r="WOZ6" s="2"/>
+      <c r="WPB6" s="2"/>
+      <c r="WPD6" s="2"/>
+      <c r="WPF6" s="2"/>
+      <c r="WPH6" s="2"/>
+      <c r="WPJ6" s="2"/>
+      <c r="WPL6" s="2"/>
+      <c r="WPN6" s="2"/>
+      <c r="WPP6" s="2"/>
+      <c r="WPR6" s="2"/>
+      <c r="WPT6" s="2"/>
+      <c r="WPV6" s="2"/>
+      <c r="WPX6" s="2"/>
+      <c r="WPZ6" s="2"/>
+      <c r="WQB6" s="2"/>
+      <c r="WQD6" s="2"/>
+      <c r="WQF6" s="2"/>
+      <c r="WQH6" s="2"/>
+      <c r="WQJ6" s="2"/>
+      <c r="WQL6" s="2"/>
+      <c r="WQN6" s="2"/>
+      <c r="WQP6" s="2"/>
+      <c r="WQR6" s="2"/>
+      <c r="WQT6" s="2"/>
+      <c r="WQV6" s="2"/>
+      <c r="WQX6" s="2"/>
+      <c r="WQZ6" s="2"/>
+      <c r="WRB6" s="2"/>
+      <c r="WRD6" s="2"/>
+      <c r="WRF6" s="2"/>
+      <c r="WRH6" s="2"/>
+      <c r="WRJ6" s="2"/>
+      <c r="WRL6" s="2"/>
+      <c r="WRN6" s="2"/>
+      <c r="WRP6" s="2"/>
+      <c r="WRR6" s="2"/>
+      <c r="WRT6" s="2"/>
+      <c r="WRV6" s="2"/>
+      <c r="WRX6" s="2"/>
+      <c r="WRZ6" s="2"/>
+      <c r="WSB6" s="2"/>
+      <c r="WSD6" s="2"/>
+      <c r="WSF6" s="2"/>
+      <c r="WSH6" s="2"/>
+      <c r="WSJ6" s="2"/>
+      <c r="WSL6" s="2"/>
+      <c r="WSN6" s="2"/>
+      <c r="WSP6" s="2"/>
+      <c r="WSR6" s="2"/>
+      <c r="WST6" s="2"/>
+      <c r="WSV6" s="2"/>
+      <c r="WSX6" s="2"/>
+      <c r="WSZ6" s="2"/>
+      <c r="WTB6" s="2"/>
+      <c r="WTD6" s="2"/>
+      <c r="WTF6" s="2"/>
+      <c r="WTH6" s="2"/>
+      <c r="WTJ6" s="2"/>
+      <c r="WTL6" s="2"/>
+      <c r="WTN6" s="2"/>
+      <c r="WTP6" s="2"/>
+      <c r="WTR6" s="2"/>
+      <c r="WTT6" s="2"/>
+      <c r="WTV6" s="2"/>
+      <c r="WTX6" s="2"/>
+      <c r="WTZ6" s="2"/>
+      <c r="WUB6" s="2"/>
+      <c r="WUD6" s="2"/>
+      <c r="WUF6" s="2"/>
+      <c r="WUH6" s="2"/>
+      <c r="WUJ6" s="2"/>
+      <c r="WUL6" s="2"/>
+      <c r="WUN6" s="2"/>
+      <c r="WUP6" s="2"/>
+      <c r="WUR6" s="2"/>
+      <c r="WUT6" s="2"/>
+      <c r="WUV6" s="2"/>
+      <c r="WUX6" s="2"/>
+      <c r="WUZ6" s="2"/>
+      <c r="WVB6" s="2"/>
+      <c r="WVD6" s="2"/>
+      <c r="WVF6" s="2"/>
+      <c r="WVH6" s="2"/>
+      <c r="WVJ6" s="2"/>
+      <c r="WVL6" s="2"/>
+      <c r="WVN6" s="2"/>
+      <c r="WVP6" s="2"/>
+      <c r="WVR6" s="2"/>
+      <c r="WVT6" s="2"/>
+      <c r="WVV6" s="2"/>
+      <c r="WVX6" s="2"/>
+      <c r="WVZ6" s="2"/>
+      <c r="WWB6" s="2"/>
+      <c r="WWD6" s="2"/>
+      <c r="WWF6" s="2"/>
+      <c r="WWH6" s="2"/>
+      <c r="WWJ6" s="2"/>
+      <c r="WWL6" s="2"/>
+      <c r="WWN6" s="2"/>
+      <c r="WWP6" s="2"/>
+      <c r="WWR6" s="2"/>
+      <c r="WWT6" s="2"/>
+      <c r="WWV6" s="2"/>
+      <c r="WWX6" s="2"/>
+      <c r="WWZ6" s="2"/>
+      <c r="WXB6" s="2"/>
+      <c r="WXD6" s="2"/>
+      <c r="WXF6" s="2"/>
+      <c r="WXH6" s="2"/>
+      <c r="WXJ6" s="2"/>
+      <c r="WXL6" s="2"/>
+      <c r="WXN6" s="2"/>
+      <c r="WXP6" s="2"/>
+      <c r="WXR6" s="2"/>
+      <c r="WXT6" s="2"/>
+      <c r="WXV6" s="2"/>
+      <c r="WXX6" s="2"/>
+      <c r="WXZ6" s="2"/>
+      <c r="WYB6" s="2"/>
+      <c r="WYD6" s="2"/>
+      <c r="WYF6" s="2"/>
+      <c r="WYH6" s="2"/>
+      <c r="WYJ6" s="2"/>
+      <c r="WYL6" s="2"/>
+      <c r="WYN6" s="2"/>
+      <c r="WYP6" s="2"/>
+      <c r="WYR6" s="2"/>
+      <c r="WYT6" s="2"/>
+      <c r="WYV6" s="2"/>
+      <c r="WYX6" s="2"/>
+      <c r="WYZ6" s="2"/>
+      <c r="WZB6" s="2"/>
+      <c r="WZD6" s="2"/>
+      <c r="WZF6" s="2"/>
+      <c r="WZH6" s="2"/>
+      <c r="WZJ6" s="2"/>
+      <c r="WZL6" s="2"/>
+      <c r="WZN6" s="2"/>
+      <c r="WZP6" s="2"/>
+      <c r="WZR6" s="2"/>
+      <c r="WZT6" s="2"/>
+      <c r="WZV6" s="2"/>
+      <c r="WZX6" s="2"/>
+      <c r="WZZ6" s="2"/>
+      <c r="XAB6" s="2"/>
+      <c r="XAD6" s="2"/>
+      <c r="XAF6" s="2"/>
+      <c r="XAH6" s="2"/>
+      <c r="XAJ6" s="2"/>
+      <c r="XAL6" s="2"/>
+      <c r="XAN6" s="2"/>
+      <c r="XAP6" s="2"/>
+      <c r="XAR6" s="2"/>
+      <c r="XAT6" s="2"/>
+      <c r="XAV6" s="2"/>
+      <c r="XAX6" s="2"/>
+      <c r="XAZ6" s="2"/>
+      <c r="XBB6" s="2"/>
+      <c r="XBD6" s="2"/>
+      <c r="XBF6" s="2"/>
+      <c r="XBH6" s="2"/>
+      <c r="XBJ6" s="2"/>
+      <c r="XBL6" s="2"/>
+      <c r="XBN6" s="2"/>
+      <c r="XBP6" s="2"/>
+      <c r="XBR6" s="2"/>
+      <c r="XBT6" s="2"/>
+      <c r="XBV6" s="2"/>
+      <c r="XBX6" s="2"/>
+      <c r="XBZ6" s="2"/>
+      <c r="XCB6" s="2"/>
+      <c r="XCD6" s="2"/>
+      <c r="XCF6" s="2"/>
+      <c r="XCH6" s="2"/>
+      <c r="XCJ6" s="2"/>
+      <c r="XCL6" s="2"/>
+      <c r="XCN6" s="2"/>
+      <c r="XCP6" s="2"/>
+      <c r="XCR6" s="2"/>
+      <c r="XCT6" s="2"/>
+      <c r="XCV6" s="2"/>
+      <c r="XCX6" s="2"/>
+      <c r="XCZ6" s="2"/>
+      <c r="XDB6" s="2"/>
+      <c r="XDD6" s="2"/>
+      <c r="XDF6" s="2"/>
+      <c r="XDH6" s="2"/>
+      <c r="XDJ6" s="2"/>
+      <c r="XDL6" s="2"/>
+      <c r="XDN6" s="2"/>
+      <c r="XDP6" s="2"/>
+      <c r="XDR6" s="2"/>
+      <c r="XDT6" s="2"/>
+      <c r="XDV6" s="2"/>
+      <c r="XDX6" s="2"/>
+      <c r="XDZ6" s="2"/>
+      <c r="XEB6" s="2"/>
+      <c r="XED6" s="2"/>
+      <c r="XEF6" s="2"/>
+      <c r="XEH6" s="2"/>
+      <c r="XEJ6" s="2"/>
+      <c r="XEL6" s="2"/>
+      <c r="XEN6" s="2"/>
+      <c r="XEP6" s="2"/>
+      <c r="XER6" s="2"/>
+      <c r="XET6" s="2"/>
+      <c r="XEV6" s="2"/>
+      <c r="XEX6" s="2"/>
+      <c r="XEZ6" s="2"/>
+      <c r="XFB6" s="2"/>
+      <c r="XFD6" s="2"/>
+    </row>
+    <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
+      <c r="A7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A9" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
+      <c r="A10" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384">
+      <c r="A11" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="30">
-      <c r="A11" s="14" t="s">
+    <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="30">
+      <c r="A12" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
+      <c r="A13" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="60">
-      <c r="A13" s="14" t="s">
+    <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="60">
+      <c r="A14" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" t="s">
-        <v>119</v>
+      <c r="B14" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>123</v>
+      <c r="B17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>130</v>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>129</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="60">
-      <c r="A18" s="13" t="s">
+    <row r="19" spans="1:3" ht="60">
+      <c r="A19" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60">
+      <c r="A20" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B20" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60">
+      <c r="A21" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60">
+      <c r="A22" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="60">
-      <c r="A19" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60">
-      <c r="A20" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60">
-      <c r="A21" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -10215,11 +18428,12 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
-    <hyperlink ref="B17" r:id="rId2"/>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -10230,8 +18444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11595,7 +19809,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -271,9 +271,6 @@
     <t>Message_E-1016</t>
   </si>
   <si>
-    <t>Corresponding activity for Incarico verbale autorità not found</t>
-  </si>
-  <si>
     <t>Activity is not Nega Evento or Card non applicable</t>
   </si>
   <si>
@@ -428,6 +425,9 @@
   </si>
   <si>
     <t>portal.sogesa.net/</t>
+  </si>
+  <si>
+    <t>Corresponding activity '{0}' not found for claim {1}.</t>
   </si>
 </sst>
 </file>
@@ -845,7 +845,7 @@
   <dimension ref="A1:XFD999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9121,13 +9121,13 @@
     </row>
     <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
@@ -17331,125 +17331,125 @@
     </row>
     <row r="8" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384">
       <c r="A11" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="30">
       <c r="A12" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="60">
       <c r="A14" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60">
       <c r="A19" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60">
       <c r="A20" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60">
       <c r="A21" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60">
       <c r="A22" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
@@ -18444,8 +18444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18711,7 +18711,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -18719,7 +18719,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -18727,7 +18727,7 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -18735,7 +18735,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -18743,7 +18743,7 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -18751,7 +18751,7 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -18759,7 +18759,7 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -18767,7 +18767,7 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -18775,7 +18775,7 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -18783,7 +18783,7 @@
         <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
@@ -18791,7 +18791,7 @@
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
@@ -18799,7 +18799,7 @@
         <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
@@ -18807,7 +18807,7 @@
         <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
@@ -18815,7 +18815,7 @@
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
@@ -18823,39 +18823,39 @@
         <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -337,9 +337,6 @@
     <t>https://gwireuat-0:8443/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t>Corresponding activity for Incarico pericia</t>
-  </si>
-  <si>
     <t>Message_E-1020</t>
   </si>
   <si>
@@ -428,6 +425,9 @@
   </si>
   <si>
     <t>Corresponding activity '{0}' not found for claim {1}.</t>
+  </si>
+  <si>
+    <t>Corresponding activity for Incarico pericia not found</t>
   </si>
 </sst>
 </file>
@@ -9121,13 +9121,13 @@
     </row>
     <row r="6" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
@@ -17339,117 +17339,117 @@
     </row>
     <row r="9" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384">
       <c r="A11" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="30">
       <c r="A12" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="60">
       <c r="A14" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:1024 1026:2048 2050:3072 3074:4096 4098:5120 5122:6144 6146:7168 7170:8192 8194:9216 9218:10240 10242:11264 11266:12288 12290:13312 13314:14336 14338:15360 15362:16384" ht="14.25" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60">
       <c r="A19" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60">
       <c r="A20" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60">
       <c r="A21" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="60">
       <c r="A22" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
@@ -18445,7 +18445,7 @@
   <dimension ref="A1:Z981"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18711,7 +18711,7 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -18852,10 +18852,10 @@
     </row>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -428,6 +428,18 @@
   </si>
   <si>
     <t>Corresponding activity for Incarico pericia not found</t>
+  </si>
+  <si>
+    <t>Message_E-1021</t>
+  </si>
+  <si>
+    <t>Message_E-1022</t>
+  </si>
+  <si>
+    <t>Message_E-1023</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -18445,7 +18457,7 @@
   <dimension ref="A1:Z981"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18786,7 +18798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1">
+    <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -18794,7 +18806,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+    <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -18802,7 +18814,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+    <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -18810,7 +18822,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+    <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -18818,7 +18830,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+    <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -18826,7 +18838,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+    <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -18834,7 +18846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1">
+    <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -18842,7 +18854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1">
+    <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -18850,7 +18862,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1">
+    <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -18858,13 +18870,43 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
